--- a/docs/DQC_US_0080/DQC_0080_ListOfElements.xlsx
+++ b/docs/DQC_US_0080/DQC_0080_ListOfElements.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\David\Documents\GitHub\davidtauriello\dqc_us_rules\docs\DQC_US_0080\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="510" yWindow="630" windowWidth="15975" windowHeight="8640"/>
+    <workbookView xWindow="510" yWindow="630" windowWidth="15980" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="NonNeg" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NonNeg!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NonNeg!$A$2:$S$725</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -6391,8 +6396,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6544,6 +6549,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6590,7 +6603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6622,9 +6635,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6656,6 +6670,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6831,40 +6846,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:V1048576"/>
+      <selection pane="bottomLeft" activeCell="D318" sqref="D318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" style="4" customWidth="1"/>
     <col min="10" max="10" width="7" style="4" customWidth="1"/>
-    <col min="11" max="11" width="44.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="44.81640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="45" style="4" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="4"/>
-    <col min="16" max="16" width="22.42578125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="4"/>
-    <col min="19" max="19" width="14.42578125" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="14.42578125" style="4"/>
+    <col min="14" max="15" width="14.453125" style="4"/>
+    <col min="16" max="16" width="22.453125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="14.453125" style="4"/>
+    <col min="19" max="19" width="14.453125" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="14.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1397</v>
       </c>
@@ -6883,7 +6898,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -6942,7 +6957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1398</v>
       </c>
@@ -6994,7 +7009,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7047,7 +7062,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7100,7 +7115,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7153,7 +7168,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7206,7 +7221,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7259,7 +7274,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7312,7 +7327,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7365,7 +7380,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7418,7 +7433,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7471,7 +7486,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7524,7 +7539,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7577,7 +7592,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7630,7 +7645,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7683,7 +7698,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7734,7 +7749,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7787,7 +7802,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7840,7 +7855,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7893,7 +7908,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7946,7 +7961,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7999,7 +8014,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8052,7 +8067,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8105,7 +8120,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8158,7 +8173,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8211,7 +8226,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8264,7 +8279,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8317,7 +8332,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8370,7 +8385,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8421,7 +8436,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8472,7 +8487,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8523,7 +8538,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8576,7 +8591,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8629,7 +8644,7 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8682,7 +8697,7 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8735,7 +8750,7 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8788,7 +8803,7 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8841,7 +8856,7 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8894,7 +8909,7 @@
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8947,7 +8962,7 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9000,7 +9015,7 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9053,7 +9068,7 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9106,7 +9121,7 @@
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1">
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9159,7 +9174,7 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1">
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9212,7 +9227,7 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1">
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9265,7 +9280,7 @@
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9318,7 +9333,7 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9371,7 +9386,7 @@
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1">
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9424,7 +9439,7 @@
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1">
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9477,7 +9492,7 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1">
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9530,7 +9545,7 @@
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1">
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9583,7 +9598,7 @@
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1">
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9636,7 +9651,7 @@
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1">
+    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9689,7 +9704,7 @@
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1">
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9742,7 +9757,7 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1">
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9795,7 +9810,7 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1">
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9848,7 +9863,7 @@
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1">
+    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9901,7 +9916,7 @@
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1">
+    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9954,7 +9969,7 @@
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1">
+    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10007,7 +10022,7 @@
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1">
+    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10058,7 +10073,7 @@
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1">
+    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10109,7 +10124,7 @@
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
     </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1">
+    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10160,7 +10175,7 @@
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
     </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1">
+    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10213,7 +10228,7 @@
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
     </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1">
+    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10266,7 +10281,7 @@
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
     </row>
-    <row r="66" spans="1:21" ht="15" customHeight="1">
+    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10319,7 +10334,7 @@
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
     </row>
-    <row r="67" spans="1:21" ht="15" customHeight="1">
+    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10372,7 +10387,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
     </row>
-    <row r="68" spans="1:21" ht="15" customHeight="1">
+    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10425,7 +10440,7 @@
       <c r="T68" s="11"/>
       <c r="U68" s="11"/>
     </row>
-    <row r="69" spans="1:21" ht="15" customHeight="1">
+    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10478,7 +10493,7 @@
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
     </row>
-    <row r="70" spans="1:21" ht="15" customHeight="1">
+    <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10531,7 +10546,7 @@
       <c r="T70" s="11"/>
       <c r="U70" s="11"/>
     </row>
-    <row r="71" spans="1:21" ht="15" customHeight="1">
+    <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10584,7 +10599,7 @@
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
     </row>
-    <row r="72" spans="1:21" ht="15" customHeight="1">
+    <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10637,7 +10652,7 @@
       <c r="T72" s="11"/>
       <c r="U72" s="11"/>
     </row>
-    <row r="73" spans="1:21" ht="15" customHeight="1">
+    <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10690,7 +10705,7 @@
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
     </row>
-    <row r="74" spans="1:21" ht="15" customHeight="1">
+    <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10743,7 +10758,7 @@
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
     </row>
-    <row r="75" spans="1:21" ht="15" customHeight="1">
+    <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10796,7 +10811,7 @@
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
     </row>
-    <row r="76" spans="1:21" ht="15" customHeight="1">
+    <row r="76" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10849,7 +10864,7 @@
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
     </row>
-    <row r="77" spans="1:21" ht="15" customHeight="1">
+    <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10902,7 +10917,7 @@
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
     </row>
-    <row r="78" spans="1:21" ht="15" customHeight="1">
+    <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10955,7 +10970,7 @@
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
     </row>
-    <row r="79" spans="1:21" ht="15" customHeight="1">
+    <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11008,7 +11023,7 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
     </row>
-    <row r="80" spans="1:21" ht="15" customHeight="1">
+    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11061,7 +11076,7 @@
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
     </row>
-    <row r="81" spans="1:21" ht="15" customHeight="1">
+    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11112,7 +11127,7 @@
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
     </row>
-    <row r="82" spans="1:21" ht="15" customHeight="1">
+    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11165,7 +11180,7 @@
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1">
+    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11218,7 +11233,7 @@
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
     </row>
-    <row r="84" spans="1:21" ht="15" customHeight="1">
+    <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11271,7 +11286,7 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
     </row>
-    <row r="85" spans="1:21" ht="15" customHeight="1">
+    <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11324,7 +11339,7 @@
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
     </row>
-    <row r="86" spans="1:21" ht="15" customHeight="1">
+    <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11377,7 +11392,7 @@
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
     </row>
-    <row r="87" spans="1:21" ht="15" customHeight="1">
+    <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11430,7 +11445,7 @@
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
     </row>
-    <row r="88" spans="1:21" ht="15" customHeight="1">
+    <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11483,7 +11498,7 @@
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
     </row>
-    <row r="89" spans="1:21" ht="15" customHeight="1">
+    <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11536,7 +11551,7 @@
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
     </row>
-    <row r="90" spans="1:21" ht="15" customHeight="1">
+    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11589,7 +11604,7 @@
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
     </row>
-    <row r="91" spans="1:21" ht="15" customHeight="1">
+    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11642,7 +11657,7 @@
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
     </row>
-    <row r="92" spans="1:21" ht="15" customHeight="1">
+    <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11693,7 +11708,7 @@
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
     </row>
-    <row r="93" spans="1:21" ht="15" customHeight="1">
+    <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11746,7 +11761,7 @@
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
     </row>
-    <row r="94" spans="1:21" ht="15" customHeight="1">
+    <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11799,7 +11814,7 @@
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
     </row>
-    <row r="95" spans="1:21" ht="15" customHeight="1">
+    <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11852,7 +11867,7 @@
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
     </row>
-    <row r="96" spans="1:21" ht="15" customHeight="1">
+    <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11903,7 +11918,7 @@
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
     </row>
-    <row r="97" spans="1:21" ht="15" customHeight="1">
+    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11956,7 +11971,7 @@
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
     </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1">
+    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12009,7 +12024,7 @@
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
     </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1">
+    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12060,7 +12075,7 @@
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
     </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1">
+    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12111,7 +12126,7 @@
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
     </row>
-    <row r="101" spans="1:21" ht="15" customHeight="1">
+    <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12162,7 +12177,7 @@
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
     </row>
-    <row r="102" spans="1:21" ht="15" customHeight="1">
+    <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12215,7 +12230,7 @@
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
     </row>
-    <row r="103" spans="1:21" ht="15" customHeight="1">
+    <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12268,7 +12283,7 @@
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
     </row>
-    <row r="104" spans="1:21" ht="15" customHeight="1">
+    <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12321,7 +12336,7 @@
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
     </row>
-    <row r="105" spans="1:21" ht="15" customHeight="1">
+    <row r="105" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12374,7 +12389,7 @@
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
     </row>
-    <row r="106" spans="1:21" ht="15" customHeight="1">
+    <row r="106" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12427,7 +12442,7 @@
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
     </row>
-    <row r="107" spans="1:21" ht="15" customHeight="1">
+    <row r="107" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12480,7 +12495,7 @@
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
     </row>
-    <row r="108" spans="1:21" ht="15" customHeight="1">
+    <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12533,7 +12548,7 @@
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
     </row>
-    <row r="109" spans="1:21" ht="15" customHeight="1">
+    <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12586,7 +12601,7 @@
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
     </row>
-    <row r="110" spans="1:21" ht="15" customHeight="1">
+    <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12639,7 +12654,7 @@
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
     </row>
-    <row r="111" spans="1:21" ht="15" customHeight="1">
+    <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12692,7 +12707,7 @@
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
     </row>
-    <row r="112" spans="1:21" ht="15" customHeight="1">
+    <row r="112" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12745,7 +12760,7 @@
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
     </row>
-    <row r="113" spans="1:21" ht="15" customHeight="1">
+    <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12798,7 +12813,7 @@
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
     </row>
-    <row r="114" spans="1:21" ht="15" customHeight="1">
+    <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12851,7 +12866,7 @@
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
     </row>
-    <row r="115" spans="1:21" ht="15" customHeight="1">
+    <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12904,7 +12919,7 @@
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
     </row>
-    <row r="116" spans="1:21" ht="15" customHeight="1">
+    <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12957,7 +12972,7 @@
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
     </row>
-    <row r="117" spans="1:21" ht="15" customHeight="1">
+    <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13010,7 +13025,7 @@
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
     </row>
-    <row r="118" spans="1:21" ht="15" customHeight="1">
+    <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13061,7 +13076,7 @@
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
     </row>
-    <row r="119" spans="1:21" ht="15" customHeight="1">
+    <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13112,7 +13127,7 @@
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
     </row>
-    <row r="120" spans="1:21" ht="15" customHeight="1">
+    <row r="120" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13165,7 +13180,7 @@
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
     </row>
-    <row r="121" spans="1:21" ht="15" customHeight="1">
+    <row r="121" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13216,7 +13231,7 @@
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
     </row>
-    <row r="122" spans="1:21" ht="15" customHeight="1">
+    <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13269,7 +13284,7 @@
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
     </row>
-    <row r="123" spans="1:21" ht="15" customHeight="1">
+    <row r="123" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13322,7 +13337,7 @@
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
     </row>
-    <row r="124" spans="1:21" ht="15" customHeight="1">
+    <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13375,7 +13390,7 @@
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
     </row>
-    <row r="125" spans="1:21" ht="15" customHeight="1">
+    <row r="125" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13428,7 +13443,7 @@
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
     </row>
-    <row r="126" spans="1:21" ht="15" customHeight="1">
+    <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13481,7 +13496,7 @@
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
     </row>
-    <row r="127" spans="1:21" ht="15" customHeight="1">
+    <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13534,7 +13549,7 @@
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
     </row>
-    <row r="128" spans="1:21" ht="15" customHeight="1">
+    <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13587,7 +13602,7 @@
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
     </row>
-    <row r="129" spans="1:21" ht="15" customHeight="1">
+    <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13640,7 +13655,7 @@
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
     </row>
-    <row r="130" spans="1:21" ht="15" customHeight="1">
+    <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13693,7 +13708,7 @@
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
     </row>
-    <row r="131" spans="1:21" ht="15" customHeight="1">
+    <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13746,7 +13761,7 @@
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
     </row>
-    <row r="132" spans="1:21" ht="15" customHeight="1">
+    <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13799,7 +13814,7 @@
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
     </row>
-    <row r="133" spans="1:21" ht="15" customHeight="1">
+    <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13852,7 +13867,7 @@
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
     </row>
-    <row r="134" spans="1:21" ht="15" customHeight="1">
+    <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13905,7 +13920,7 @@
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
     </row>
-    <row r="135" spans="1:21" ht="15" customHeight="1">
+    <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13956,7 +13971,7 @@
       <c r="T135" s="11"/>
       <c r="U135" s="11"/>
     </row>
-    <row r="136" spans="1:21" ht="15" customHeight="1">
+    <row r="136" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14007,7 +14022,7 @@
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
     </row>
-    <row r="137" spans="1:21" ht="15" customHeight="1">
+    <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14058,7 +14073,7 @@
       <c r="T137" s="11"/>
       <c r="U137" s="11"/>
     </row>
-    <row r="138" spans="1:21" ht="15" customHeight="1">
+    <row r="138" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14111,7 +14126,7 @@
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
     </row>
-    <row r="139" spans="1:21" ht="15" customHeight="1">
+    <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14164,7 +14179,7 @@
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
     </row>
-    <row r="140" spans="1:21" ht="15" customHeight="1">
+    <row r="140" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14217,7 +14232,7 @@
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
     </row>
-    <row r="141" spans="1:21" ht="15" customHeight="1">
+    <row r="141" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14270,7 +14285,7 @@
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
     </row>
-    <row r="142" spans="1:21" ht="15" customHeight="1">
+    <row r="142" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14323,7 +14338,7 @@
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
     </row>
-    <row r="143" spans="1:21" ht="15" customHeight="1">
+    <row r="143" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14376,7 +14391,7 @@
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
     </row>
-    <row r="144" spans="1:21" ht="15" customHeight="1">
+    <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14429,7 +14444,7 @@
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
     </row>
-    <row r="145" spans="1:21" ht="15" customHeight="1">
+    <row r="145" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14482,7 +14497,7 @@
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
     </row>
-    <row r="146" spans="1:21" ht="15" customHeight="1">
+    <row r="146" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14535,7 +14550,7 @@
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
     </row>
-    <row r="147" spans="1:21" ht="15" customHeight="1">
+    <row r="147" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14588,7 +14603,7 @@
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
     </row>
-    <row r="148" spans="1:21" ht="15" customHeight="1">
+    <row r="148" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14641,7 +14656,7 @@
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
     </row>
-    <row r="149" spans="1:21" ht="15" customHeight="1">
+    <row r="149" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14694,7 +14709,7 @@
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
     </row>
-    <row r="150" spans="1:21" ht="15" customHeight="1">
+    <row r="150" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14747,7 +14762,7 @@
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
     </row>
-    <row r="151" spans="1:21" ht="15" customHeight="1">
+    <row r="151" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14800,7 +14815,7 @@
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
     </row>
-    <row r="152" spans="1:21" ht="15" customHeight="1">
+    <row r="152" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14853,7 +14868,7 @@
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
     </row>
-    <row r="153" spans="1:21" ht="15" customHeight="1">
+    <row r="153" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14906,7 +14921,7 @@
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
     </row>
-    <row r="154" spans="1:21" ht="15" customHeight="1">
+    <row r="154" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14959,7 +14974,7 @@
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
     </row>
-    <row r="155" spans="1:21" ht="15" customHeight="1">
+    <row r="155" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15012,7 +15027,7 @@
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
     </row>
-    <row r="156" spans="1:21" ht="15" customHeight="1">
+    <row r="156" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15065,7 +15080,7 @@
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
     </row>
-    <row r="157" spans="1:21" ht="15" customHeight="1">
+    <row r="157" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15118,7 +15133,7 @@
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
     </row>
-    <row r="158" spans="1:21" ht="15" customHeight="1">
+    <row r="158" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15171,7 +15186,7 @@
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
     </row>
-    <row r="159" spans="1:21" ht="15" customHeight="1">
+    <row r="159" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15224,7 +15239,7 @@
       <c r="T159" s="11"/>
       <c r="U159" s="11"/>
     </row>
-    <row r="160" spans="1:21" ht="15" customHeight="1">
+    <row r="160" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15277,7 +15292,7 @@
       <c r="T160" s="11"/>
       <c r="U160" s="11"/>
     </row>
-    <row r="161" spans="1:21" ht="15" customHeight="1">
+    <row r="161" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15330,7 +15345,7 @@
       <c r="T161" s="11"/>
       <c r="U161" s="11"/>
     </row>
-    <row r="162" spans="1:21" ht="15" customHeight="1">
+    <row r="162" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15383,7 +15398,7 @@
       <c r="T162" s="11"/>
       <c r="U162" s="11"/>
     </row>
-    <row r="163" spans="1:21" ht="15" customHeight="1">
+    <row r="163" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15436,7 +15451,7 @@
       <c r="T163" s="11"/>
       <c r="U163" s="11"/>
     </row>
-    <row r="164" spans="1:21" ht="15" customHeight="1">
+    <row r="164" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15489,7 +15504,7 @@
       <c r="T164" s="11"/>
       <c r="U164" s="11"/>
     </row>
-    <row r="165" spans="1:21" ht="15" customHeight="1">
+    <row r="165" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15542,7 +15557,7 @@
       <c r="T165" s="11"/>
       <c r="U165" s="11"/>
     </row>
-    <row r="166" spans="1:21" ht="15" customHeight="1">
+    <row r="166" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15595,7 +15610,7 @@
       <c r="T166" s="11"/>
       <c r="U166" s="11"/>
     </row>
-    <row r="167" spans="1:21" ht="15" customHeight="1">
+    <row r="167" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15648,7 +15663,7 @@
       <c r="T167" s="11"/>
       <c r="U167" s="11"/>
     </row>
-    <row r="168" spans="1:21" ht="15" customHeight="1">
+    <row r="168" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15701,7 +15716,7 @@
       <c r="T168" s="11"/>
       <c r="U168" s="11"/>
     </row>
-    <row r="169" spans="1:21" ht="15" customHeight="1">
+    <row r="169" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15754,7 +15769,7 @@
       <c r="T169" s="11"/>
       <c r="U169" s="11"/>
     </row>
-    <row r="170" spans="1:21" ht="15" customHeight="1">
+    <row r="170" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15807,7 +15822,7 @@
       <c r="T170" s="11"/>
       <c r="U170" s="11"/>
     </row>
-    <row r="171" spans="1:21" ht="15" customHeight="1">
+    <row r="171" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15860,7 +15875,7 @@
       <c r="T171" s="11"/>
       <c r="U171" s="11"/>
     </row>
-    <row r="172" spans="1:21" ht="15" customHeight="1">
+    <row r="172" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15913,7 +15928,7 @@
       <c r="T172" s="11"/>
       <c r="U172" s="11"/>
     </row>
-    <row r="173" spans="1:21" ht="15" customHeight="1">
+    <row r="173" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15966,7 +15981,7 @@
       <c r="T173" s="11"/>
       <c r="U173" s="11"/>
     </row>
-    <row r="174" spans="1:21" ht="15" customHeight="1">
+    <row r="174" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16019,7 +16034,7 @@
       <c r="T174" s="11"/>
       <c r="U174" s="11"/>
     </row>
-    <row r="175" spans="1:21" ht="15" customHeight="1">
+    <row r="175" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16072,7 +16087,7 @@
       <c r="T175" s="11"/>
       <c r="U175" s="11"/>
     </row>
-    <row r="176" spans="1:21" ht="15" customHeight="1">
+    <row r="176" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16125,7 +16140,7 @@
       <c r="T176" s="11"/>
       <c r="U176" s="11"/>
     </row>
-    <row r="177" spans="1:21" ht="15" customHeight="1">
+    <row r="177" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16178,7 +16193,7 @@
       <c r="T177" s="11"/>
       <c r="U177" s="11"/>
     </row>
-    <row r="178" spans="1:21" ht="15" customHeight="1">
+    <row r="178" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16231,7 +16246,7 @@
       <c r="T178" s="11"/>
       <c r="U178" s="11"/>
     </row>
-    <row r="179" spans="1:21" ht="15" customHeight="1">
+    <row r="179" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16284,7 +16299,7 @@
       <c r="T179" s="11"/>
       <c r="U179" s="11"/>
     </row>
-    <row r="180" spans="1:21" ht="15" customHeight="1">
+    <row r="180" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16337,7 +16352,7 @@
       <c r="T180" s="11"/>
       <c r="U180" s="11"/>
     </row>
-    <row r="181" spans="1:21" ht="15" customHeight="1">
+    <row r="181" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16390,7 +16405,7 @@
       <c r="T181" s="11"/>
       <c r="U181" s="11"/>
     </row>
-    <row r="182" spans="1:21" ht="15" customHeight="1">
+    <row r="182" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16443,7 +16458,7 @@
       <c r="T182" s="11"/>
       <c r="U182" s="11"/>
     </row>
-    <row r="183" spans="1:21" ht="15" customHeight="1">
+    <row r="183" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16496,7 +16511,7 @@
       <c r="T183" s="11"/>
       <c r="U183" s="11"/>
     </row>
-    <row r="184" spans="1:21" ht="15" customHeight="1">
+    <row r="184" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16549,7 +16564,7 @@
       <c r="T184" s="11"/>
       <c r="U184" s="11"/>
     </row>
-    <row r="185" spans="1:21" ht="15" customHeight="1">
+    <row r="185" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16602,7 +16617,7 @@
       <c r="T185" s="11"/>
       <c r="U185" s="11"/>
     </row>
-    <row r="186" spans="1:21" ht="15" customHeight="1">
+    <row r="186" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16655,7 +16670,7 @@
       <c r="T186" s="11"/>
       <c r="U186" s="11"/>
     </row>
-    <row r="187" spans="1:21" ht="15" customHeight="1">
+    <row r="187" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16708,7 +16723,7 @@
       <c r="T187" s="11"/>
       <c r="U187" s="11"/>
     </row>
-    <row r="188" spans="1:21" ht="15" customHeight="1">
+    <row r="188" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16761,7 +16776,7 @@
       <c r="T188" s="11"/>
       <c r="U188" s="11"/>
     </row>
-    <row r="189" spans="1:21" ht="15" customHeight="1">
+    <row r="189" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16814,7 +16829,7 @@
       <c r="T189" s="11"/>
       <c r="U189" s="11"/>
     </row>
-    <row r="190" spans="1:21" ht="15" customHeight="1">
+    <row r="190" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16867,7 +16882,7 @@
       <c r="T190" s="11"/>
       <c r="U190" s="11"/>
     </row>
-    <row r="191" spans="1:21" ht="15" customHeight="1">
+    <row r="191" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16920,7 +16935,7 @@
       <c r="T191" s="11"/>
       <c r="U191" s="11"/>
     </row>
-    <row r="192" spans="1:21" ht="15" customHeight="1">
+    <row r="192" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16973,7 +16988,7 @@
       <c r="T192" s="11"/>
       <c r="U192" s="11"/>
     </row>
-    <row r="193" spans="1:21" ht="15" customHeight="1">
+    <row r="193" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17026,7 +17041,7 @@
       <c r="T193" s="11"/>
       <c r="U193" s="11"/>
     </row>
-    <row r="194" spans="1:21" ht="15" customHeight="1">
+    <row r="194" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17079,7 +17094,7 @@
       <c r="T194" s="11"/>
       <c r="U194" s="11"/>
     </row>
-    <row r="195" spans="1:21" ht="15" customHeight="1">
+    <row r="195" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17132,7 +17147,7 @@
       <c r="T195" s="11"/>
       <c r="U195" s="11"/>
     </row>
-    <row r="196" spans="1:21" ht="15" customHeight="1">
+    <row r="196" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17185,7 +17200,7 @@
       <c r="T196" s="11"/>
       <c r="U196" s="11"/>
     </row>
-    <row r="197" spans="1:21" ht="15" customHeight="1">
+    <row r="197" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17238,7 +17253,7 @@
       <c r="T197" s="11"/>
       <c r="U197" s="11"/>
     </row>
-    <row r="198" spans="1:21" ht="15" customHeight="1">
+    <row r="198" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17289,7 +17304,7 @@
       <c r="T198" s="11"/>
       <c r="U198" s="11"/>
     </row>
-    <row r="199" spans="1:21" ht="15" customHeight="1">
+    <row r="199" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17342,7 +17357,7 @@
       <c r="T199" s="11"/>
       <c r="U199" s="11"/>
     </row>
-    <row r="200" spans="1:21" ht="15" customHeight="1">
+    <row r="200" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17393,7 +17408,7 @@
       <c r="T200" s="11"/>
       <c r="U200" s="11"/>
     </row>
-    <row r="201" spans="1:21" ht="15" customHeight="1">
+    <row r="201" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17444,7 +17459,7 @@
       <c r="T201" s="11"/>
       <c r="U201" s="11"/>
     </row>
-    <row r="202" spans="1:21" ht="15" customHeight="1">
+    <row r="202" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17497,7 +17512,7 @@
       <c r="T202" s="11"/>
       <c r="U202" s="11"/>
     </row>
-    <row r="203" spans="1:21" ht="15" customHeight="1">
+    <row r="203" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17550,7 +17565,7 @@
       <c r="T203" s="11"/>
       <c r="U203" s="11"/>
     </row>
-    <row r="204" spans="1:21" ht="15" customHeight="1">
+    <row r="204" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17603,7 +17618,7 @@
       <c r="T204" s="11"/>
       <c r="U204" s="11"/>
     </row>
-    <row r="205" spans="1:21" ht="15" customHeight="1">
+    <row r="205" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17654,7 +17669,7 @@
       <c r="T205" s="11"/>
       <c r="U205" s="11"/>
     </row>
-    <row r="206" spans="1:21" ht="15" customHeight="1">
+    <row r="206" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17705,7 +17720,7 @@
       <c r="T206" s="11"/>
       <c r="U206" s="11"/>
     </row>
-    <row r="207" spans="1:21" ht="15" customHeight="1">
+    <row r="207" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17756,7 +17771,7 @@
       <c r="T207" s="11"/>
       <c r="U207" s="11"/>
     </row>
-    <row r="208" spans="1:21" ht="15" customHeight="1">
+    <row r="208" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17807,7 +17822,7 @@
       <c r="T208" s="11"/>
       <c r="U208" s="11"/>
     </row>
-    <row r="209" spans="1:21" ht="15" customHeight="1">
+    <row r="209" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17860,7 +17875,7 @@
       <c r="T209" s="11"/>
       <c r="U209" s="11"/>
     </row>
-    <row r="210" spans="1:21" ht="15" customHeight="1">
+    <row r="210" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17913,7 +17928,7 @@
       <c r="T210" s="11"/>
       <c r="U210" s="11"/>
     </row>
-    <row r="211" spans="1:21" ht="15" customHeight="1">
+    <row r="211" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17966,7 +17981,7 @@
       <c r="T211" s="11"/>
       <c r="U211" s="11"/>
     </row>
-    <row r="212" spans="1:21" ht="15" customHeight="1">
+    <row r="212" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18019,7 +18034,7 @@
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
     </row>
-    <row r="213" spans="1:21" ht="15" customHeight="1">
+    <row r="213" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18072,7 +18087,7 @@
       <c r="T213" s="11"/>
       <c r="U213" s="11"/>
     </row>
-    <row r="214" spans="1:21" ht="15" customHeight="1">
+    <row r="214" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18123,7 +18138,7 @@
       <c r="T214" s="11"/>
       <c r="U214" s="11"/>
     </row>
-    <row r="215" spans="1:21" ht="15" customHeight="1">
+    <row r="215" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18174,7 +18189,7 @@
       <c r="T215" s="11"/>
       <c r="U215" s="11"/>
     </row>
-    <row r="216" spans="1:21" ht="15" customHeight="1">
+    <row r="216" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18227,7 +18242,7 @@
       <c r="T216" s="11"/>
       <c r="U216" s="11"/>
     </row>
-    <row r="217" spans="1:21" ht="15" customHeight="1">
+    <row r="217" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18280,7 +18295,7 @@
       <c r="T217" s="11"/>
       <c r="U217" s="11"/>
     </row>
-    <row r="218" spans="1:21" ht="15" customHeight="1">
+    <row r="218" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18333,7 +18348,7 @@
       <c r="T218" s="11"/>
       <c r="U218" s="11"/>
     </row>
-    <row r="219" spans="1:21" ht="15" customHeight="1">
+    <row r="219" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18386,7 +18401,7 @@
       <c r="T219" s="11"/>
       <c r="U219" s="11"/>
     </row>
-    <row r="220" spans="1:21" ht="15" customHeight="1">
+    <row r="220" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18439,7 +18454,7 @@
       <c r="T220" s="11"/>
       <c r="U220" s="11"/>
     </row>
-    <row r="221" spans="1:21" ht="15" customHeight="1">
+    <row r="221" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18492,7 +18507,7 @@
       <c r="T221" s="11"/>
       <c r="U221" s="11"/>
     </row>
-    <row r="222" spans="1:21" ht="15" customHeight="1">
+    <row r="222" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18545,7 +18560,7 @@
       <c r="T222" s="11"/>
       <c r="U222" s="11"/>
     </row>
-    <row r="223" spans="1:21" ht="15" customHeight="1">
+    <row r="223" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18596,7 +18611,7 @@
       <c r="T223" s="11"/>
       <c r="U223" s="11"/>
     </row>
-    <row r="224" spans="1:21" ht="15" customHeight="1">
+    <row r="224" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18649,7 +18664,7 @@
       <c r="T224" s="11"/>
       <c r="U224" s="11"/>
     </row>
-    <row r="225" spans="1:21" ht="15" customHeight="1">
+    <row r="225" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18700,7 +18715,7 @@
       <c r="T225" s="11"/>
       <c r="U225" s="11"/>
     </row>
-    <row r="226" spans="1:21" ht="15" customHeight="1">
+    <row r="226" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18751,7 +18766,7 @@
       <c r="T226" s="11"/>
       <c r="U226" s="11"/>
     </row>
-    <row r="227" spans="1:21" ht="15" customHeight="1">
+    <row r="227" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18804,7 +18819,7 @@
       <c r="T227" s="11"/>
       <c r="U227" s="11"/>
     </row>
-    <row r="228" spans="1:21" ht="15" customHeight="1">
+    <row r="228" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18857,7 +18872,7 @@
       <c r="T228" s="11"/>
       <c r="U228" s="11"/>
     </row>
-    <row r="229" spans="1:21" ht="15" customHeight="1">
+    <row r="229" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18908,7 +18923,7 @@
       <c r="T229" s="11"/>
       <c r="U229" s="11"/>
     </row>
-    <row r="230" spans="1:21" ht="15" customHeight="1">
+    <row r="230" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18959,7 +18974,7 @@
       <c r="T230" s="11"/>
       <c r="U230" s="11"/>
     </row>
-    <row r="231" spans="1:21" ht="15" customHeight="1">
+    <row r="231" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19010,7 +19025,7 @@
       <c r="T231" s="11"/>
       <c r="U231" s="11"/>
     </row>
-    <row r="232" spans="1:21" ht="15" customHeight="1">
+    <row r="232" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19061,7 +19076,7 @@
       <c r="T232" s="11"/>
       <c r="U232" s="11"/>
     </row>
-    <row r="233" spans="1:21" ht="15" customHeight="1">
+    <row r="233" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19114,7 +19129,7 @@
       <c r="T233" s="11"/>
       <c r="U233" s="11"/>
     </row>
-    <row r="234" spans="1:21" ht="15" customHeight="1">
+    <row r="234" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19167,7 +19182,7 @@
       <c r="T234" s="11"/>
       <c r="U234" s="11"/>
     </row>
-    <row r="235" spans="1:21" ht="15" customHeight="1">
+    <row r="235" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19220,7 +19235,7 @@
       <c r="T235" s="11"/>
       <c r="U235" s="11"/>
     </row>
-    <row r="236" spans="1:21" ht="15" customHeight="1">
+    <row r="236" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19273,7 +19288,7 @@
       <c r="T236" s="11"/>
       <c r="U236" s="11"/>
     </row>
-    <row r="237" spans="1:21" ht="15" customHeight="1">
+    <row r="237" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19324,7 +19339,7 @@
       <c r="T237" s="11"/>
       <c r="U237" s="11"/>
     </row>
-    <row r="238" spans="1:21" ht="15" customHeight="1">
+    <row r="238" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19377,7 +19392,7 @@
       <c r="T238" s="11"/>
       <c r="U238" s="11"/>
     </row>
-    <row r="239" spans="1:21" ht="15" customHeight="1">
+    <row r="239" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19430,7 +19445,7 @@
       <c r="T239" s="11"/>
       <c r="U239" s="11"/>
     </row>
-    <row r="240" spans="1:21" ht="15" customHeight="1">
+    <row r="240" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19481,7 +19496,7 @@
       <c r="T240" s="11"/>
       <c r="U240" s="11"/>
     </row>
-    <row r="241" spans="1:21" ht="15" customHeight="1">
+    <row r="241" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19532,7 +19547,7 @@
       <c r="T241" s="11"/>
       <c r="U241" s="11"/>
     </row>
-    <row r="242" spans="1:21" ht="15" customHeight="1">
+    <row r="242" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19585,7 +19600,7 @@
       <c r="T242" s="11"/>
       <c r="U242" s="11"/>
     </row>
-    <row r="243" spans="1:21" ht="15" customHeight="1">
+    <row r="243" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19636,7 +19651,7 @@
       <c r="T243" s="11"/>
       <c r="U243" s="11"/>
     </row>
-    <row r="244" spans="1:21" ht="15" customHeight="1">
+    <row r="244" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19689,7 +19704,7 @@
       <c r="T244" s="11"/>
       <c r="U244" s="11"/>
     </row>
-    <row r="245" spans="1:21" ht="15" customHeight="1">
+    <row r="245" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19740,7 +19755,7 @@
       <c r="T245" s="11"/>
       <c r="U245" s="11"/>
     </row>
-    <row r="246" spans="1:21" ht="15" customHeight="1">
+    <row r="246" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19791,7 +19806,7 @@
       <c r="T246" s="11"/>
       <c r="U246" s="11"/>
     </row>
-    <row r="247" spans="1:21" ht="15" customHeight="1">
+    <row r="247" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19842,7 +19857,7 @@
       <c r="T247" s="11"/>
       <c r="U247" s="11"/>
     </row>
-    <row r="248" spans="1:21" ht="15" customHeight="1">
+    <row r="248" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19895,7 +19910,7 @@
       <c r="T248" s="11"/>
       <c r="U248" s="11"/>
     </row>
-    <row r="249" spans="1:21" ht="15" customHeight="1">
+    <row r="249" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19948,7 +19963,7 @@
       <c r="T249" s="11"/>
       <c r="U249" s="11"/>
     </row>
-    <row r="250" spans="1:21" ht="15" customHeight="1">
+    <row r="250" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20001,7 +20016,7 @@
       <c r="T250" s="11"/>
       <c r="U250" s="11"/>
     </row>
-    <row r="251" spans="1:21" ht="15" customHeight="1">
+    <row r="251" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20054,7 +20069,7 @@
       <c r="T251" s="11"/>
       <c r="U251" s="11"/>
     </row>
-    <row r="252" spans="1:21" ht="15" customHeight="1">
+    <row r="252" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20107,7 +20122,7 @@
       <c r="T252" s="11"/>
       <c r="U252" s="11"/>
     </row>
-    <row r="253" spans="1:21" ht="15" customHeight="1">
+    <row r="253" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20160,7 +20175,7 @@
       <c r="T253" s="11"/>
       <c r="U253" s="11"/>
     </row>
-    <row r="254" spans="1:21" ht="15" customHeight="1">
+    <row r="254" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20213,7 +20228,7 @@
       <c r="T254" s="11"/>
       <c r="U254" s="11"/>
     </row>
-    <row r="255" spans="1:21" ht="15" customHeight="1">
+    <row r="255" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20266,7 +20281,7 @@
       <c r="T255" s="11"/>
       <c r="U255" s="11"/>
     </row>
-    <row r="256" spans="1:21" ht="15" customHeight="1">
+    <row r="256" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20319,7 +20334,7 @@
       <c r="T256" s="11"/>
       <c r="U256" s="11"/>
     </row>
-    <row r="257" spans="1:21" ht="15" customHeight="1">
+    <row r="257" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20372,7 +20387,7 @@
       <c r="T257" s="11"/>
       <c r="U257" s="11"/>
     </row>
-    <row r="258" spans="1:21" ht="15" customHeight="1">
+    <row r="258" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20425,7 +20440,7 @@
       <c r="T258" s="11"/>
       <c r="U258" s="11"/>
     </row>
-    <row r="259" spans="1:21" ht="15" customHeight="1">
+    <row r="259" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20478,7 +20493,7 @@
       <c r="T259" s="11"/>
       <c r="U259" s="11"/>
     </row>
-    <row r="260" spans="1:21" ht="15" customHeight="1">
+    <row r="260" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20531,7 +20546,7 @@
       <c r="T260" s="11"/>
       <c r="U260" s="11"/>
     </row>
-    <row r="261" spans="1:21" ht="15" customHeight="1">
+    <row r="261" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20584,7 +20599,7 @@
       <c r="T261" s="11"/>
       <c r="U261" s="11"/>
     </row>
-    <row r="262" spans="1:21" ht="15" customHeight="1">
+    <row r="262" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20637,7 +20652,7 @@
       <c r="T262" s="11"/>
       <c r="U262" s="11"/>
     </row>
-    <row r="263" spans="1:21" ht="15" customHeight="1">
+    <row r="263" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20690,7 +20705,7 @@
       <c r="T263" s="11"/>
       <c r="U263" s="11"/>
     </row>
-    <row r="264" spans="1:21" ht="15" customHeight="1">
+    <row r="264" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20743,7 +20758,7 @@
       <c r="T264" s="11"/>
       <c r="U264" s="11"/>
     </row>
-    <row r="265" spans="1:21" ht="15" customHeight="1">
+    <row r="265" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20796,7 +20811,7 @@
       <c r="T265" s="11"/>
       <c r="U265" s="11"/>
     </row>
-    <row r="266" spans="1:21" ht="15" customHeight="1">
+    <row r="266" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20849,7 +20864,7 @@
       <c r="T266" s="11"/>
       <c r="U266" s="11"/>
     </row>
-    <row r="267" spans="1:21" ht="15" customHeight="1">
+    <row r="267" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20902,7 +20917,7 @@
       <c r="T267" s="11"/>
       <c r="U267" s="11"/>
     </row>
-    <row r="268" spans="1:21" ht="15" customHeight="1">
+    <row r="268" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20955,7 +20970,7 @@
       <c r="T268" s="11"/>
       <c r="U268" s="11"/>
     </row>
-    <row r="269" spans="1:21" ht="15" customHeight="1">
+    <row r="269" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21008,7 +21023,7 @@
       <c r="T269" s="11"/>
       <c r="U269" s="11"/>
     </row>
-    <row r="270" spans="1:21" ht="15" customHeight="1">
+    <row r="270" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21061,7 +21076,7 @@
       <c r="T270" s="11"/>
       <c r="U270" s="11"/>
     </row>
-    <row r="271" spans="1:21" ht="15" customHeight="1">
+    <row r="271" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21114,7 +21129,7 @@
       <c r="T271" s="11"/>
       <c r="U271" s="11"/>
     </row>
-    <row r="272" spans="1:21" ht="15" customHeight="1">
+    <row r="272" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21167,7 +21182,7 @@
       <c r="T272" s="11"/>
       <c r="U272" s="11"/>
     </row>
-    <row r="273" spans="1:21" ht="15" customHeight="1">
+    <row r="273" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21220,7 +21235,7 @@
       <c r="T273" s="11"/>
       <c r="U273" s="11"/>
     </row>
-    <row r="274" spans="1:21" ht="15" customHeight="1">
+    <row r="274" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21273,7 +21288,7 @@
       <c r="T274" s="11"/>
       <c r="U274" s="11"/>
     </row>
-    <row r="275" spans="1:21" ht="15" customHeight="1">
+    <row r="275" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21326,7 +21341,7 @@
       <c r="T275" s="11"/>
       <c r="U275" s="11"/>
     </row>
-    <row r="276" spans="1:21" ht="15" customHeight="1">
+    <row r="276" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21379,7 +21394,7 @@
       <c r="T276" s="11"/>
       <c r="U276" s="11"/>
     </row>
-    <row r="277" spans="1:21" ht="15" customHeight="1">
+    <row r="277" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21432,7 +21447,7 @@
       <c r="T277" s="11"/>
       <c r="U277" s="11"/>
     </row>
-    <row r="278" spans="1:21" ht="15" customHeight="1">
+    <row r="278" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21485,7 +21500,7 @@
       <c r="T278" s="11"/>
       <c r="U278" s="11"/>
     </row>
-    <row r="279" spans="1:21" ht="15" customHeight="1">
+    <row r="279" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21538,7 +21553,7 @@
       <c r="T279" s="11"/>
       <c r="U279" s="11"/>
     </row>
-    <row r="280" spans="1:21" ht="15" customHeight="1">
+    <row r="280" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21591,7 +21606,7 @@
       <c r="T280" s="11"/>
       <c r="U280" s="11"/>
     </row>
-    <row r="281" spans="1:21" ht="15" customHeight="1">
+    <row r="281" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21644,7 +21659,7 @@
       <c r="T281" s="11"/>
       <c r="U281" s="11"/>
     </row>
-    <row r="282" spans="1:21" ht="15" customHeight="1">
+    <row r="282" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21697,7 +21712,7 @@
       <c r="T282" s="11"/>
       <c r="U282" s="11"/>
     </row>
-    <row r="283" spans="1:21" ht="15" customHeight="1">
+    <row r="283" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21750,7 +21765,7 @@
       <c r="T283" s="11"/>
       <c r="U283" s="11"/>
     </row>
-    <row r="284" spans="1:21" ht="15" customHeight="1">
+    <row r="284" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21803,7 +21818,7 @@
       <c r="T284" s="11"/>
       <c r="U284" s="11"/>
     </row>
-    <row r="285" spans="1:21" ht="15" customHeight="1">
+    <row r="285" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21856,7 +21871,7 @@
       <c r="T285" s="11"/>
       <c r="U285" s="11"/>
     </row>
-    <row r="286" spans="1:21" ht="15" customHeight="1">
+    <row r="286" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21909,7 +21924,7 @@
       <c r="T286" s="11"/>
       <c r="U286" s="11"/>
     </row>
-    <row r="287" spans="1:21" ht="15" customHeight="1">
+    <row r="287" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21962,7 +21977,7 @@
       <c r="T287" s="11"/>
       <c r="U287" s="11"/>
     </row>
-    <row r="288" spans="1:21" ht="15" customHeight="1">
+    <row r="288" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22015,7 +22030,7 @@
       <c r="T288" s="11"/>
       <c r="U288" s="11"/>
     </row>
-    <row r="289" spans="1:21" ht="15" customHeight="1">
+    <row r="289" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22068,7 +22083,7 @@
       <c r="T289" s="11"/>
       <c r="U289" s="11"/>
     </row>
-    <row r="290" spans="1:21" ht="15" customHeight="1">
+    <row r="290" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22121,7 +22136,7 @@
       <c r="T290" s="11"/>
       <c r="U290" s="11"/>
     </row>
-    <row r="291" spans="1:21" ht="15" customHeight="1">
+    <row r="291" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22174,7 +22189,7 @@
       <c r="T291" s="11"/>
       <c r="U291" s="11"/>
     </row>
-    <row r="292" spans="1:21" ht="15" customHeight="1">
+    <row r="292" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22227,7 +22242,7 @@
       <c r="T292" s="11"/>
       <c r="U292" s="11"/>
     </row>
-    <row r="293" spans="1:21" ht="15" customHeight="1">
+    <row r="293" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22280,7 +22295,7 @@
       <c r="T293" s="11"/>
       <c r="U293" s="11"/>
     </row>
-    <row r="294" spans="1:21" ht="15" customHeight="1">
+    <row r="294" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22333,7 +22348,7 @@
       <c r="T294" s="11"/>
       <c r="U294" s="11"/>
     </row>
-    <row r="295" spans="1:21" ht="15" customHeight="1">
+    <row r="295" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22386,7 +22401,7 @@
       <c r="T295" s="11"/>
       <c r="U295" s="11"/>
     </row>
-    <row r="296" spans="1:21" ht="15" customHeight="1">
+    <row r="296" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22439,7 +22454,7 @@
       <c r="T296" s="11"/>
       <c r="U296" s="11"/>
     </row>
-    <row r="297" spans="1:21" ht="15" customHeight="1">
+    <row r="297" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22490,7 +22505,7 @@
       <c r="T297" s="11"/>
       <c r="U297" s="11"/>
     </row>
-    <row r="298" spans="1:21" ht="15" customHeight="1">
+    <row r="298" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22543,7 +22558,7 @@
       <c r="T298" s="11"/>
       <c r="U298" s="11"/>
     </row>
-    <row r="299" spans="1:21" ht="15" customHeight="1">
+    <row r="299" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22596,7 +22611,7 @@
       <c r="T299" s="11"/>
       <c r="U299" s="11"/>
     </row>
-    <row r="300" spans="1:21" ht="15" customHeight="1">
+    <row r="300" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22649,7 +22664,7 @@
       <c r="T300" s="11"/>
       <c r="U300" s="11"/>
     </row>
-    <row r="301" spans="1:21" ht="15" customHeight="1">
+    <row r="301" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22702,7 +22717,7 @@
       <c r="T301" s="11"/>
       <c r="U301" s="11"/>
     </row>
-    <row r="302" spans="1:21" ht="15" customHeight="1">
+    <row r="302" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22755,7 +22770,7 @@
       <c r="T302" s="11"/>
       <c r="U302" s="11"/>
     </row>
-    <row r="303" spans="1:21" ht="15" customHeight="1">
+    <row r="303" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22808,7 +22823,7 @@
       <c r="T303" s="11"/>
       <c r="U303" s="11"/>
     </row>
-    <row r="304" spans="1:21" ht="15" customHeight="1">
+    <row r="304" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22861,7 +22876,7 @@
       <c r="T304" s="11"/>
       <c r="U304" s="11"/>
     </row>
-    <row r="305" spans="1:21" ht="15" customHeight="1">
+    <row r="305" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22914,7 +22929,7 @@
       <c r="T305" s="11"/>
       <c r="U305" s="11"/>
     </row>
-    <row r="306" spans="1:21" ht="15" customHeight="1">
+    <row r="306" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22963,7 +22978,7 @@
       <c r="T306" s="11"/>
       <c r="U306" s="11"/>
     </row>
-    <row r="307" spans="1:21" ht="15" customHeight="1">
+    <row r="307" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23016,7 +23031,7 @@
       <c r="T307" s="11"/>
       <c r="U307" s="11"/>
     </row>
-    <row r="308" spans="1:21" ht="15" customHeight="1">
+    <row r="308" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23069,7 +23084,7 @@
       <c r="T308" s="11"/>
       <c r="U308" s="11"/>
     </row>
-    <row r="309" spans="1:21" ht="15" customHeight="1">
+    <row r="309" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23122,7 +23137,7 @@
       <c r="T309" s="11"/>
       <c r="U309" s="11"/>
     </row>
-    <row r="310" spans="1:21" ht="15" customHeight="1">
+    <row r="310" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23175,7 +23190,7 @@
       <c r="T310" s="11"/>
       <c r="U310" s="11"/>
     </row>
-    <row r="311" spans="1:21" ht="15" customHeight="1">
+    <row r="311" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23228,7 +23243,7 @@
       <c r="T311" s="11"/>
       <c r="U311" s="11"/>
     </row>
-    <row r="312" spans="1:21" ht="15" customHeight="1">
+    <row r="312" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23279,7 +23294,7 @@
       <c r="T312" s="11"/>
       <c r="U312" s="11"/>
     </row>
-    <row r="313" spans="1:21" ht="15" customHeight="1">
+    <row r="313" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23330,7 +23345,7 @@
       <c r="T313" s="11"/>
       <c r="U313" s="11"/>
     </row>
-    <row r="314" spans="1:21" ht="15" customHeight="1">
+    <row r="314" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23383,7 +23398,7 @@
       <c r="T314" s="11"/>
       <c r="U314" s="11"/>
     </row>
-    <row r="315" spans="1:21" ht="15" customHeight="1">
+    <row r="315" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23436,7 +23451,7 @@
       <c r="T315" s="11"/>
       <c r="U315" s="11"/>
     </row>
-    <row r="316" spans="1:21" ht="15" customHeight="1">
+    <row r="316" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23489,7 +23504,7 @@
       <c r="T316" s="11"/>
       <c r="U316" s="11"/>
     </row>
-    <row r="317" spans="1:21" ht="15" customHeight="1">
+    <row r="317" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23542,7 +23557,7 @@
       <c r="T317" s="11"/>
       <c r="U317" s="11"/>
     </row>
-    <row r="318" spans="1:21" ht="15" customHeight="1">
+    <row r="318" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23595,7 +23610,7 @@
       <c r="T318" s="11"/>
       <c r="U318" s="11"/>
     </row>
-    <row r="319" spans="1:21" ht="15" customHeight="1">
+    <row r="319" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23648,7 +23663,7 @@
       <c r="T319" s="11"/>
       <c r="U319" s="11"/>
     </row>
-    <row r="320" spans="1:21" ht="15" customHeight="1">
+    <row r="320" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23701,7 +23716,7 @@
       <c r="T320" s="11"/>
       <c r="U320" s="11"/>
     </row>
-    <row r="321" spans="1:21" ht="15" customHeight="1">
+    <row r="321" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23754,7 +23769,7 @@
       <c r="T321" s="11"/>
       <c r="U321" s="11"/>
     </row>
-    <row r="322" spans="1:21" ht="15" customHeight="1">
+    <row r="322" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23807,7 +23822,7 @@
       <c r="T322" s="11"/>
       <c r="U322" s="11"/>
     </row>
-    <row r="323" spans="1:21" ht="15" customHeight="1">
+    <row r="323" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23860,7 +23875,7 @@
       <c r="T323" s="11"/>
       <c r="U323" s="11"/>
     </row>
-    <row r="324" spans="1:21" ht="15" customHeight="1">
+    <row r="324" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23913,7 +23928,7 @@
       <c r="T324" s="11"/>
       <c r="U324" s="11"/>
     </row>
-    <row r="325" spans="1:21" ht="15" customHeight="1">
+    <row r="325" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23966,7 +23981,7 @@
       <c r="T325" s="11"/>
       <c r="U325" s="11"/>
     </row>
-    <row r="326" spans="1:21" ht="15" customHeight="1">
+    <row r="326" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24019,7 +24034,7 @@
       <c r="T326" s="11"/>
       <c r="U326" s="11"/>
     </row>
-    <row r="327" spans="1:21" ht="15" customHeight="1">
+    <row r="327" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24072,7 +24087,7 @@
       <c r="T327" s="11"/>
       <c r="U327" s="11"/>
     </row>
-    <row r="328" spans="1:21" ht="15" customHeight="1">
+    <row r="328" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24125,7 +24140,7 @@
       <c r="T328" s="11"/>
       <c r="U328" s="11"/>
     </row>
-    <row r="329" spans="1:21" ht="15" customHeight="1">
+    <row r="329" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24178,7 +24193,7 @@
       <c r="T329" s="11"/>
       <c r="U329" s="11"/>
     </row>
-    <row r="330" spans="1:21" ht="15" customHeight="1">
+    <row r="330" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24231,7 +24246,7 @@
       <c r="T330" s="11"/>
       <c r="U330" s="11"/>
     </row>
-    <row r="331" spans="1:21" ht="15" customHeight="1">
+    <row r="331" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24284,7 +24299,7 @@
       <c r="T331" s="11"/>
       <c r="U331" s="11"/>
     </row>
-    <row r="332" spans="1:21" ht="15" customHeight="1">
+    <row r="332" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24337,7 +24352,7 @@
       <c r="T332" s="11"/>
       <c r="U332" s="11"/>
     </row>
-    <row r="333" spans="1:21" ht="15" customHeight="1">
+    <row r="333" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24390,7 +24405,7 @@
       <c r="T333" s="11"/>
       <c r="U333" s="11"/>
     </row>
-    <row r="334" spans="1:21" ht="15" customHeight="1">
+    <row r="334" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24443,7 +24458,7 @@
       <c r="T334" s="11"/>
       <c r="U334" s="11"/>
     </row>
-    <row r="335" spans="1:21" ht="15" customHeight="1">
+    <row r="335" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24496,7 +24511,7 @@
       <c r="T335" s="11"/>
       <c r="U335" s="11"/>
     </row>
-    <row r="336" spans="1:21" ht="15" customHeight="1">
+    <row r="336" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24549,7 +24564,7 @@
       <c r="T336" s="11"/>
       <c r="U336" s="11"/>
     </row>
-    <row r="337" spans="1:21" ht="15" customHeight="1">
+    <row r="337" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24602,7 +24617,7 @@
       <c r="T337" s="11"/>
       <c r="U337" s="11"/>
     </row>
-    <row r="338" spans="1:21" ht="15" customHeight="1">
+    <row r="338" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24655,7 +24670,7 @@
       <c r="T338" s="11"/>
       <c r="U338" s="11"/>
     </row>
-    <row r="339" spans="1:21" ht="15" customHeight="1">
+    <row r="339" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24708,7 +24723,7 @@
       <c r="T339" s="11"/>
       <c r="U339" s="11"/>
     </row>
-    <row r="340" spans="1:21" ht="15" customHeight="1">
+    <row r="340" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24761,7 +24776,7 @@
       <c r="T340" s="11"/>
       <c r="U340" s="11"/>
     </row>
-    <row r="341" spans="1:21" ht="15" customHeight="1">
+    <row r="341" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24814,7 +24829,7 @@
       <c r="T341" s="11"/>
       <c r="U341" s="11"/>
     </row>
-    <row r="342" spans="1:21" ht="15" customHeight="1">
+    <row r="342" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24867,7 +24882,7 @@
       <c r="T342" s="11"/>
       <c r="U342" s="11"/>
     </row>
-    <row r="343" spans="1:21" ht="15" customHeight="1">
+    <row r="343" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24920,7 +24935,7 @@
       <c r="T343" s="11"/>
       <c r="U343" s="11"/>
     </row>
-    <row r="344" spans="1:21" ht="15" customHeight="1">
+    <row r="344" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24973,7 +24988,7 @@
       <c r="T344" s="11"/>
       <c r="U344" s="11"/>
     </row>
-    <row r="345" spans="1:21" ht="15" customHeight="1">
+    <row r="345" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25026,7 +25041,7 @@
       <c r="T345" s="11"/>
       <c r="U345" s="11"/>
     </row>
-    <row r="346" spans="1:21" ht="15" customHeight="1">
+    <row r="346" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25079,7 +25094,7 @@
       <c r="T346" s="11"/>
       <c r="U346" s="11"/>
     </row>
-    <row r="347" spans="1:21" ht="15" customHeight="1">
+    <row r="347" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25132,7 +25147,7 @@
       <c r="T347" s="11"/>
       <c r="U347" s="11"/>
     </row>
-    <row r="348" spans="1:21" ht="15" customHeight="1">
+    <row r="348" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25185,7 +25200,7 @@
       <c r="T348" s="11"/>
       <c r="U348" s="11"/>
     </row>
-    <row r="349" spans="1:21" ht="15" customHeight="1">
+    <row r="349" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25238,7 +25253,7 @@
       <c r="T349" s="11"/>
       <c r="U349" s="11"/>
     </row>
-    <row r="350" spans="1:21" ht="15" customHeight="1">
+    <row r="350" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25291,7 +25306,7 @@
       <c r="T350" s="11"/>
       <c r="U350" s="11"/>
     </row>
-    <row r="351" spans="1:21" ht="15" customHeight="1">
+    <row r="351" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25344,7 +25359,7 @@
       <c r="T351" s="11"/>
       <c r="U351" s="11"/>
     </row>
-    <row r="352" spans="1:21" ht="15" customHeight="1">
+    <row r="352" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25397,7 +25412,7 @@
       <c r="T352" s="11"/>
       <c r="U352" s="11"/>
     </row>
-    <row r="353" spans="1:21" ht="15" customHeight="1">
+    <row r="353" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25450,7 +25465,7 @@
       <c r="T353" s="11"/>
       <c r="U353" s="11"/>
     </row>
-    <row r="354" spans="1:21" ht="15" customHeight="1">
+    <row r="354" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25503,7 +25518,7 @@
       <c r="T354" s="11"/>
       <c r="U354" s="11"/>
     </row>
-    <row r="355" spans="1:21" ht="15" customHeight="1">
+    <row r="355" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25556,7 +25571,7 @@
       <c r="T355" s="11"/>
       <c r="U355" s="11"/>
     </row>
-    <row r="356" spans="1:21" ht="15" customHeight="1">
+    <row r="356" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25609,7 +25624,7 @@
       <c r="T356" s="11"/>
       <c r="U356" s="11"/>
     </row>
-    <row r="357" spans="1:21" ht="15" customHeight="1">
+    <row r="357" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25662,7 +25677,7 @@
       <c r="T357" s="11"/>
       <c r="U357" s="11"/>
     </row>
-    <row r="358" spans="1:21" ht="15" customHeight="1">
+    <row r="358" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25715,7 +25730,7 @@
       <c r="T358" s="11"/>
       <c r="U358" s="11"/>
     </row>
-    <row r="359" spans="1:21" ht="15" customHeight="1">
+    <row r="359" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25766,7 +25781,7 @@
       <c r="T359" s="11"/>
       <c r="U359" s="11"/>
     </row>
-    <row r="360" spans="1:21" ht="15" customHeight="1">
+    <row r="360" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25819,7 +25834,7 @@
       <c r="T360" s="11"/>
       <c r="U360" s="11"/>
     </row>
-    <row r="361" spans="1:21" ht="15" customHeight="1">
+    <row r="361" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25872,7 +25887,7 @@
       <c r="T361" s="11"/>
       <c r="U361" s="11"/>
     </row>
-    <row r="362" spans="1:21" ht="15" customHeight="1">
+    <row r="362" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25925,7 +25940,7 @@
       <c r="T362" s="11"/>
       <c r="U362" s="11"/>
     </row>
-    <row r="363" spans="1:21" ht="15" customHeight="1">
+    <row r="363" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25978,7 +25993,7 @@
       <c r="T363" s="11"/>
       <c r="U363" s="11"/>
     </row>
-    <row r="364" spans="1:21" ht="15" customHeight="1">
+    <row r="364" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26031,7 +26046,7 @@
       <c r="T364" s="11"/>
       <c r="U364" s="11"/>
     </row>
-    <row r="365" spans="1:21" ht="15" customHeight="1">
+    <row r="365" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26084,7 +26099,7 @@
       <c r="T365" s="11"/>
       <c r="U365" s="11"/>
     </row>
-    <row r="366" spans="1:21" ht="15" customHeight="1">
+    <row r="366" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26137,7 +26152,7 @@
       <c r="T366" s="11"/>
       <c r="U366" s="11"/>
     </row>
-    <row r="367" spans="1:21" ht="15" customHeight="1">
+    <row r="367" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26190,7 +26205,7 @@
       <c r="T367" s="11"/>
       <c r="U367" s="11"/>
     </row>
-    <row r="368" spans="1:21" ht="15" customHeight="1">
+    <row r="368" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26243,7 +26258,7 @@
       <c r="T368" s="11"/>
       <c r="U368" s="11"/>
     </row>
-    <row r="369" spans="1:21" ht="15" customHeight="1">
+    <row r="369" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26296,7 +26311,7 @@
       <c r="T369" s="11"/>
       <c r="U369" s="11"/>
     </row>
-    <row r="370" spans="1:21" ht="15" customHeight="1">
+    <row r="370" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26349,7 +26364,7 @@
       <c r="T370" s="11"/>
       <c r="U370" s="11"/>
     </row>
-    <row r="371" spans="1:21" ht="15" customHeight="1">
+    <row r="371" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26402,7 +26417,7 @@
       <c r="T371" s="11"/>
       <c r="U371" s="11"/>
     </row>
-    <row r="372" spans="1:21" ht="15" customHeight="1">
+    <row r="372" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26455,7 +26470,7 @@
       <c r="T372" s="11"/>
       <c r="U372" s="11"/>
     </row>
-    <row r="373" spans="1:21" ht="15" customHeight="1">
+    <row r="373" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26508,7 +26523,7 @@
       <c r="T373" s="11"/>
       <c r="U373" s="11"/>
     </row>
-    <row r="374" spans="1:21" ht="15" customHeight="1">
+    <row r="374" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26561,7 +26576,7 @@
       <c r="T374" s="11"/>
       <c r="U374" s="11"/>
     </row>
-    <row r="375" spans="1:21" ht="15" customHeight="1">
+    <row r="375" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26614,7 +26629,7 @@
       <c r="T375" s="11"/>
       <c r="U375" s="11"/>
     </row>
-    <row r="376" spans="1:21" ht="15" customHeight="1">
+    <row r="376" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26667,7 +26682,7 @@
       <c r="T376" s="11"/>
       <c r="U376" s="11"/>
     </row>
-    <row r="377" spans="1:21" ht="15" customHeight="1">
+    <row r="377" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26720,7 +26735,7 @@
       <c r="T377" s="11"/>
       <c r="U377" s="11"/>
     </row>
-    <row r="378" spans="1:21" ht="15" customHeight="1">
+    <row r="378" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26773,7 +26788,7 @@
       <c r="T378" s="11"/>
       <c r="U378" s="11"/>
     </row>
-    <row r="379" spans="1:21" ht="15" customHeight="1">
+    <row r="379" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26826,7 +26841,7 @@
       <c r="T379" s="11"/>
       <c r="U379" s="11"/>
     </row>
-    <row r="380" spans="1:21" ht="15" customHeight="1">
+    <row r="380" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26879,7 +26894,7 @@
       <c r="T380" s="11"/>
       <c r="U380" s="11"/>
     </row>
-    <row r="381" spans="1:21" ht="15" customHeight="1">
+    <row r="381" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26930,7 +26945,7 @@
       <c r="T381" s="11"/>
       <c r="U381" s="11"/>
     </row>
-    <row r="382" spans="1:21" ht="15" customHeight="1">
+    <row r="382" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26981,7 +26996,7 @@
       <c r="T382" s="11"/>
       <c r="U382" s="11"/>
     </row>
-    <row r="383" spans="1:21" ht="15" customHeight="1">
+    <row r="383" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27034,7 +27049,7 @@
       <c r="T383" s="11"/>
       <c r="U383" s="11"/>
     </row>
-    <row r="384" spans="1:21" ht="15" customHeight="1">
+    <row r="384" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27087,7 +27102,7 @@
       <c r="T384" s="11"/>
       <c r="U384" s="11"/>
     </row>
-    <row r="385" spans="1:21" ht="15" customHeight="1">
+    <row r="385" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27140,7 +27155,7 @@
       <c r="T385" s="11"/>
       <c r="U385" s="11"/>
     </row>
-    <row r="386" spans="1:21" ht="15" customHeight="1">
+    <row r="386" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27193,7 +27208,7 @@
       <c r="T386" s="11"/>
       <c r="U386" s="11"/>
     </row>
-    <row r="387" spans="1:21" ht="15" customHeight="1">
+    <row r="387" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27246,7 +27261,7 @@
       <c r="T387" s="11"/>
       <c r="U387" s="11"/>
     </row>
-    <row r="388" spans="1:21" ht="15" customHeight="1">
+    <row r="388" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27299,7 +27314,7 @@
       <c r="T388" s="11"/>
       <c r="U388" s="11"/>
     </row>
-    <row r="389" spans="1:21" ht="15" customHeight="1">
+    <row r="389" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27352,7 +27367,7 @@
       <c r="T389" s="11"/>
       <c r="U389" s="11"/>
     </row>
-    <row r="390" spans="1:21" ht="15" customHeight="1">
+    <row r="390" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27405,7 +27420,7 @@
       <c r="T390" s="11"/>
       <c r="U390" s="11"/>
     </row>
-    <row r="391" spans="1:21" ht="15" customHeight="1">
+    <row r="391" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27458,7 +27473,7 @@
       <c r="T391" s="11"/>
       <c r="U391" s="11"/>
     </row>
-    <row r="392" spans="1:21" ht="15" customHeight="1">
+    <row r="392" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27511,7 +27526,7 @@
       <c r="T392" s="11"/>
       <c r="U392" s="11"/>
     </row>
-    <row r="393" spans="1:21" ht="15" customHeight="1">
+    <row r="393" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27564,7 +27579,7 @@
       <c r="T393" s="11"/>
       <c r="U393" s="11"/>
     </row>
-    <row r="394" spans="1:21" ht="15" customHeight="1">
+    <row r="394" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27617,7 +27632,7 @@
       <c r="T394" s="11"/>
       <c r="U394" s="11"/>
     </row>
-    <row r="395" spans="1:21" ht="15" customHeight="1">
+    <row r="395" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27670,7 +27685,7 @@
       <c r="T395" s="11"/>
       <c r="U395" s="11"/>
     </row>
-    <row r="396" spans="1:21" ht="15" customHeight="1">
+    <row r="396" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27723,7 +27738,7 @@
       <c r="T396" s="11"/>
       <c r="U396" s="11"/>
     </row>
-    <row r="397" spans="1:21" ht="15" customHeight="1">
+    <row r="397" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27776,7 +27791,7 @@
       <c r="T397" s="11"/>
       <c r="U397" s="11"/>
     </row>
-    <row r="398" spans="1:21" ht="15" customHeight="1">
+    <row r="398" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27829,7 +27844,7 @@
       <c r="T398" s="11"/>
       <c r="U398" s="11"/>
     </row>
-    <row r="399" spans="1:21" ht="15" customHeight="1">
+    <row r="399" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27882,7 +27897,7 @@
       <c r="T399" s="11"/>
       <c r="U399" s="11"/>
     </row>
-    <row r="400" spans="1:21" ht="15" customHeight="1">
+    <row r="400" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27935,7 +27950,7 @@
       <c r="T400" s="11"/>
       <c r="U400" s="11"/>
     </row>
-    <row r="401" spans="1:21" ht="15" customHeight="1">
+    <row r="401" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27988,7 +28003,7 @@
       <c r="T401" s="11"/>
       <c r="U401" s="11"/>
     </row>
-    <row r="402" spans="1:21" ht="15" customHeight="1">
+    <row r="402" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28041,7 +28056,7 @@
       <c r="T402" s="11"/>
       <c r="U402" s="11"/>
     </row>
-    <row r="403" spans="1:21" ht="15" customHeight="1">
+    <row r="403" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28092,7 +28107,7 @@
       <c r="T403" s="11"/>
       <c r="U403" s="11"/>
     </row>
-    <row r="404" spans="1:21" ht="15" customHeight="1">
+    <row r="404" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28143,7 +28158,7 @@
       <c r="T404" s="11"/>
       <c r="U404" s="11"/>
     </row>
-    <row r="405" spans="1:21" ht="15" customHeight="1">
+    <row r="405" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28194,7 +28209,7 @@
       <c r="T405" s="11"/>
       <c r="U405" s="11"/>
     </row>
-    <row r="406" spans="1:21" ht="15" customHeight="1">
+    <row r="406" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28245,7 +28260,7 @@
       <c r="T406" s="11"/>
       <c r="U406" s="11"/>
     </row>
-    <row r="407" spans="1:21" ht="15" customHeight="1">
+    <row r="407" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28296,7 +28311,7 @@
       <c r="T407" s="11"/>
       <c r="U407" s="11"/>
     </row>
-    <row r="408" spans="1:21" ht="15" customHeight="1">
+    <row r="408" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28347,7 +28362,7 @@
       <c r="T408" s="11"/>
       <c r="U408" s="11"/>
     </row>
-    <row r="409" spans="1:21" ht="15" customHeight="1">
+    <row r="409" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28400,7 +28415,7 @@
       <c r="T409" s="11"/>
       <c r="U409" s="11"/>
     </row>
-    <row r="410" spans="1:21" ht="15" customHeight="1">
+    <row r="410" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28453,7 +28468,7 @@
       <c r="T410" s="11"/>
       <c r="U410" s="11"/>
     </row>
-    <row r="411" spans="1:21" ht="15" customHeight="1">
+    <row r="411" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28506,7 +28521,7 @@
       <c r="T411" s="11"/>
       <c r="U411" s="11"/>
     </row>
-    <row r="412" spans="1:21" ht="15" customHeight="1">
+    <row r="412" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28559,7 +28574,7 @@
       <c r="T412" s="11"/>
       <c r="U412" s="11"/>
     </row>
-    <row r="413" spans="1:21" ht="15" customHeight="1">
+    <row r="413" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28612,7 +28627,7 @@
       <c r="T413" s="11"/>
       <c r="U413" s="11"/>
     </row>
-    <row r="414" spans="1:21" ht="15" customHeight="1">
+    <row r="414" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28665,7 +28680,7 @@
       <c r="T414" s="11"/>
       <c r="U414" s="11"/>
     </row>
-    <row r="415" spans="1:21" ht="15" customHeight="1">
+    <row r="415" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28718,7 +28733,7 @@
       <c r="T415" s="11"/>
       <c r="U415" s="11"/>
     </row>
-    <row r="416" spans="1:21" ht="15" customHeight="1">
+    <row r="416" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28771,7 +28786,7 @@
       <c r="T416" s="11"/>
       <c r="U416" s="11"/>
     </row>
-    <row r="417" spans="1:21" ht="15" customHeight="1">
+    <row r="417" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28824,7 +28839,7 @@
       <c r="T417" s="11"/>
       <c r="U417" s="11"/>
     </row>
-    <row r="418" spans="1:21" ht="15" customHeight="1">
+    <row r="418" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28877,7 +28892,7 @@
       <c r="T418" s="11"/>
       <c r="U418" s="11"/>
     </row>
-    <row r="419" spans="1:21" ht="15" customHeight="1">
+    <row r="419" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28930,7 +28945,7 @@
       <c r="T419" s="11"/>
       <c r="U419" s="11"/>
     </row>
-    <row r="420" spans="1:21" ht="15" customHeight="1">
+    <row r="420" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28983,7 +28998,7 @@
       <c r="T420" s="11"/>
       <c r="U420" s="11"/>
     </row>
-    <row r="421" spans="1:21" ht="15" customHeight="1">
+    <row r="421" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29038,7 +29053,7 @@
       <c r="T421" s="11"/>
       <c r="U421" s="11"/>
     </row>
-    <row r="422" spans="1:21" ht="15" customHeight="1">
+    <row r="422" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29093,7 +29108,7 @@
       <c r="T422" s="11"/>
       <c r="U422" s="11"/>
     </row>
-    <row r="423" spans="1:21" ht="15" customHeight="1">
+    <row r="423" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29146,7 +29161,7 @@
       <c r="T423" s="11"/>
       <c r="U423" s="11"/>
     </row>
-    <row r="424" spans="1:21" ht="15" customHeight="1">
+    <row r="424" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29199,7 +29214,7 @@
       <c r="T424" s="11"/>
       <c r="U424" s="11"/>
     </row>
-    <row r="425" spans="1:21" ht="15" customHeight="1">
+    <row r="425" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29252,7 +29267,7 @@
       <c r="T425" s="11"/>
       <c r="U425" s="11"/>
     </row>
-    <row r="426" spans="1:21" ht="15" customHeight="1">
+    <row r="426" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29305,7 +29320,7 @@
       <c r="T426" s="11"/>
       <c r="U426" s="11"/>
     </row>
-    <row r="427" spans="1:21" ht="15" customHeight="1">
+    <row r="427" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29358,7 +29373,7 @@
       <c r="T427" s="11"/>
       <c r="U427" s="11"/>
     </row>
-    <row r="428" spans="1:21" ht="15" customHeight="1">
+    <row r="428" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29411,7 +29426,7 @@
       <c r="T428" s="11"/>
       <c r="U428" s="11"/>
     </row>
-    <row r="429" spans="1:21" ht="15" customHeight="1">
+    <row r="429" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29464,7 +29479,7 @@
       <c r="T429" s="11"/>
       <c r="U429" s="11"/>
     </row>
-    <row r="430" spans="1:21" ht="15" customHeight="1">
+    <row r="430" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29517,7 +29532,7 @@
       <c r="T430" s="11"/>
       <c r="U430" s="11"/>
     </row>
-    <row r="431" spans="1:21" ht="15" customHeight="1">
+    <row r="431" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29570,7 +29585,7 @@
       <c r="T431" s="11"/>
       <c r="U431" s="11"/>
     </row>
-    <row r="432" spans="1:21" ht="15" customHeight="1">
+    <row r="432" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29623,7 +29638,7 @@
       <c r="T432" s="11"/>
       <c r="U432" s="11"/>
     </row>
-    <row r="433" spans="1:21" ht="15" customHeight="1">
+    <row r="433" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29676,7 +29691,7 @@
       <c r="T433" s="11"/>
       <c r="U433" s="11"/>
     </row>
-    <row r="434" spans="1:21" ht="15" customHeight="1">
+    <row r="434" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29729,7 +29744,7 @@
       <c r="T434" s="11"/>
       <c r="U434" s="11"/>
     </row>
-    <row r="435" spans="1:21" ht="15" customHeight="1">
+    <row r="435" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29782,7 +29797,7 @@
       <c r="T435" s="11"/>
       <c r="U435" s="11"/>
     </row>
-    <row r="436" spans="1:21" ht="15" customHeight="1">
+    <row r="436" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29835,7 +29850,7 @@
       <c r="T436" s="11"/>
       <c r="U436" s="11"/>
     </row>
-    <row r="437" spans="1:21" ht="15" customHeight="1">
+    <row r="437" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29888,7 +29903,7 @@
       <c r="T437" s="11"/>
       <c r="U437" s="11"/>
     </row>
-    <row r="438" spans="1:21" ht="15" customHeight="1">
+    <row r="438" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29941,7 +29956,7 @@
       <c r="T438" s="11"/>
       <c r="U438" s="11"/>
     </row>
-    <row r="439" spans="1:21" ht="15" customHeight="1">
+    <row r="439" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29994,7 +30009,7 @@
       <c r="T439" s="11"/>
       <c r="U439" s="11"/>
     </row>
-    <row r="440" spans="1:21" ht="15" customHeight="1">
+    <row r="440" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30047,7 +30062,7 @@
       <c r="T440" s="11"/>
       <c r="U440" s="11"/>
     </row>
-    <row r="441" spans="1:21" ht="15" customHeight="1">
+    <row r="441" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30100,7 +30115,7 @@
       <c r="T441" s="11"/>
       <c r="U441" s="11"/>
     </row>
-    <row r="442" spans="1:21" ht="15" customHeight="1">
+    <row r="442" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30153,7 +30168,7 @@
       <c r="T442" s="11"/>
       <c r="U442" s="11"/>
     </row>
-    <row r="443" spans="1:21" ht="15" customHeight="1">
+    <row r="443" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30206,7 +30221,7 @@
       <c r="T443" s="11"/>
       <c r="U443" s="11"/>
     </row>
-    <row r="444" spans="1:21" ht="15" customHeight="1">
+    <row r="444" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30259,7 +30274,7 @@
       <c r="T444" s="11"/>
       <c r="U444" s="11"/>
     </row>
-    <row r="445" spans="1:21" ht="15" customHeight="1">
+    <row r="445" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30312,7 +30327,7 @@
       <c r="T445" s="11"/>
       <c r="U445" s="11"/>
     </row>
-    <row r="446" spans="1:21" ht="15" customHeight="1">
+    <row r="446" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30365,7 +30380,7 @@
       <c r="T446" s="11"/>
       <c r="U446" s="11"/>
     </row>
-    <row r="447" spans="1:21" ht="15" customHeight="1">
+    <row r="447" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30418,7 +30433,7 @@
       <c r="T447" s="11"/>
       <c r="U447" s="11"/>
     </row>
-    <row r="448" spans="1:21" ht="15" customHeight="1">
+    <row r="448" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30471,7 +30486,7 @@
       <c r="T448" s="11"/>
       <c r="U448" s="11"/>
     </row>
-    <row r="449" spans="1:21" ht="15" customHeight="1">
+    <row r="449" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30524,7 +30539,7 @@
       <c r="T449" s="11"/>
       <c r="U449" s="11"/>
     </row>
-    <row r="450" spans="1:21" ht="15" customHeight="1">
+    <row r="450" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30577,7 +30592,7 @@
       <c r="T450" s="11"/>
       <c r="U450" s="11"/>
     </row>
-    <row r="451" spans="1:21" ht="15" customHeight="1">
+    <row r="451" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30630,7 +30645,7 @@
       <c r="T451" s="11"/>
       <c r="U451" s="11"/>
     </row>
-    <row r="452" spans="1:21" ht="15" customHeight="1">
+    <row r="452" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30683,7 +30698,7 @@
       <c r="T452" s="11"/>
       <c r="U452" s="11"/>
     </row>
-    <row r="453" spans="1:21" ht="15" customHeight="1">
+    <row r="453" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30736,7 +30751,7 @@
       <c r="T453" s="11"/>
       <c r="U453" s="11"/>
     </row>
-    <row r="454" spans="1:21" ht="15" customHeight="1">
+    <row r="454" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30789,7 +30804,7 @@
       <c r="T454" s="11"/>
       <c r="U454" s="11"/>
     </row>
-    <row r="455" spans="1:21" ht="15" customHeight="1">
+    <row r="455" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30842,7 +30857,7 @@
       <c r="T455" s="11"/>
       <c r="U455" s="11"/>
     </row>
-    <row r="456" spans="1:21" ht="15" customHeight="1">
+    <row r="456" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30895,7 +30910,7 @@
       <c r="T456" s="11"/>
       <c r="U456" s="11"/>
     </row>
-    <row r="457" spans="1:21" ht="15" customHeight="1">
+    <row r="457" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30948,7 +30963,7 @@
       <c r="T457" s="11"/>
       <c r="U457" s="11"/>
     </row>
-    <row r="458" spans="1:21" ht="15" customHeight="1">
+    <row r="458" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31001,7 +31016,7 @@
       <c r="T458" s="11"/>
       <c r="U458" s="11"/>
     </row>
-    <row r="459" spans="1:21" ht="15" customHeight="1">
+    <row r="459" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31054,7 +31069,7 @@
       <c r="T459" s="11"/>
       <c r="U459" s="11"/>
     </row>
-    <row r="460" spans="1:21" ht="15" customHeight="1">
+    <row r="460" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31107,7 +31122,7 @@
       <c r="T460" s="11"/>
       <c r="U460" s="11"/>
     </row>
-    <row r="461" spans="1:21" ht="15" customHeight="1">
+    <row r="461" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31160,7 +31175,7 @@
       <c r="T461" s="11"/>
       <c r="U461" s="11"/>
     </row>
-    <row r="462" spans="1:21" ht="15" customHeight="1">
+    <row r="462" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31213,7 +31228,7 @@
       <c r="T462" s="11"/>
       <c r="U462" s="11"/>
     </row>
-    <row r="463" spans="1:21" ht="15" customHeight="1">
+    <row r="463" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31266,7 +31281,7 @@
       <c r="T463" s="11"/>
       <c r="U463" s="11"/>
     </row>
-    <row r="464" spans="1:21" ht="15" customHeight="1">
+    <row r="464" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31319,7 +31334,7 @@
       <c r="T464" s="11"/>
       <c r="U464" s="11"/>
     </row>
-    <row r="465" spans="1:21" ht="15" customHeight="1">
+    <row r="465" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31372,7 +31387,7 @@
       <c r="T465" s="11"/>
       <c r="U465" s="11"/>
     </row>
-    <row r="466" spans="1:21" ht="15" customHeight="1">
+    <row r="466" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31425,7 +31440,7 @@
       <c r="T466" s="11"/>
       <c r="U466" s="11"/>
     </row>
-    <row r="467" spans="1:21" ht="15" customHeight="1">
+    <row r="467" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31478,7 +31493,7 @@
       <c r="T467" s="11"/>
       <c r="U467" s="11"/>
     </row>
-    <row r="468" spans="1:21" ht="15" customHeight="1">
+    <row r="468" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31531,7 +31546,7 @@
       <c r="T468" s="11"/>
       <c r="U468" s="11"/>
     </row>
-    <row r="469" spans="1:21" ht="15" customHeight="1">
+    <row r="469" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31584,7 +31599,7 @@
       <c r="T469" s="11"/>
       <c r="U469" s="11"/>
     </row>
-    <row r="470" spans="1:21" ht="15" customHeight="1">
+    <row r="470" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31637,7 +31652,7 @@
       <c r="T470" s="11"/>
       <c r="U470" s="11"/>
     </row>
-    <row r="471" spans="1:21" ht="15" customHeight="1">
+    <row r="471" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31690,7 +31705,7 @@
       <c r="T471" s="11"/>
       <c r="U471" s="11"/>
     </row>
-    <row r="472" spans="1:21" ht="15" customHeight="1">
+    <row r="472" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31743,7 +31758,7 @@
       <c r="T472" s="11"/>
       <c r="U472" s="11"/>
     </row>
-    <row r="473" spans="1:21" ht="15" customHeight="1">
+    <row r="473" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31796,7 +31811,7 @@
       <c r="T473" s="11"/>
       <c r="U473" s="11"/>
     </row>
-    <row r="474" spans="1:21" ht="15" customHeight="1">
+    <row r="474" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31849,7 +31864,7 @@
       <c r="T474" s="11"/>
       <c r="U474" s="11"/>
     </row>
-    <row r="475" spans="1:21" ht="15" customHeight="1">
+    <row r="475" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31902,7 +31917,7 @@
       <c r="T475" s="11"/>
       <c r="U475" s="11"/>
     </row>
-    <row r="476" spans="1:21" ht="15" customHeight="1">
+    <row r="476" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31955,7 +31970,7 @@
       <c r="T476" s="11"/>
       <c r="U476" s="11"/>
     </row>
-    <row r="477" spans="1:21" ht="15" customHeight="1">
+    <row r="477" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32008,7 +32023,7 @@
       <c r="T477" s="11"/>
       <c r="U477" s="11"/>
     </row>
-    <row r="478" spans="1:21" ht="15" customHeight="1">
+    <row r="478" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32059,7 +32074,7 @@
       <c r="T478" s="11"/>
       <c r="U478" s="11"/>
     </row>
-    <row r="479" spans="1:21" ht="15" customHeight="1">
+    <row r="479" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32110,7 +32125,7 @@
       <c r="T479" s="11"/>
       <c r="U479" s="11"/>
     </row>
-    <row r="480" spans="1:21" ht="15" customHeight="1">
+    <row r="480" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32161,7 +32176,7 @@
       <c r="T480" s="11"/>
       <c r="U480" s="11"/>
     </row>
-    <row r="481" spans="1:21" ht="15" customHeight="1">
+    <row r="481" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32212,7 +32227,7 @@
       <c r="T481" s="11"/>
       <c r="U481" s="11"/>
     </row>
-    <row r="482" spans="1:21" ht="15" customHeight="1">
+    <row r="482" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32263,7 +32278,7 @@
       <c r="T482" s="11"/>
       <c r="U482" s="11"/>
     </row>
-    <row r="483" spans="1:21" ht="15" customHeight="1">
+    <row r="483" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32314,7 +32329,7 @@
       <c r="T483" s="11"/>
       <c r="U483" s="11"/>
     </row>
-    <row r="484" spans="1:21" ht="15" customHeight="1">
+    <row r="484" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32365,7 +32380,7 @@
       <c r="T484" s="11"/>
       <c r="U484" s="11"/>
     </row>
-    <row r="485" spans="1:21" ht="15" customHeight="1">
+    <row r="485" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32416,7 +32431,7 @@
       <c r="T485" s="11"/>
       <c r="U485" s="11"/>
     </row>
-    <row r="486" spans="1:21" ht="15" customHeight="1">
+    <row r="486" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32467,7 +32482,7 @@
       <c r="T486" s="11"/>
       <c r="U486" s="11"/>
     </row>
-    <row r="487" spans="1:21" ht="15" customHeight="1">
+    <row r="487" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32518,7 +32533,7 @@
       <c r="T487" s="11"/>
       <c r="U487" s="11"/>
     </row>
-    <row r="488" spans="1:21" ht="15" customHeight="1">
+    <row r="488" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32569,7 +32584,7 @@
       <c r="T488" s="11"/>
       <c r="U488" s="11"/>
     </row>
-    <row r="489" spans="1:21" ht="15" customHeight="1">
+    <row r="489" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32620,7 +32635,7 @@
       <c r="T489" s="11"/>
       <c r="U489" s="11"/>
     </row>
-    <row r="490" spans="1:21" ht="15" customHeight="1">
+    <row r="490" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32671,7 +32686,7 @@
       <c r="T490" s="11"/>
       <c r="U490" s="11"/>
     </row>
-    <row r="491" spans="1:21" ht="15" customHeight="1">
+    <row r="491" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32722,7 +32737,7 @@
       <c r="T491" s="11"/>
       <c r="U491" s="11"/>
     </row>
-    <row r="492" spans="1:21" ht="15" customHeight="1">
+    <row r="492" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32773,7 +32788,7 @@
       <c r="T492" s="11"/>
       <c r="U492" s="11"/>
     </row>
-    <row r="493" spans="1:21" ht="15" customHeight="1">
+    <row r="493" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32824,7 +32839,7 @@
       <c r="T493" s="11"/>
       <c r="U493" s="11"/>
     </row>
-    <row r="494" spans="1:21" ht="15" customHeight="1">
+    <row r="494" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32875,7 +32890,7 @@
       <c r="T494" s="11"/>
       <c r="U494" s="11"/>
     </row>
-    <row r="495" spans="1:21" ht="15" customHeight="1">
+    <row r="495" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32928,7 +32943,7 @@
       <c r="T495" s="11"/>
       <c r="U495" s="11"/>
     </row>
-    <row r="496" spans="1:21" ht="15" customHeight="1">
+    <row r="496" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32981,7 +32996,7 @@
       <c r="T496" s="11"/>
       <c r="U496" s="11"/>
     </row>
-    <row r="497" spans="1:21" ht="15" customHeight="1">
+    <row r="497" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33034,7 +33049,7 @@
       <c r="T497" s="11"/>
       <c r="U497" s="11"/>
     </row>
-    <row r="498" spans="1:21" ht="15" customHeight="1">
+    <row r="498" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33087,7 +33102,7 @@
       <c r="T498" s="11"/>
       <c r="U498" s="11"/>
     </row>
-    <row r="499" spans="1:21" ht="15" customHeight="1">
+    <row r="499" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33140,7 +33155,7 @@
       <c r="T499" s="11"/>
       <c r="U499" s="11"/>
     </row>
-    <row r="500" spans="1:21" ht="15" customHeight="1">
+    <row r="500" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33193,7 +33208,7 @@
       <c r="T500" s="11"/>
       <c r="U500" s="11"/>
     </row>
-    <row r="501" spans="1:21" ht="15" customHeight="1">
+    <row r="501" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33246,7 +33261,7 @@
       <c r="T501" s="11"/>
       <c r="U501" s="11"/>
     </row>
-    <row r="502" spans="1:21" ht="15" customHeight="1">
+    <row r="502" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33299,7 +33314,7 @@
       <c r="T502" s="11"/>
       <c r="U502" s="11"/>
     </row>
-    <row r="503" spans="1:21" ht="15" customHeight="1">
+    <row r="503" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33352,7 +33367,7 @@
       <c r="T503" s="11"/>
       <c r="U503" s="11"/>
     </row>
-    <row r="504" spans="1:21" ht="15" customHeight="1">
+    <row r="504" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33405,7 +33420,7 @@
       <c r="T504" s="11"/>
       <c r="U504" s="11"/>
     </row>
-    <row r="505" spans="1:21" ht="15" customHeight="1">
+    <row r="505" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33458,7 +33473,7 @@
       <c r="T505" s="11"/>
       <c r="U505" s="11"/>
     </row>
-    <row r="506" spans="1:21" ht="15" customHeight="1">
+    <row r="506" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33511,7 +33526,7 @@
       <c r="T506" s="11"/>
       <c r="U506" s="11"/>
     </row>
-    <row r="507" spans="1:21" ht="15" customHeight="1">
+    <row r="507" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33564,7 +33579,7 @@
       <c r="T507" s="11"/>
       <c r="U507" s="11"/>
     </row>
-    <row r="508" spans="1:21" ht="15" customHeight="1">
+    <row r="508" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33617,7 +33632,7 @@
       <c r="T508" s="11"/>
       <c r="U508" s="11"/>
     </row>
-    <row r="509" spans="1:21" ht="15" customHeight="1">
+    <row r="509" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33670,7 +33685,7 @@
       <c r="T509" s="11"/>
       <c r="U509" s="11"/>
     </row>
-    <row r="510" spans="1:21" ht="15" customHeight="1">
+    <row r="510" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33723,7 +33738,7 @@
       <c r="T510" s="11"/>
       <c r="U510" s="11"/>
     </row>
-    <row r="511" spans="1:21" ht="15" customHeight="1">
+    <row r="511" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33776,7 +33791,7 @@
       <c r="T511" s="11"/>
       <c r="U511" s="11"/>
     </row>
-    <row r="512" spans="1:21" ht="15" customHeight="1">
+    <row r="512" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33829,7 +33844,7 @@
       <c r="T512" s="11"/>
       <c r="U512" s="11"/>
     </row>
-    <row r="513" spans="1:21" ht="15" customHeight="1">
+    <row r="513" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33882,7 +33897,7 @@
       <c r="T513" s="11"/>
       <c r="U513" s="11"/>
     </row>
-    <row r="514" spans="1:21" ht="15" customHeight="1">
+    <row r="514" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33935,7 +33950,7 @@
       <c r="T514" s="11"/>
       <c r="U514" s="11"/>
     </row>
-    <row r="515" spans="1:21" ht="15" customHeight="1">
+    <row r="515" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33988,7 +34003,7 @@
       <c r="T515" s="11"/>
       <c r="U515" s="11"/>
     </row>
-    <row r="516" spans="1:21" ht="15" customHeight="1">
+    <row r="516" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34041,7 +34056,7 @@
       <c r="T516" s="11"/>
       <c r="U516" s="11"/>
     </row>
-    <row r="517" spans="1:21" ht="15" customHeight="1">
+    <row r="517" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34094,7 +34109,7 @@
       <c r="T517" s="11"/>
       <c r="U517" s="11"/>
     </row>
-    <row r="518" spans="1:21" ht="15" customHeight="1">
+    <row r="518" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34147,7 +34162,7 @@
       <c r="T518" s="11"/>
       <c r="U518" s="11"/>
     </row>
-    <row r="519" spans="1:21" ht="15" customHeight="1">
+    <row r="519" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34198,7 +34213,7 @@
       <c r="T519" s="11"/>
       <c r="U519" s="11"/>
     </row>
-    <row r="520" spans="1:21" ht="15" customHeight="1">
+    <row r="520" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34249,7 +34264,7 @@
       <c r="T520" s="11"/>
       <c r="U520" s="11"/>
     </row>
-    <row r="521" spans="1:21" ht="15" customHeight="1">
+    <row r="521" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34302,7 +34317,7 @@
       <c r="T521" s="11"/>
       <c r="U521" s="11"/>
     </row>
-    <row r="522" spans="1:21" ht="15" customHeight="1">
+    <row r="522" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34355,7 +34370,7 @@
       <c r="T522" s="11"/>
       <c r="U522" s="11"/>
     </row>
-    <row r="523" spans="1:21" ht="15" customHeight="1">
+    <row r="523" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34408,7 +34423,7 @@
       <c r="T523" s="11"/>
       <c r="U523" s="11"/>
     </row>
-    <row r="524" spans="1:21" ht="15" customHeight="1">
+    <row r="524" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34461,7 +34476,7 @@
       <c r="T524" s="11"/>
       <c r="U524" s="11"/>
     </row>
-    <row r="525" spans="1:21" ht="15" customHeight="1">
+    <row r="525" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34514,7 +34529,7 @@
       <c r="T525" s="11"/>
       <c r="U525" s="11"/>
     </row>
-    <row r="526" spans="1:21" ht="15" customHeight="1">
+    <row r="526" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34567,7 +34582,7 @@
       <c r="T526" s="11"/>
       <c r="U526" s="11"/>
     </row>
-    <row r="527" spans="1:21" ht="15" customHeight="1">
+    <row r="527" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34618,7 +34633,7 @@
       <c r="T527" s="11"/>
       <c r="U527" s="11"/>
     </row>
-    <row r="528" spans="1:21" ht="15" customHeight="1">
+    <row r="528" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34671,7 +34686,7 @@
       <c r="T528" s="11"/>
       <c r="U528" s="11"/>
     </row>
-    <row r="529" spans="1:21" ht="15" customHeight="1">
+    <row r="529" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34724,7 +34739,7 @@
       <c r="T529" s="11"/>
       <c r="U529" s="11"/>
     </row>
-    <row r="530" spans="1:21" ht="15" customHeight="1">
+    <row r="530" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34777,7 +34792,7 @@
       <c r="T530" s="11"/>
       <c r="U530" s="11"/>
     </row>
-    <row r="531" spans="1:21" ht="15" customHeight="1">
+    <row r="531" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34830,7 +34845,7 @@
       <c r="T531" s="11"/>
       <c r="U531" s="11"/>
     </row>
-    <row r="532" spans="1:21" ht="15" customHeight="1">
+    <row r="532" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34881,7 +34896,7 @@
       <c r="T532" s="11"/>
       <c r="U532" s="11"/>
     </row>
-    <row r="533" spans="1:21" ht="15" customHeight="1">
+    <row r="533" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34932,7 +34947,7 @@
       <c r="T533" s="11"/>
       <c r="U533" s="11"/>
     </row>
-    <row r="534" spans="1:21" ht="15" customHeight="1">
+    <row r="534" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34983,7 +34998,7 @@
       <c r="T534" s="11"/>
       <c r="U534" s="11"/>
     </row>
-    <row r="535" spans="1:21" ht="15" customHeight="1">
+    <row r="535" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35036,7 +35051,7 @@
       <c r="T535" s="11"/>
       <c r="U535" s="11"/>
     </row>
-    <row r="536" spans="1:21" ht="15" customHeight="1">
+    <row r="536" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35089,7 +35104,7 @@
       <c r="T536" s="11"/>
       <c r="U536" s="11"/>
     </row>
-    <row r="537" spans="1:21" ht="15" customHeight="1">
+    <row r="537" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35142,7 +35157,7 @@
       <c r="T537" s="11"/>
       <c r="U537" s="11"/>
     </row>
-    <row r="538" spans="1:21" ht="15" customHeight="1">
+    <row r="538" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35195,7 +35210,7 @@
       <c r="T538" s="11"/>
       <c r="U538" s="11"/>
     </row>
-    <row r="539" spans="1:21" ht="15" customHeight="1">
+    <row r="539" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35248,7 +35263,7 @@
       <c r="T539" s="11"/>
       <c r="U539" s="11"/>
     </row>
-    <row r="540" spans="1:21" ht="15" customHeight="1">
+    <row r="540" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35301,7 +35316,7 @@
       <c r="T540" s="11"/>
       <c r="U540" s="11"/>
     </row>
-    <row r="541" spans="1:21" ht="15" customHeight="1">
+    <row r="541" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35354,7 +35369,7 @@
       <c r="T541" s="11"/>
       <c r="U541" s="11"/>
     </row>
-    <row r="542" spans="1:21" ht="15" customHeight="1">
+    <row r="542" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35407,7 +35422,7 @@
       <c r="T542" s="11"/>
       <c r="U542" s="11"/>
     </row>
-    <row r="543" spans="1:21" ht="15" customHeight="1">
+    <row r="543" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35460,7 +35475,7 @@
       <c r="T543" s="11"/>
       <c r="U543" s="11"/>
     </row>
-    <row r="544" spans="1:21" ht="15" customHeight="1">
+    <row r="544" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35513,7 +35528,7 @@
       <c r="T544" s="11"/>
       <c r="U544" s="11"/>
     </row>
-    <row r="545" spans="1:21" ht="15" customHeight="1">
+    <row r="545" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35566,7 +35581,7 @@
       <c r="T545" s="11"/>
       <c r="U545" s="11"/>
     </row>
-    <row r="546" spans="1:21" ht="15" customHeight="1">
+    <row r="546" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35619,7 +35634,7 @@
       <c r="T546" s="11"/>
       <c r="U546" s="11"/>
     </row>
-    <row r="547" spans="1:21" ht="15" customHeight="1">
+    <row r="547" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35672,7 +35687,7 @@
       <c r="T547" s="11"/>
       <c r="U547" s="11"/>
     </row>
-    <row r="548" spans="1:21" ht="15" customHeight="1">
+    <row r="548" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35725,7 +35740,7 @@
       <c r="T548" s="11"/>
       <c r="U548" s="11"/>
     </row>
-    <row r="549" spans="1:21" ht="15" customHeight="1">
+    <row r="549" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35778,7 +35793,7 @@
       <c r="T549" s="11"/>
       <c r="U549" s="11"/>
     </row>
-    <row r="550" spans="1:21" ht="15" customHeight="1">
+    <row r="550" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35831,7 +35846,7 @@
       <c r="T550" s="11"/>
       <c r="U550" s="11"/>
     </row>
-    <row r="551" spans="1:21" ht="15" customHeight="1">
+    <row r="551" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35884,7 +35899,7 @@
       <c r="T551" s="11"/>
       <c r="U551" s="11"/>
     </row>
-    <row r="552" spans="1:21" ht="15" customHeight="1">
+    <row r="552" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35937,7 +35952,7 @@
       <c r="T552" s="11"/>
       <c r="U552" s="11"/>
     </row>
-    <row r="553" spans="1:21" ht="15" customHeight="1">
+    <row r="553" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35990,7 +36005,7 @@
       <c r="T553" s="11"/>
       <c r="U553" s="11"/>
     </row>
-    <row r="554" spans="1:21" ht="15" customHeight="1">
+    <row r="554" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36043,7 +36058,7 @@
       <c r="T554" s="11"/>
       <c r="U554" s="11"/>
     </row>
-    <row r="555" spans="1:21" ht="15" customHeight="1">
+    <row r="555" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36096,7 +36111,7 @@
       <c r="T555" s="11"/>
       <c r="U555" s="11"/>
     </row>
-    <row r="556" spans="1:21" ht="15" customHeight="1">
+    <row r="556" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36149,7 +36164,7 @@
       <c r="T556" s="11"/>
       <c r="U556" s="11"/>
     </row>
-    <row r="557" spans="1:21" ht="15" customHeight="1">
+    <row r="557" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36202,7 +36217,7 @@
       <c r="T557" s="11"/>
       <c r="U557" s="11"/>
     </row>
-    <row r="558" spans="1:21" ht="15" customHeight="1">
+    <row r="558" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36253,7 +36268,7 @@
       <c r="T558" s="11"/>
       <c r="U558" s="11"/>
     </row>
-    <row r="559" spans="1:21" ht="15" customHeight="1">
+    <row r="559" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36304,7 +36319,7 @@
       <c r="T559" s="11"/>
       <c r="U559" s="11"/>
     </row>
-    <row r="560" spans="1:21" ht="15" customHeight="1">
+    <row r="560" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36355,7 +36370,7 @@
       <c r="T560" s="11"/>
       <c r="U560" s="11"/>
     </row>
-    <row r="561" spans="1:21" ht="15" customHeight="1">
+    <row r="561" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36406,7 +36421,7 @@
       <c r="T561" s="11"/>
       <c r="U561" s="11"/>
     </row>
-    <row r="562" spans="1:21" ht="15" customHeight="1">
+    <row r="562" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36457,7 +36472,7 @@
       <c r="T562" s="11"/>
       <c r="U562" s="11"/>
     </row>
-    <row r="563" spans="1:21" ht="15" customHeight="1">
+    <row r="563" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36508,7 +36523,7 @@
       <c r="T563" s="11"/>
       <c r="U563" s="11"/>
     </row>
-    <row r="564" spans="1:21" ht="15" customHeight="1">
+    <row r="564" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36559,7 +36574,7 @@
       <c r="T564" s="11"/>
       <c r="U564" s="11"/>
     </row>
-    <row r="565" spans="1:21" ht="15" customHeight="1">
+    <row r="565" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36610,7 +36625,7 @@
       <c r="T565" s="11"/>
       <c r="U565" s="11"/>
     </row>
-    <row r="566" spans="1:21" ht="15" customHeight="1">
+    <row r="566" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36661,7 +36676,7 @@
       <c r="T566" s="11"/>
       <c r="U566" s="11"/>
     </row>
-    <row r="567" spans="1:21" ht="15" customHeight="1">
+    <row r="567" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36712,7 +36727,7 @@
       <c r="T567" s="11"/>
       <c r="U567" s="11"/>
     </row>
-    <row r="568" spans="1:21" ht="15" customHeight="1">
+    <row r="568" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36763,7 +36778,7 @@
       <c r="T568" s="11"/>
       <c r="U568" s="11"/>
     </row>
-    <row r="569" spans="1:21" ht="15" customHeight="1">
+    <row r="569" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36816,7 +36831,7 @@
       <c r="T569" s="11"/>
       <c r="U569" s="11"/>
     </row>
-    <row r="570" spans="1:21" ht="15" customHeight="1">
+    <row r="570" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36869,7 +36884,7 @@
       <c r="T570" s="11"/>
       <c r="U570" s="11"/>
     </row>
-    <row r="571" spans="1:21" ht="15" customHeight="1">
+    <row r="571" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36922,7 +36937,7 @@
       <c r="T571" s="11"/>
       <c r="U571" s="11"/>
     </row>
-    <row r="572" spans="1:21" ht="15" customHeight="1">
+    <row r="572" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36975,7 +36990,7 @@
       <c r="T572" s="11"/>
       <c r="U572" s="11"/>
     </row>
-    <row r="573" spans="1:21" ht="15" customHeight="1">
+    <row r="573" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37028,7 +37043,7 @@
       <c r="T573" s="11"/>
       <c r="U573" s="11"/>
     </row>
-    <row r="574" spans="1:21" ht="15" customHeight="1">
+    <row r="574" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37081,7 +37096,7 @@
       <c r="T574" s="11"/>
       <c r="U574" s="11"/>
     </row>
-    <row r="575" spans="1:21" ht="15" customHeight="1">
+    <row r="575" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37134,7 +37149,7 @@
       <c r="T575" s="11"/>
       <c r="U575" s="11"/>
     </row>
-    <row r="576" spans="1:21" ht="15" customHeight="1">
+    <row r="576" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37187,7 +37202,7 @@
       <c r="T576" s="11"/>
       <c r="U576" s="11"/>
     </row>
-    <row r="577" spans="1:21" ht="15" customHeight="1">
+    <row r="577" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37240,7 +37255,7 @@
       <c r="T577" s="11"/>
       <c r="U577" s="11"/>
     </row>
-    <row r="578" spans="1:21" ht="15" customHeight="1">
+    <row r="578" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37291,7 +37306,7 @@
       <c r="T578" s="11"/>
       <c r="U578" s="11"/>
     </row>
-    <row r="579" spans="1:21" ht="15" customHeight="1">
+    <row r="579" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37344,7 +37359,7 @@
       <c r="T579" s="11"/>
       <c r="U579" s="11"/>
     </row>
-    <row r="580" spans="1:21" ht="15" customHeight="1">
+    <row r="580" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37397,7 +37412,7 @@
       <c r="T580" s="11"/>
       <c r="U580" s="11"/>
     </row>
-    <row r="581" spans="1:21" ht="15" customHeight="1">
+    <row r="581" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37450,7 +37465,7 @@
       <c r="T581" s="11"/>
       <c r="U581" s="11"/>
     </row>
-    <row r="582" spans="1:21" ht="15" customHeight="1">
+    <row r="582" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37503,7 +37518,7 @@
       <c r="T582" s="11"/>
       <c r="U582" s="11"/>
     </row>
-    <row r="583" spans="1:21" ht="15" customHeight="1">
+    <row r="583" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37556,7 +37571,7 @@
       <c r="T583" s="11"/>
       <c r="U583" s="11"/>
     </row>
-    <row r="584" spans="1:21" ht="15" customHeight="1">
+    <row r="584" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37609,7 +37624,7 @@
       <c r="T584" s="11"/>
       <c r="U584" s="11"/>
     </row>
-    <row r="585" spans="1:21" ht="15" customHeight="1">
+    <row r="585" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37662,7 +37677,7 @@
       <c r="T585" s="11"/>
       <c r="U585" s="11"/>
     </row>
-    <row r="586" spans="1:21" ht="15" customHeight="1">
+    <row r="586" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37715,7 +37730,7 @@
       <c r="T586" s="11"/>
       <c r="U586" s="11"/>
     </row>
-    <row r="587" spans="1:21" ht="15" customHeight="1">
+    <row r="587" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37768,7 +37783,7 @@
       <c r="T587" s="11"/>
       <c r="U587" s="11"/>
     </row>
-    <row r="588" spans="1:21" ht="15" customHeight="1">
+    <row r="588" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37821,7 +37836,7 @@
       <c r="T588" s="11"/>
       <c r="U588" s="11"/>
     </row>
-    <row r="589" spans="1:21" ht="15" customHeight="1">
+    <row r="589" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37872,7 +37887,7 @@
       <c r="T589" s="11"/>
       <c r="U589" s="11"/>
     </row>
-    <row r="590" spans="1:21" ht="15" customHeight="1">
+    <row r="590" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37923,7 +37938,7 @@
       <c r="T590" s="11"/>
       <c r="U590" s="11"/>
     </row>
-    <row r="591" spans="1:21" ht="15" customHeight="1">
+    <row r="591" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37976,7 +37991,7 @@
       <c r="T591" s="11"/>
       <c r="U591" s="11"/>
     </row>
-    <row r="592" spans="1:21" ht="15" customHeight="1">
+    <row r="592" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38029,7 +38044,7 @@
       <c r="T592" s="11"/>
       <c r="U592" s="11"/>
     </row>
-    <row r="593" spans="1:21" ht="15" customHeight="1">
+    <row r="593" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38082,7 +38097,7 @@
       <c r="T593" s="11"/>
       <c r="U593" s="11"/>
     </row>
-    <row r="594" spans="1:21" ht="15" customHeight="1">
+    <row r="594" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38135,7 +38150,7 @@
       <c r="T594" s="11"/>
       <c r="U594" s="11"/>
     </row>
-    <row r="595" spans="1:21" ht="15" customHeight="1">
+    <row r="595" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38188,7 +38203,7 @@
       <c r="T595" s="11"/>
       <c r="U595" s="11"/>
     </row>
-    <row r="596" spans="1:21" ht="15" customHeight="1">
+    <row r="596" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38241,7 +38256,7 @@
       <c r="T596" s="11"/>
       <c r="U596" s="11"/>
     </row>
-    <row r="597" spans="1:21" ht="15" customHeight="1">
+    <row r="597" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38294,7 +38309,7 @@
       <c r="T597" s="11"/>
       <c r="U597" s="11"/>
     </row>
-    <row r="598" spans="1:21" ht="15" customHeight="1">
+    <row r="598" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38347,7 +38362,7 @@
       <c r="T598" s="11"/>
       <c r="U598" s="11"/>
     </row>
-    <row r="599" spans="1:21" ht="15" customHeight="1">
+    <row r="599" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38400,7 +38415,7 @@
       <c r="T599" s="11"/>
       <c r="U599" s="11"/>
     </row>
-    <row r="600" spans="1:21" ht="15" customHeight="1">
+    <row r="600" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38453,7 +38468,7 @@
       <c r="T600" s="11"/>
       <c r="U600" s="11"/>
     </row>
-    <row r="601" spans="1:21" ht="15" customHeight="1">
+    <row r="601" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38506,7 +38521,7 @@
       <c r="T601" s="11"/>
       <c r="U601" s="11"/>
     </row>
-    <row r="602" spans="1:21" ht="15" customHeight="1">
+    <row r="602" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38559,7 +38574,7 @@
       <c r="T602" s="11"/>
       <c r="U602" s="11"/>
     </row>
-    <row r="603" spans="1:21" ht="15" customHeight="1">
+    <row r="603" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38612,7 +38627,7 @@
       <c r="T603" s="11"/>
       <c r="U603" s="11"/>
     </row>
-    <row r="604" spans="1:21" ht="15" customHeight="1">
+    <row r="604" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38665,7 +38680,7 @@
       <c r="T604" s="11"/>
       <c r="U604" s="11"/>
     </row>
-    <row r="605" spans="1:21" ht="15" customHeight="1">
+    <row r="605" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38718,7 +38733,7 @@
       <c r="T605" s="11"/>
       <c r="U605" s="11"/>
     </row>
-    <row r="606" spans="1:21" ht="15" customHeight="1">
+    <row r="606" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38771,7 +38786,7 @@
       <c r="T606" s="11"/>
       <c r="U606" s="11"/>
     </row>
-    <row r="607" spans="1:21" ht="15" customHeight="1">
+    <row r="607" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38822,7 +38837,7 @@
       <c r="T607" s="11"/>
       <c r="U607" s="11"/>
     </row>
-    <row r="608" spans="1:21" ht="15" customHeight="1">
+    <row r="608" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38873,7 +38888,7 @@
       <c r="T608" s="11"/>
       <c r="U608" s="11"/>
     </row>
-    <row r="609" spans="1:21" ht="15" customHeight="1">
+    <row r="609" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38924,7 +38939,7 @@
       <c r="T609" s="11"/>
       <c r="U609" s="11"/>
     </row>
-    <row r="610" spans="1:21" ht="15" customHeight="1">
+    <row r="610" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38977,7 +38992,7 @@
       <c r="T610" s="11"/>
       <c r="U610" s="11"/>
     </row>
-    <row r="611" spans="1:21" ht="15" customHeight="1">
+    <row r="611" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39030,7 +39045,7 @@
       <c r="T611" s="11"/>
       <c r="U611" s="11"/>
     </row>
-    <row r="612" spans="1:21" ht="15" customHeight="1">
+    <row r="612" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39083,7 +39098,7 @@
       <c r="T612" s="11"/>
       <c r="U612" s="11"/>
     </row>
-    <row r="613" spans="1:21" ht="15" customHeight="1">
+    <row r="613" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39136,7 +39151,7 @@
       <c r="T613" s="11"/>
       <c r="U613" s="11"/>
     </row>
-    <row r="614" spans="1:21" ht="15" customHeight="1">
+    <row r="614" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39189,7 +39204,7 @@
       <c r="T614" s="11"/>
       <c r="U614" s="11"/>
     </row>
-    <row r="615" spans="1:21" ht="15" customHeight="1">
+    <row r="615" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39242,7 +39257,7 @@
       <c r="T615" s="11"/>
       <c r="U615" s="11"/>
     </row>
-    <row r="616" spans="1:21" ht="15" customHeight="1">
+    <row r="616" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39293,7 +39308,7 @@
       <c r="T616" s="11"/>
       <c r="U616" s="11"/>
     </row>
-    <row r="617" spans="1:21" ht="15" customHeight="1">
+    <row r="617" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39346,7 +39361,7 @@
       <c r="T617" s="11"/>
       <c r="U617" s="11"/>
     </row>
-    <row r="618" spans="1:21" ht="15" customHeight="1">
+    <row r="618" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39399,7 +39414,7 @@
       <c r="T618" s="11"/>
       <c r="U618" s="11"/>
     </row>
-    <row r="619" spans="1:21" ht="15" customHeight="1">
+    <row r="619" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39452,7 +39467,7 @@
       <c r="T619" s="11"/>
       <c r="U619" s="11"/>
     </row>
-    <row r="620" spans="1:21" ht="15" customHeight="1">
+    <row r="620" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39505,7 +39520,7 @@
       <c r="T620" s="11"/>
       <c r="U620" s="11"/>
     </row>
-    <row r="621" spans="1:21" ht="15" customHeight="1">
+    <row r="621" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39558,7 +39573,7 @@
       <c r="T621" s="11"/>
       <c r="U621" s="11"/>
     </row>
-    <row r="622" spans="1:21" ht="15" customHeight="1">
+    <row r="622" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39611,7 +39626,7 @@
       <c r="T622" s="11"/>
       <c r="U622" s="11"/>
     </row>
-    <row r="623" spans="1:21" ht="15" customHeight="1">
+    <row r="623" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39664,7 +39679,7 @@
       <c r="T623" s="11"/>
       <c r="U623" s="11"/>
     </row>
-    <row r="624" spans="1:21" ht="15" customHeight="1">
+    <row r="624" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39717,7 +39732,7 @@
       <c r="T624" s="11"/>
       <c r="U624" s="11"/>
     </row>
-    <row r="625" spans="1:21" ht="15" customHeight="1">
+    <row r="625" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39770,7 +39785,7 @@
       <c r="T625" s="11"/>
       <c r="U625" s="11"/>
     </row>
-    <row r="626" spans="1:21" ht="15" customHeight="1">
+    <row r="626" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39823,7 +39838,7 @@
       <c r="T626" s="11"/>
       <c r="U626" s="11"/>
     </row>
-    <row r="627" spans="1:21" ht="15" customHeight="1">
+    <row r="627" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39876,7 +39891,7 @@
       <c r="T627" s="11"/>
       <c r="U627" s="11"/>
     </row>
-    <row r="628" spans="1:21" ht="15" customHeight="1">
+    <row r="628" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39929,7 +39944,7 @@
       <c r="T628" s="11"/>
       <c r="U628" s="11"/>
     </row>
-    <row r="629" spans="1:21" ht="15" customHeight="1">
+    <row r="629" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39982,7 +39997,7 @@
       <c r="T629" s="11"/>
       <c r="U629" s="11"/>
     </row>
-    <row r="630" spans="1:21" ht="15" customHeight="1">
+    <row r="630" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40035,7 +40050,7 @@
       <c r="T630" s="11"/>
       <c r="U630" s="11"/>
     </row>
-    <row r="631" spans="1:21" ht="15" customHeight="1">
+    <row r="631" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40088,7 +40103,7 @@
       <c r="T631" s="11"/>
       <c r="U631" s="11"/>
     </row>
-    <row r="632" spans="1:21" ht="15" customHeight="1">
+    <row r="632" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40141,7 +40156,7 @@
       <c r="T632" s="11"/>
       <c r="U632" s="11"/>
     </row>
-    <row r="633" spans="1:21" ht="15" customHeight="1">
+    <row r="633" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40194,7 +40209,7 @@
       <c r="T633" s="11"/>
       <c r="U633" s="11"/>
     </row>
-    <row r="634" spans="1:21" ht="15" customHeight="1">
+    <row r="634" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40247,7 +40262,7 @@
       <c r="T634" s="11"/>
       <c r="U634" s="11"/>
     </row>
-    <row r="635" spans="1:21" ht="15" customHeight="1">
+    <row r="635" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40300,7 +40315,7 @@
       <c r="T635" s="11"/>
       <c r="U635" s="11"/>
     </row>
-    <row r="636" spans="1:21" ht="15" customHeight="1">
+    <row r="636" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40353,7 +40368,7 @@
       <c r="T636" s="11"/>
       <c r="U636" s="11"/>
     </row>
-    <row r="637" spans="1:21" ht="15" customHeight="1">
+    <row r="637" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40406,7 +40421,7 @@
       <c r="T637" s="11"/>
       <c r="U637" s="11"/>
     </row>
-    <row r="638" spans="1:21" ht="15" customHeight="1">
+    <row r="638" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40459,7 +40474,7 @@
       <c r="T638" s="11"/>
       <c r="U638" s="11"/>
     </row>
-    <row r="639" spans="1:21" ht="15" customHeight="1">
+    <row r="639" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40512,7 +40527,7 @@
       <c r="T639" s="11"/>
       <c r="U639" s="11"/>
     </row>
-    <row r="640" spans="1:21" ht="15" customHeight="1">
+    <row r="640" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40565,7 +40580,7 @@
       <c r="T640" s="11"/>
       <c r="U640" s="11"/>
     </row>
-    <row r="641" spans="1:21" ht="15" customHeight="1">
+    <row r="641" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40618,7 +40633,7 @@
       <c r="T641" s="11"/>
       <c r="U641" s="11"/>
     </row>
-    <row r="642" spans="1:21" ht="15" customHeight="1">
+    <row r="642" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40669,7 +40684,7 @@
       <c r="T642" s="11"/>
       <c r="U642" s="11"/>
     </row>
-    <row r="643" spans="1:21" ht="15" customHeight="1">
+    <row r="643" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40722,7 +40737,7 @@
       <c r="T643" s="11"/>
       <c r="U643" s="11"/>
     </row>
-    <row r="644" spans="1:21" ht="15" customHeight="1">
+    <row r="644" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40775,7 +40790,7 @@
       <c r="T644" s="11"/>
       <c r="U644" s="11"/>
     </row>
-    <row r="645" spans="1:21" ht="15" customHeight="1">
+    <row r="645" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40828,7 +40843,7 @@
       <c r="T645" s="11"/>
       <c r="U645" s="11"/>
     </row>
-    <row r="646" spans="1:21" ht="15" customHeight="1">
+    <row r="646" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40881,7 +40896,7 @@
       <c r="T646" s="11"/>
       <c r="U646" s="11"/>
     </row>
-    <row r="647" spans="1:21" ht="15" customHeight="1">
+    <row r="647" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40932,7 +40947,7 @@
       <c r="T647" s="11"/>
       <c r="U647" s="11"/>
     </row>
-    <row r="648" spans="1:21" ht="15" customHeight="1">
+    <row r="648" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40985,7 +41000,7 @@
       <c r="T648" s="11"/>
       <c r="U648" s="11"/>
     </row>
-    <row r="649" spans="1:21" ht="15" customHeight="1">
+    <row r="649" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41036,7 +41051,7 @@
       <c r="T649" s="11"/>
       <c r="U649" s="11"/>
     </row>
-    <row r="650" spans="1:21" ht="15" customHeight="1">
+    <row r="650" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41087,7 +41102,7 @@
       <c r="T650" s="11"/>
       <c r="U650" s="11"/>
     </row>
-    <row r="651" spans="1:21" ht="15" customHeight="1">
+    <row r="651" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41138,7 +41153,7 @@
       <c r="T651" s="11"/>
       <c r="U651" s="11"/>
     </row>
-    <row r="652" spans="1:21" ht="15" customHeight="1">
+    <row r="652" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41191,7 +41206,7 @@
       <c r="T652" s="11"/>
       <c r="U652" s="11"/>
     </row>
-    <row r="653" spans="1:21" ht="15" customHeight="1">
+    <row r="653" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41244,7 +41259,7 @@
       <c r="T653" s="11"/>
       <c r="U653" s="11"/>
     </row>
-    <row r="654" spans="1:21" ht="15" customHeight="1">
+    <row r="654" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41297,7 +41312,7 @@
       <c r="T654" s="11"/>
       <c r="U654" s="11"/>
     </row>
-    <row r="655" spans="1:21" ht="15" customHeight="1">
+    <row r="655" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41350,7 +41365,7 @@
       <c r="T655" s="11"/>
       <c r="U655" s="11"/>
     </row>
-    <row r="656" spans="1:21" ht="15" customHeight="1">
+    <row r="656" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41403,7 +41418,7 @@
       <c r="T656" s="11"/>
       <c r="U656" s="11"/>
     </row>
-    <row r="657" spans="1:21" ht="15" customHeight="1">
+    <row r="657" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41456,7 +41471,7 @@
       <c r="T657" s="11"/>
       <c r="U657" s="11"/>
     </row>
-    <row r="658" spans="1:21" ht="15" customHeight="1">
+    <row r="658" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41507,7 +41522,7 @@
       <c r="T658" s="11"/>
       <c r="U658" s="11"/>
     </row>
-    <row r="659" spans="1:21" ht="15" customHeight="1">
+    <row r="659" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41560,7 +41575,7 @@
       <c r="T659" s="11"/>
       <c r="U659" s="11"/>
     </row>
-    <row r="660" spans="1:21" ht="15" customHeight="1">
+    <row r="660" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41613,7 +41628,7 @@
       <c r="T660" s="11"/>
       <c r="U660" s="11"/>
     </row>
-    <row r="661" spans="1:21" ht="15" customHeight="1">
+    <row r="661" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41666,7 +41681,7 @@
       <c r="T661" s="11"/>
       <c r="U661" s="11"/>
     </row>
-    <row r="662" spans="1:21" ht="15" customHeight="1">
+    <row r="662" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41719,7 +41734,7 @@
       <c r="T662" s="11"/>
       <c r="U662" s="11"/>
     </row>
-    <row r="663" spans="1:21" ht="15" customHeight="1">
+    <row r="663" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41772,7 +41787,7 @@
       <c r="T663" s="11"/>
       <c r="U663" s="11"/>
     </row>
-    <row r="664" spans="1:21" ht="15" customHeight="1">
+    <row r="664" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41823,7 +41838,7 @@
       <c r="T664" s="11"/>
       <c r="U664" s="11"/>
     </row>
-    <row r="665" spans="1:21" ht="15" customHeight="1">
+    <row r="665" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41876,7 +41891,7 @@
       <c r="T665" s="11"/>
       <c r="U665" s="11"/>
     </row>
-    <row r="666" spans="1:21" ht="15" customHeight="1">
+    <row r="666" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41929,7 +41944,7 @@
       <c r="T666" s="11"/>
       <c r="U666" s="11"/>
     </row>
-    <row r="667" spans="1:21" ht="15" customHeight="1">
+    <row r="667" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41982,7 +41997,7 @@
       <c r="T667" s="11"/>
       <c r="U667" s="11"/>
     </row>
-    <row r="668" spans="1:21" ht="15" customHeight="1">
+    <row r="668" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42033,7 +42048,7 @@
       <c r="T668" s="11"/>
       <c r="U668" s="11"/>
     </row>
-    <row r="669" spans="1:21" ht="15" customHeight="1">
+    <row r="669" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42086,7 +42101,7 @@
       <c r="T669" s="11"/>
       <c r="U669" s="11"/>
     </row>
-    <row r="670" spans="1:21" ht="15" customHeight="1">
+    <row r="670" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42139,7 +42154,7 @@
       <c r="T670" s="11"/>
       <c r="U670" s="11"/>
     </row>
-    <row r="671" spans="1:21" ht="15" customHeight="1">
+    <row r="671" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42192,7 +42207,7 @@
       <c r="T671" s="11"/>
       <c r="U671" s="11"/>
     </row>
-    <row r="672" spans="1:21" ht="15" customHeight="1">
+    <row r="672" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42245,7 +42260,7 @@
       <c r="T672" s="11"/>
       <c r="U672" s="11"/>
     </row>
-    <row r="673" spans="1:21" ht="15" customHeight="1">
+    <row r="673" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42298,7 +42313,7 @@
       <c r="T673" s="11"/>
       <c r="U673" s="11"/>
     </row>
-    <row r="674" spans="1:21" ht="15" customHeight="1">
+    <row r="674" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42351,7 +42366,7 @@
       <c r="T674" s="11"/>
       <c r="U674" s="11"/>
     </row>
-    <row r="675" spans="1:21" ht="15" customHeight="1">
+    <row r="675" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42404,7 +42419,7 @@
       <c r="T675" s="11"/>
       <c r="U675" s="11"/>
     </row>
-    <row r="676" spans="1:21" ht="15" customHeight="1">
+    <row r="676" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42457,7 +42472,7 @@
       <c r="T676" s="11"/>
       <c r="U676" s="11"/>
     </row>
-    <row r="677" spans="1:21" ht="15" customHeight="1">
+    <row r="677" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42510,7 +42525,7 @@
       <c r="T677" s="11"/>
       <c r="U677" s="11"/>
     </row>
-    <row r="678" spans="1:21" ht="15" customHeight="1">
+    <row r="678" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42563,7 +42578,7 @@
       <c r="T678" s="11"/>
       <c r="U678" s="11"/>
     </row>
-    <row r="679" spans="1:21" ht="15" customHeight="1">
+    <row r="679" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42616,7 +42631,7 @@
       <c r="T679" s="11"/>
       <c r="U679" s="11"/>
     </row>
-    <row r="680" spans="1:21" ht="15" customHeight="1">
+    <row r="680" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42667,7 +42682,7 @@
       <c r="T680" s="11"/>
       <c r="U680" s="11"/>
     </row>
-    <row r="681" spans="1:21" ht="15" customHeight="1">
+    <row r="681" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42720,7 +42735,7 @@
       <c r="T681" s="11"/>
       <c r="U681" s="11"/>
     </row>
-    <row r="682" spans="1:21" ht="15" customHeight="1">
+    <row r="682" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42773,7 +42788,7 @@
       <c r="T682" s="11"/>
       <c r="U682" s="11"/>
     </row>
-    <row r="683" spans="1:21" ht="15" customHeight="1">
+    <row r="683" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42826,7 +42841,7 @@
       <c r="T683" s="11"/>
       <c r="U683" s="11"/>
     </row>
-    <row r="684" spans="1:21" ht="15" customHeight="1">
+    <row r="684" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42879,7 +42894,7 @@
       <c r="T684" s="11"/>
       <c r="U684" s="11"/>
     </row>
-    <row r="685" spans="1:21" ht="15" customHeight="1">
+    <row r="685" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42930,7 +42945,7 @@
       <c r="T685" s="11"/>
       <c r="U685" s="11"/>
     </row>
-    <row r="686" spans="1:21" ht="15" customHeight="1">
+    <row r="686" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42981,7 +42996,7 @@
       <c r="T686" s="11"/>
       <c r="U686" s="11"/>
     </row>
-    <row r="687" spans="1:21" ht="15" customHeight="1">
+    <row r="687" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43032,7 +43047,7 @@
       <c r="T687" s="11"/>
       <c r="U687" s="11"/>
     </row>
-    <row r="688" spans="1:21" ht="15" customHeight="1">
+    <row r="688" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43083,7 +43098,7 @@
       <c r="T688" s="11"/>
       <c r="U688" s="11"/>
     </row>
-    <row r="689" spans="1:21" ht="15" customHeight="1">
+    <row r="689" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43134,7 +43149,7 @@
       <c r="T689" s="11"/>
       <c r="U689" s="11"/>
     </row>
-    <row r="690" spans="1:21" ht="15" customHeight="1">
+    <row r="690" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43185,7 +43200,7 @@
       <c r="T690" s="11"/>
       <c r="U690" s="11"/>
     </row>
-    <row r="691" spans="1:21" ht="15" customHeight="1">
+    <row r="691" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43238,7 +43253,7 @@
       <c r="T691" s="11"/>
       <c r="U691" s="11"/>
     </row>
-    <row r="692" spans="1:21" ht="15" customHeight="1">
+    <row r="692" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43289,7 +43304,7 @@
       <c r="T692" s="11"/>
       <c r="U692" s="11"/>
     </row>
-    <row r="693" spans="1:21" ht="15" customHeight="1">
+    <row r="693" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43340,7 +43355,7 @@
       <c r="T693" s="11"/>
       <c r="U693" s="11"/>
     </row>
-    <row r="694" spans="1:21" ht="15" customHeight="1">
+    <row r="694" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43391,7 +43406,7 @@
       <c r="T694" s="11"/>
       <c r="U694" s="11"/>
     </row>
-    <row r="695" spans="1:21" ht="15" customHeight="1">
+    <row r="695" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43442,7 +43457,7 @@
       <c r="T695" s="11"/>
       <c r="U695" s="11"/>
     </row>
-    <row r="696" spans="1:21" ht="15" customHeight="1">
+    <row r="696" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43495,7 +43510,7 @@
       <c r="T696" s="11"/>
       <c r="U696" s="11"/>
     </row>
-    <row r="697" spans="1:21" ht="15" customHeight="1">
+    <row r="697" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43548,7 +43563,7 @@
       <c r="T697" s="11"/>
       <c r="U697" s="11"/>
     </row>
-    <row r="698" spans="1:21" ht="15" customHeight="1">
+    <row r="698" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43601,7 +43616,7 @@
       <c r="T698" s="11"/>
       <c r="U698" s="11"/>
     </row>
-    <row r="699" spans="1:21" ht="15" customHeight="1">
+    <row r="699" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43654,7 +43669,7 @@
       <c r="T699" s="11"/>
       <c r="U699" s="11"/>
     </row>
-    <row r="700" spans="1:21" ht="15" customHeight="1">
+    <row r="700" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43707,7 +43722,7 @@
       <c r="T700" s="11"/>
       <c r="U700" s="11"/>
     </row>
-    <row r="701" spans="1:21" ht="15" customHeight="1">
+    <row r="701" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43760,7 +43775,7 @@
       <c r="T701" s="11"/>
       <c r="U701" s="11"/>
     </row>
-    <row r="702" spans="1:21" ht="15" customHeight="1">
+    <row r="702" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43813,7 +43828,7 @@
       <c r="T702" s="11"/>
       <c r="U702" s="11"/>
     </row>
-    <row r="703" spans="1:21" ht="15" customHeight="1">
+    <row r="703" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43866,7 +43881,7 @@
       <c r="T703" s="11"/>
       <c r="U703" s="11"/>
     </row>
-    <row r="704" spans="1:21" ht="15" customHeight="1">
+    <row r="704" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43917,7 +43932,7 @@
       <c r="T704" s="11"/>
       <c r="U704" s="11"/>
     </row>
-    <row r="705" spans="1:21" ht="15" customHeight="1">
+    <row r="705" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43970,7 +43985,7 @@
       <c r="T705" s="11"/>
       <c r="U705" s="11"/>
     </row>
-    <row r="706" spans="1:21" ht="15" customHeight="1">
+    <row r="706" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44023,7 +44038,7 @@
       <c r="T706" s="11"/>
       <c r="U706" s="11"/>
     </row>
-    <row r="707" spans="1:21" ht="15" customHeight="1">
+    <row r="707" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44074,7 +44089,7 @@
       <c r="T707" s="11"/>
       <c r="U707" s="11"/>
     </row>
-    <row r="708" spans="1:21" ht="15" customHeight="1">
+    <row r="708" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44127,7 +44142,7 @@
       <c r="T708" s="11"/>
       <c r="U708" s="11"/>
     </row>
-    <row r="709" spans="1:21" ht="15" customHeight="1">
+    <row r="709" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44178,7 +44193,7 @@
       <c r="T709" s="11"/>
       <c r="U709" s="11"/>
     </row>
-    <row r="710" spans="1:21" ht="15" customHeight="1">
+    <row r="710" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44229,7 +44244,7 @@
       <c r="T710" s="11"/>
       <c r="U710" s="11"/>
     </row>
-    <row r="711" spans="1:21" ht="15" customHeight="1">
+    <row r="711" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44280,7 +44295,7 @@
       <c r="T711" s="11"/>
       <c r="U711" s="11"/>
     </row>
-    <row r="712" spans="1:21" ht="15" customHeight="1">
+    <row r="712" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44331,7 +44346,7 @@
       <c r="T712" s="11"/>
       <c r="U712" s="11"/>
     </row>
-    <row r="713" spans="1:21" ht="15" customHeight="1">
+    <row r="713" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44382,7 +44397,7 @@
       <c r="T713" s="11"/>
       <c r="U713" s="11"/>
     </row>
-    <row r="714" spans="1:21" ht="15" customHeight="1">
+    <row r="714" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44433,7 +44448,7 @@
       <c r="T714" s="11"/>
       <c r="U714" s="11"/>
     </row>
-    <row r="715" spans="1:21" ht="15" customHeight="1">
+    <row r="715" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44484,7 +44499,7 @@
       <c r="T715" s="11"/>
       <c r="U715" s="11"/>
     </row>
-    <row r="716" spans="1:21" ht="15" customHeight="1">
+    <row r="716" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44535,7 +44550,7 @@
       <c r="T716" s="11"/>
       <c r="U716" s="11"/>
     </row>
-    <row r="717" spans="1:21" ht="15" customHeight="1">
+    <row r="717" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44586,7 +44601,7 @@
       <c r="T717" s="11"/>
       <c r="U717" s="11"/>
     </row>
-    <row r="718" spans="1:21" ht="15" customHeight="1">
+    <row r="718" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44637,7 +44652,7 @@
       <c r="T718" s="11"/>
       <c r="U718" s="11"/>
     </row>
-    <row r="719" spans="1:21" ht="15" customHeight="1">
+    <row r="719" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44688,7 +44703,7 @@
       <c r="T719" s="11"/>
       <c r="U719" s="11"/>
     </row>
-    <row r="720" spans="1:21" ht="15" customHeight="1">
+    <row r="720" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44741,7 +44756,7 @@
       <c r="T720" s="11"/>
       <c r="U720" s="11"/>
     </row>
-    <row r="721" spans="1:21" ht="15" customHeight="1">
+    <row r="721" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44794,7 +44809,7 @@
       <c r="T721" s="11"/>
       <c r="U721" s="11"/>
     </row>
-    <row r="722" spans="1:21" ht="15" customHeight="1">
+    <row r="722" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44845,7 +44860,7 @@
       <c r="T722" s="11"/>
       <c r="U722" s="11"/>
     </row>
-    <row r="723" spans="1:21" ht="15" customHeight="1">
+    <row r="723" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44896,7 +44911,7 @@
       <c r="T723" s="11"/>
       <c r="U723" s="11"/>
     </row>
-    <row r="724" spans="1:21" ht="15" customHeight="1">
+    <row r="724" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44947,7 +44962,7 @@
       <c r="T724" s="11"/>
       <c r="U724" s="11"/>
     </row>
-    <row r="725" spans="1:21" ht="15" customHeight="1">
+    <row r="725" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44998,7 +45013,7 @@
       <c r="T725" s="11"/>
       <c r="U725" s="11"/>
     </row>
-    <row r="726" spans="1:21" ht="15" customHeight="1">
+    <row r="726" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="11"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -45021,7 +45036,7 @@
       <c r="T726" s="11"/>
       <c r="U726" s="11"/>
     </row>
-    <row r="727" spans="1:21" ht="15" customHeight="1">
+    <row r="727" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D727" s="19"/>
       <c r="E727" s="19"/>
       <c r="F727" s="10"/>
@@ -45032,7 +45047,7 @@
       <c r="R727" s="21"/>
       <c r="S727" s="10"/>
     </row>
-    <row r="728" spans="1:21" ht="15" customHeight="1">
+    <row r="728" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D728" s="19"/>
       <c r="E728" s="19"/>
       <c r="F728" s="10"/>
@@ -45043,7 +45058,7 @@
       <c r="R728" s="21"/>
       <c r="S728" s="10"/>
     </row>
-    <row r="729" spans="1:21" ht="15" customHeight="1">
+    <row r="729" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D729" s="19"/>
       <c r="E729" s="19"/>
       <c r="F729" s="10"/>
@@ -45054,7 +45069,7 @@
       <c r="R729" s="21"/>
       <c r="S729" s="10"/>
     </row>
-    <row r="730" spans="1:21" ht="15" customHeight="1">
+    <row r="730" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D730" s="19"/>
       <c r="E730" s="19"/>
       <c r="F730" s="10"/>
@@ -45065,7 +45080,7 @@
       <c r="R730" s="21"/>
       <c r="S730" s="10"/>
     </row>
-    <row r="731" spans="1:21" ht="15" customHeight="1">
+    <row r="731" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D731" s="19"/>
       <c r="E731" s="19"/>
       <c r="F731" s="10"/>
@@ -45076,7 +45091,7 @@
       <c r="R731" s="21"/>
       <c r="S731" s="10"/>
     </row>
-    <row r="732" spans="1:21" ht="15" customHeight="1">
+    <row r="732" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D732" s="19"/>
       <c r="E732" s="19"/>
       <c r="F732" s="10"/>
@@ -45087,7 +45102,7 @@
       <c r="R732" s="21"/>
       <c r="S732" s="10"/>
     </row>
-    <row r="733" spans="1:21" ht="15" customHeight="1">
+    <row r="733" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D733" s="19"/>
       <c r="E733" s="19"/>
       <c r="F733" s="10"/>
@@ -45098,7 +45113,7 @@
       <c r="R733" s="21"/>
       <c r="S733" s="10"/>
     </row>
-    <row r="734" spans="1:21" ht="15" customHeight="1">
+    <row r="734" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D734" s="19"/>
       <c r="E734" s="19"/>
       <c r="F734" s="10"/>
@@ -45109,7 +45124,7 @@
       <c r="R734" s="21"/>
       <c r="S734" s="10"/>
     </row>
-    <row r="735" spans="1:21" ht="15" customHeight="1">
+    <row r="735" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D735" s="19"/>
       <c r="E735" s="19"/>
       <c r="F735" s="10"/>
@@ -45120,14 +45135,20 @@
       <c r="R735" s="21"/>
       <c r="S735" s="10"/>
     </row>
-    <row r="736" spans="1:21" ht="15" customHeight="1">
+    <row r="736" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M736" s="10" t="e">
         <f t="array" aca="1" ref="M736" ca="1">INDEX(showData("https://betaapi.xbrl.us/api/v1/concept/search?concept.local-name="&amp;K736&amp;"&amp;concept.namespace=http://xbrl.ifrs.org/taxonomy/2018-03-16/ifrs-full&amp;dts.id=301366&amp;label.role-short=documentation&amp;fields=label.text","name","label",FALSE),1,3)</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S2"/>
+  <autoFilter ref="A2:S725">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/docs/DQC_US_0080/DQC_0080_ListOfElements.xlsx
+++ b/docs/DQC_US_0080/DQC_0080_ListOfElements.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\David\Documents\GitHub\davidtauriello\dqc_us_rules\docs\DQC_US_0080\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="510" yWindow="630" windowWidth="15980" windowHeight="8640"/>
+    <workbookView xWindow="510" yWindow="630" windowWidth="15975" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="NonNeg" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NonNeg!$A$2:$S$725</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -6396,8 +6391,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6603,7 +6598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6635,10 +6630,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6670,7 +6664,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6846,40 +6839,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D318" sqref="D318"/>
+      <pane ySplit="2" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M736" sqref="M736"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="7" style="4" customWidth="1"/>
-    <col min="11" max="11" width="44.81640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="44.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="45" style="4" customWidth="1"/>
-    <col min="14" max="15" width="14.453125" style="4"/>
-    <col min="16" max="16" width="22.453125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="14.453125" style="4"/>
-    <col min="19" max="19" width="14.453125" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="14.453125" style="4"/>
+    <col min="14" max="15" width="14.42578125" style="4"/>
+    <col min="16" max="16" width="22.42578125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="4"/>
+    <col min="19" max="19" width="14.42578125" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1397</v>
       </c>
@@ -6898,7 +6891,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -6957,7 +6950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7009,7 +7002,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7062,7 +7055,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7115,7 +7108,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7168,7 +7161,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7221,7 +7214,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7274,7 +7267,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7327,7 +7320,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7380,7 +7373,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7433,7 +7426,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7486,7 +7479,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7539,7 +7532,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7592,7 +7585,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7645,7 +7638,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7698,7 +7691,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7749,7 +7742,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7802,7 +7795,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7855,7 +7848,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7908,7 +7901,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>1398</v>
       </c>
@@ -7961,7 +7954,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8014,7 +8007,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8067,7 +8060,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8120,7 +8113,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8173,7 +8166,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8226,7 +8219,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8279,7 +8272,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8332,7 +8325,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8385,7 +8378,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8436,7 +8429,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8487,7 +8480,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8538,7 +8531,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8591,7 +8584,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8644,7 +8637,7 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8697,7 +8690,7 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8750,7 +8743,7 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8803,7 +8796,7 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8856,7 +8849,7 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8909,7 +8902,7 @@
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>1398</v>
       </c>
@@ -8962,7 +8955,7 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9015,7 +9008,7 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9068,7 +9061,7 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9121,7 +9114,7 @@
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9174,7 +9167,7 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9227,7 +9220,7 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9280,7 +9273,7 @@
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9333,7 +9326,7 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9386,7 +9379,7 @@
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9439,7 +9432,7 @@
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9492,7 +9485,7 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9545,7 +9538,7 @@
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9598,7 +9591,7 @@
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9651,7 +9644,7 @@
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" customHeight="1">
       <c r="A54" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9704,7 +9697,7 @@
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9757,7 +9750,7 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" customHeight="1">
       <c r="A56" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9810,7 +9803,7 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9863,7 +9856,7 @@
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9916,7 +9909,7 @@
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>1398</v>
       </c>
@@ -9969,7 +9962,7 @@
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15" customHeight="1">
       <c r="A60" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10022,7 +10015,7 @@
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15" customHeight="1">
       <c r="A61" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10073,7 +10066,7 @@
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10124,7 +10117,7 @@
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
     </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10175,7 +10168,7 @@
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
     </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10228,7 +10221,7 @@
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
     </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10281,7 +10274,7 @@
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
     </row>
-    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10334,7 +10327,7 @@
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
     </row>
-    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10387,7 +10380,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
     </row>
-    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10440,7 +10433,7 @@
       <c r="T68" s="11"/>
       <c r="U68" s="11"/>
     </row>
-    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10493,7 +10486,7 @@
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
     </row>
-    <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15" customHeight="1">
       <c r="A70" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10546,7 +10539,7 @@
       <c r="T70" s="11"/>
       <c r="U70" s="11"/>
     </row>
-    <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="15" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10599,7 +10592,7 @@
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
     </row>
-    <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="15" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10652,7 +10645,7 @@
       <c r="T72" s="11"/>
       <c r="U72" s="11"/>
     </row>
-    <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="15" customHeight="1">
       <c r="A73" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10705,7 +10698,7 @@
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
     </row>
-    <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="15" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10758,7 +10751,7 @@
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
     </row>
-    <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="15" customHeight="1">
       <c r="A75" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10811,7 +10804,7 @@
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
     </row>
-    <row r="76" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="15" customHeight="1">
       <c r="A76" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10864,7 +10857,7 @@
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
     </row>
-    <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="15" customHeight="1">
       <c r="A77" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10917,7 +10910,7 @@
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
     </row>
-    <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="15" customHeight="1">
       <c r="A78" s="11" t="s">
         <v>1398</v>
       </c>
@@ -10970,7 +10963,7 @@
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
     </row>
-    <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="15" customHeight="1">
       <c r="A79" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11023,7 +11016,7 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
     </row>
-    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="15" customHeight="1">
       <c r="A80" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11076,7 +11069,7 @@
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
     </row>
-    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="15" customHeight="1">
       <c r="A81" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11127,7 +11120,7 @@
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
     </row>
-    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="15" customHeight="1">
       <c r="A82" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11180,7 +11173,7 @@
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="15" customHeight="1">
       <c r="A83" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11233,7 +11226,7 @@
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
     </row>
-    <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="15" customHeight="1">
       <c r="A84" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11286,7 +11279,7 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
     </row>
-    <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="15" customHeight="1">
       <c r="A85" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11339,7 +11332,7 @@
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
     </row>
-    <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="15" customHeight="1">
       <c r="A86" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11392,7 +11385,7 @@
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
     </row>
-    <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="15" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11445,7 +11438,7 @@
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
     </row>
-    <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="15" customHeight="1">
       <c r="A88" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11498,7 +11491,7 @@
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
     </row>
-    <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="15" customHeight="1">
       <c r="A89" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11551,7 +11544,7 @@
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
     </row>
-    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="15" customHeight="1">
       <c r="A90" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11604,7 +11597,7 @@
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
     </row>
-    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="15" customHeight="1">
       <c r="A91" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11657,7 +11650,7 @@
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
     </row>
-    <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="15" customHeight="1">
       <c r="A92" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11708,7 +11701,7 @@
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
     </row>
-    <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="15" customHeight="1">
       <c r="A93" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11761,7 +11754,7 @@
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
     </row>
-    <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="15" customHeight="1">
       <c r="A94" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11814,7 +11807,7 @@
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
     </row>
-    <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="15" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11867,7 +11860,7 @@
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
     </row>
-    <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="15" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11918,7 +11911,7 @@
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
     </row>
-    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="15" customHeight="1">
       <c r="A97" s="11" t="s">
         <v>1398</v>
       </c>
@@ -11971,7 +11964,7 @@
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
     </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="15" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12024,7 +12017,7 @@
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
     </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="15" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12075,7 +12068,7 @@
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
     </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="15" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12126,7 +12119,7 @@
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
     </row>
-    <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="15" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12177,7 +12170,7 @@
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
     </row>
-    <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="15" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12230,7 +12223,7 @@
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
     </row>
-    <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="15" customHeight="1">
       <c r="A103" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12283,7 +12276,7 @@
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
     </row>
-    <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="15" customHeight="1">
       <c r="A104" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12336,7 +12329,7 @@
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
     </row>
-    <row r="105" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="15" customHeight="1">
       <c r="A105" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12389,7 +12382,7 @@
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
     </row>
-    <row r="106" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="15" customHeight="1">
       <c r="A106" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12442,7 +12435,7 @@
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
     </row>
-    <row r="107" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="15" customHeight="1">
       <c r="A107" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12495,7 +12488,7 @@
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
     </row>
-    <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="15" customHeight="1">
       <c r="A108" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12548,7 +12541,7 @@
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
     </row>
-    <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="15" customHeight="1">
       <c r="A109" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12601,7 +12594,7 @@
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
     </row>
-    <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="15" customHeight="1">
       <c r="A110" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12654,7 +12647,7 @@
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
     </row>
-    <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="15" customHeight="1">
       <c r="A111" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12707,7 +12700,7 @@
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
     </row>
-    <row r="112" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="15" customHeight="1">
       <c r="A112" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12760,7 +12753,7 @@
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
     </row>
-    <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="15" customHeight="1">
       <c r="A113" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12813,7 +12806,7 @@
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
     </row>
-    <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="15" customHeight="1">
       <c r="A114" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12866,7 +12859,7 @@
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
     </row>
-    <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="15" customHeight="1">
       <c r="A115" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12919,7 +12912,7 @@
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
     </row>
-    <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="15" customHeight="1">
       <c r="A116" s="11" t="s">
         <v>1398</v>
       </c>
@@ -12972,7 +12965,7 @@
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
     </row>
-    <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="15" customHeight="1">
       <c r="A117" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13025,7 +13018,7 @@
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
     </row>
-    <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="15" customHeight="1">
       <c r="A118" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13076,7 +13069,7 @@
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
     </row>
-    <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="15" customHeight="1">
       <c r="A119" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13127,7 +13120,7 @@
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
     </row>
-    <row r="120" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="15" customHeight="1">
       <c r="A120" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13180,7 +13173,7 @@
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
     </row>
-    <row r="121" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="15" customHeight="1">
       <c r="A121" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13231,7 +13224,7 @@
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
     </row>
-    <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="15" customHeight="1">
       <c r="A122" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13284,7 +13277,7 @@
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
     </row>
-    <row r="123" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="15" customHeight="1">
       <c r="A123" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13337,7 +13330,7 @@
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
     </row>
-    <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="15" customHeight="1">
       <c r="A124" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13390,7 +13383,7 @@
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
     </row>
-    <row r="125" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="15" customHeight="1">
       <c r="A125" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13443,7 +13436,7 @@
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
     </row>
-    <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="15" customHeight="1">
       <c r="A126" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13496,7 +13489,7 @@
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
     </row>
-    <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="15" customHeight="1">
       <c r="A127" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13549,7 +13542,7 @@
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
     </row>
-    <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="15" customHeight="1">
       <c r="A128" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13602,7 +13595,7 @@
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
     </row>
-    <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="15" customHeight="1">
       <c r="A129" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13655,7 +13648,7 @@
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
     </row>
-    <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="15" customHeight="1">
       <c r="A130" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13708,7 +13701,7 @@
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
     </row>
-    <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="15" customHeight="1">
       <c r="A131" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13761,7 +13754,7 @@
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
     </row>
-    <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="15" customHeight="1">
       <c r="A132" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13814,7 +13807,7 @@
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
     </row>
-    <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="15" customHeight="1">
       <c r="A133" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13867,7 +13860,7 @@
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
     </row>
-    <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="15" customHeight="1">
       <c r="A134" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13920,7 +13913,7 @@
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
     </row>
-    <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="15" customHeight="1">
       <c r="A135" s="11" t="s">
         <v>1398</v>
       </c>
@@ -13971,7 +13964,7 @@
       <c r="T135" s="11"/>
       <c r="U135" s="11"/>
     </row>
-    <row r="136" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="15" customHeight="1">
       <c r="A136" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14022,7 +14015,7 @@
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
     </row>
-    <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="15" customHeight="1">
       <c r="A137" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14073,7 +14066,7 @@
       <c r="T137" s="11"/>
       <c r="U137" s="11"/>
     </row>
-    <row r="138" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="15" customHeight="1">
       <c r="A138" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14126,7 +14119,7 @@
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
     </row>
-    <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="15" customHeight="1">
       <c r="A139" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14179,7 +14172,7 @@
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
     </row>
-    <row r="140" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="15" customHeight="1">
       <c r="A140" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14232,7 +14225,7 @@
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
     </row>
-    <row r="141" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="15" customHeight="1">
       <c r="A141" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14285,7 +14278,7 @@
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
     </row>
-    <row r="142" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="15" customHeight="1">
       <c r="A142" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14338,7 +14331,7 @@
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
     </row>
-    <row r="143" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="15" customHeight="1">
       <c r="A143" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14391,7 +14384,7 @@
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
     </row>
-    <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="15" customHeight="1">
       <c r="A144" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14444,7 +14437,7 @@
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
     </row>
-    <row r="145" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="15" customHeight="1">
       <c r="A145" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14497,7 +14490,7 @@
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
     </row>
-    <row r="146" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="15" customHeight="1">
       <c r="A146" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14550,7 +14543,7 @@
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
     </row>
-    <row r="147" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="15" customHeight="1">
       <c r="A147" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14603,7 +14596,7 @@
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
     </row>
-    <row r="148" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="15" customHeight="1">
       <c r="A148" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14656,7 +14649,7 @@
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
     </row>
-    <row r="149" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="15" customHeight="1">
       <c r="A149" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14709,7 +14702,7 @@
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
     </row>
-    <row r="150" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="15" customHeight="1">
       <c r="A150" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14762,7 +14755,7 @@
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
     </row>
-    <row r="151" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="15" customHeight="1">
       <c r="A151" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14815,7 +14808,7 @@
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
     </row>
-    <row r="152" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="15" customHeight="1">
       <c r="A152" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14868,7 +14861,7 @@
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
     </row>
-    <row r="153" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" ht="15" customHeight="1">
       <c r="A153" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14921,7 +14914,7 @@
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
     </row>
-    <row r="154" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="15" customHeight="1">
       <c r="A154" s="11" t="s">
         <v>1398</v>
       </c>
@@ -14974,7 +14967,7 @@
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
     </row>
-    <row r="155" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="15" customHeight="1">
       <c r="A155" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15027,7 +15020,7 @@
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
     </row>
-    <row r="156" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" ht="15" customHeight="1">
       <c r="A156" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15080,7 +15073,7 @@
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
     </row>
-    <row r="157" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" ht="15" customHeight="1">
       <c r="A157" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15133,7 +15126,7 @@
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
     </row>
-    <row r="158" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="15" customHeight="1">
       <c r="A158" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15186,7 +15179,7 @@
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
     </row>
-    <row r="159" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="15" customHeight="1">
       <c r="A159" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15239,7 +15232,7 @@
       <c r="T159" s="11"/>
       <c r="U159" s="11"/>
     </row>
-    <row r="160" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" ht="15" customHeight="1">
       <c r="A160" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15292,7 +15285,7 @@
       <c r="T160" s="11"/>
       <c r="U160" s="11"/>
     </row>
-    <row r="161" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="15" customHeight="1">
       <c r="A161" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15345,7 +15338,7 @@
       <c r="T161" s="11"/>
       <c r="U161" s="11"/>
     </row>
-    <row r="162" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" ht="15" customHeight="1">
       <c r="A162" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15398,7 +15391,7 @@
       <c r="T162" s="11"/>
       <c r="U162" s="11"/>
     </row>
-    <row r="163" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="15" customHeight="1">
       <c r="A163" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15451,7 +15444,7 @@
       <c r="T163" s="11"/>
       <c r="U163" s="11"/>
     </row>
-    <row r="164" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="15" customHeight="1">
       <c r="A164" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15504,7 +15497,7 @@
       <c r="T164" s="11"/>
       <c r="U164" s="11"/>
     </row>
-    <row r="165" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="15" customHeight="1">
       <c r="A165" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15557,7 +15550,7 @@
       <c r="T165" s="11"/>
       <c r="U165" s="11"/>
     </row>
-    <row r="166" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="15" customHeight="1">
       <c r="A166" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15610,7 +15603,7 @@
       <c r="T166" s="11"/>
       <c r="U166" s="11"/>
     </row>
-    <row r="167" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="15" customHeight="1">
       <c r="A167" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15663,7 +15656,7 @@
       <c r="T167" s="11"/>
       <c r="U167" s="11"/>
     </row>
-    <row r="168" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="15" customHeight="1">
       <c r="A168" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15716,7 +15709,7 @@
       <c r="T168" s="11"/>
       <c r="U168" s="11"/>
     </row>
-    <row r="169" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="15" customHeight="1">
       <c r="A169" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15769,7 +15762,7 @@
       <c r="T169" s="11"/>
       <c r="U169" s="11"/>
     </row>
-    <row r="170" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="15" customHeight="1">
       <c r="A170" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15822,7 +15815,7 @@
       <c r="T170" s="11"/>
       <c r="U170" s="11"/>
     </row>
-    <row r="171" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="15" customHeight="1">
       <c r="A171" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15875,7 +15868,7 @@
       <c r="T171" s="11"/>
       <c r="U171" s="11"/>
     </row>
-    <row r="172" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="15" customHeight="1">
       <c r="A172" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15928,7 +15921,7 @@
       <c r="T172" s="11"/>
       <c r="U172" s="11"/>
     </row>
-    <row r="173" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" ht="15" customHeight="1">
       <c r="A173" s="11" t="s">
         <v>1398</v>
       </c>
@@ -15981,7 +15974,7 @@
       <c r="T173" s="11"/>
       <c r="U173" s="11"/>
     </row>
-    <row r="174" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" ht="15" customHeight="1">
       <c r="A174" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16034,7 +16027,7 @@
       <c r="T174" s="11"/>
       <c r="U174" s="11"/>
     </row>
-    <row r="175" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" ht="15" customHeight="1">
       <c r="A175" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16087,7 +16080,7 @@
       <c r="T175" s="11"/>
       <c r="U175" s="11"/>
     </row>
-    <row r="176" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" ht="15" customHeight="1">
       <c r="A176" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16140,7 +16133,7 @@
       <c r="T176" s="11"/>
       <c r="U176" s="11"/>
     </row>
-    <row r="177" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" ht="15" customHeight="1">
       <c r="A177" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16193,7 +16186,7 @@
       <c r="T177" s="11"/>
       <c r="U177" s="11"/>
     </row>
-    <row r="178" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" ht="15" customHeight="1">
       <c r="A178" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16246,7 +16239,7 @@
       <c r="T178" s="11"/>
       <c r="U178" s="11"/>
     </row>
-    <row r="179" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" ht="15" customHeight="1">
       <c r="A179" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16299,7 +16292,7 @@
       <c r="T179" s="11"/>
       <c r="U179" s="11"/>
     </row>
-    <row r="180" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" ht="15" customHeight="1">
       <c r="A180" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16352,7 +16345,7 @@
       <c r="T180" s="11"/>
       <c r="U180" s="11"/>
     </row>
-    <row r="181" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" ht="15" customHeight="1">
       <c r="A181" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16405,7 +16398,7 @@
       <c r="T181" s="11"/>
       <c r="U181" s="11"/>
     </row>
-    <row r="182" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" ht="15" customHeight="1">
       <c r="A182" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16458,7 +16451,7 @@
       <c r="T182" s="11"/>
       <c r="U182" s="11"/>
     </row>
-    <row r="183" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" ht="15" customHeight="1">
       <c r="A183" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16511,7 +16504,7 @@
       <c r="T183" s="11"/>
       <c r="U183" s="11"/>
     </row>
-    <row r="184" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" ht="15" customHeight="1">
       <c r="A184" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16564,7 +16557,7 @@
       <c r="T184" s="11"/>
       <c r="U184" s="11"/>
     </row>
-    <row r="185" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" ht="15" customHeight="1">
       <c r="A185" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16617,7 +16610,7 @@
       <c r="T185" s="11"/>
       <c r="U185" s="11"/>
     </row>
-    <row r="186" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" ht="15" customHeight="1">
       <c r="A186" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16670,7 +16663,7 @@
       <c r="T186" s="11"/>
       <c r="U186" s="11"/>
     </row>
-    <row r="187" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" ht="15" customHeight="1">
       <c r="A187" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16723,7 +16716,7 @@
       <c r="T187" s="11"/>
       <c r="U187" s="11"/>
     </row>
-    <row r="188" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" ht="15" customHeight="1">
       <c r="A188" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16776,7 +16769,7 @@
       <c r="T188" s="11"/>
       <c r="U188" s="11"/>
     </row>
-    <row r="189" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" ht="15" customHeight="1">
       <c r="A189" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16829,7 +16822,7 @@
       <c r="T189" s="11"/>
       <c r="U189" s="11"/>
     </row>
-    <row r="190" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" ht="15" customHeight="1">
       <c r="A190" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16882,7 +16875,7 @@
       <c r="T190" s="11"/>
       <c r="U190" s="11"/>
     </row>
-    <row r="191" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" ht="15" customHeight="1">
       <c r="A191" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16935,7 +16928,7 @@
       <c r="T191" s="11"/>
       <c r="U191" s="11"/>
     </row>
-    <row r="192" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="15" customHeight="1">
       <c r="A192" s="11" t="s">
         <v>1398</v>
       </c>
@@ -16988,7 +16981,7 @@
       <c r="T192" s="11"/>
       <c r="U192" s="11"/>
     </row>
-    <row r="193" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" ht="15" customHeight="1">
       <c r="A193" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17041,7 +17034,7 @@
       <c r="T193" s="11"/>
       <c r="U193" s="11"/>
     </row>
-    <row r="194" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" ht="15" customHeight="1">
       <c r="A194" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17094,7 +17087,7 @@
       <c r="T194" s="11"/>
       <c r="U194" s="11"/>
     </row>
-    <row r="195" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" ht="15" customHeight="1">
       <c r="A195" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17147,7 +17140,7 @@
       <c r="T195" s="11"/>
       <c r="U195" s="11"/>
     </row>
-    <row r="196" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" ht="15" customHeight="1">
       <c r="A196" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17200,7 +17193,7 @@
       <c r="T196" s="11"/>
       <c r="U196" s="11"/>
     </row>
-    <row r="197" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" ht="15" customHeight="1">
       <c r="A197" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17253,7 +17246,7 @@
       <c r="T197" s="11"/>
       <c r="U197" s="11"/>
     </row>
-    <row r="198" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" ht="15" customHeight="1">
       <c r="A198" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17304,7 +17297,7 @@
       <c r="T198" s="11"/>
       <c r="U198" s="11"/>
     </row>
-    <row r="199" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" ht="15" customHeight="1">
       <c r="A199" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17357,7 +17350,7 @@
       <c r="T199" s="11"/>
       <c r="U199" s="11"/>
     </row>
-    <row r="200" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" ht="15" customHeight="1">
       <c r="A200" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17408,7 +17401,7 @@
       <c r="T200" s="11"/>
       <c r="U200" s="11"/>
     </row>
-    <row r="201" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" ht="15" customHeight="1">
       <c r="A201" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17459,7 +17452,7 @@
       <c r="T201" s="11"/>
       <c r="U201" s="11"/>
     </row>
-    <row r="202" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" ht="15" customHeight="1">
       <c r="A202" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17512,7 +17505,7 @@
       <c r="T202" s="11"/>
       <c r="U202" s="11"/>
     </row>
-    <row r="203" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" ht="15" customHeight="1">
       <c r="A203" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17565,7 +17558,7 @@
       <c r="T203" s="11"/>
       <c r="U203" s="11"/>
     </row>
-    <row r="204" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" ht="15" customHeight="1">
       <c r="A204" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17618,7 +17611,7 @@
       <c r="T204" s="11"/>
       <c r="U204" s="11"/>
     </row>
-    <row r="205" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" ht="15" customHeight="1">
       <c r="A205" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17669,7 +17662,7 @@
       <c r="T205" s="11"/>
       <c r="U205" s="11"/>
     </row>
-    <row r="206" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" ht="15" customHeight="1">
       <c r="A206" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17720,7 +17713,7 @@
       <c r="T206" s="11"/>
       <c r="U206" s="11"/>
     </row>
-    <row r="207" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" ht="15" customHeight="1">
       <c r="A207" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17771,7 +17764,7 @@
       <c r="T207" s="11"/>
       <c r="U207" s="11"/>
     </row>
-    <row r="208" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" ht="15" customHeight="1">
       <c r="A208" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17822,7 +17815,7 @@
       <c r="T208" s="11"/>
       <c r="U208" s="11"/>
     </row>
-    <row r="209" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" ht="15" customHeight="1">
       <c r="A209" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17875,7 +17868,7 @@
       <c r="T209" s="11"/>
       <c r="U209" s="11"/>
     </row>
-    <row r="210" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" ht="15" customHeight="1">
       <c r="A210" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17928,7 +17921,7 @@
       <c r="T210" s="11"/>
       <c r="U210" s="11"/>
     </row>
-    <row r="211" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" ht="15" customHeight="1">
       <c r="A211" s="11" t="s">
         <v>1398</v>
       </c>
@@ -17981,7 +17974,7 @@
       <c r="T211" s="11"/>
       <c r="U211" s="11"/>
     </row>
-    <row r="212" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" ht="15" customHeight="1">
       <c r="A212" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18034,7 +18027,7 @@
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
     </row>
-    <row r="213" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" ht="15" customHeight="1">
       <c r="A213" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18087,7 +18080,7 @@
       <c r="T213" s="11"/>
       <c r="U213" s="11"/>
     </row>
-    <row r="214" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" ht="15" customHeight="1">
       <c r="A214" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18138,7 +18131,7 @@
       <c r="T214" s="11"/>
       <c r="U214" s="11"/>
     </row>
-    <row r="215" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" ht="15" customHeight="1">
       <c r="A215" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18189,7 +18182,7 @@
       <c r="T215" s="11"/>
       <c r="U215" s="11"/>
     </row>
-    <row r="216" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" ht="15" customHeight="1">
       <c r="A216" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18242,7 +18235,7 @@
       <c r="T216" s="11"/>
       <c r="U216" s="11"/>
     </row>
-    <row r="217" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" ht="15" customHeight="1">
       <c r="A217" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18295,7 +18288,7 @@
       <c r="T217" s="11"/>
       <c r="U217" s="11"/>
     </row>
-    <row r="218" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" ht="15" customHeight="1">
       <c r="A218" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18348,7 +18341,7 @@
       <c r="T218" s="11"/>
       <c r="U218" s="11"/>
     </row>
-    <row r="219" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" ht="15" customHeight="1">
       <c r="A219" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18401,7 +18394,7 @@
       <c r="T219" s="11"/>
       <c r="U219" s="11"/>
     </row>
-    <row r="220" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" ht="15" customHeight="1">
       <c r="A220" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18454,7 +18447,7 @@
       <c r="T220" s="11"/>
       <c r="U220" s="11"/>
     </row>
-    <row r="221" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" ht="15" customHeight="1">
       <c r="A221" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18507,7 +18500,7 @@
       <c r="T221" s="11"/>
       <c r="U221" s="11"/>
     </row>
-    <row r="222" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" ht="15" customHeight="1">
       <c r="A222" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18560,7 +18553,7 @@
       <c r="T222" s="11"/>
       <c r="U222" s="11"/>
     </row>
-    <row r="223" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="15" customHeight="1">
       <c r="A223" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18611,7 +18604,7 @@
       <c r="T223" s="11"/>
       <c r="U223" s="11"/>
     </row>
-    <row r="224" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" ht="15" customHeight="1">
       <c r="A224" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18664,7 +18657,7 @@
       <c r="T224" s="11"/>
       <c r="U224" s="11"/>
     </row>
-    <row r="225" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" ht="15" customHeight="1">
       <c r="A225" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18715,7 +18708,7 @@
       <c r="T225" s="11"/>
       <c r="U225" s="11"/>
     </row>
-    <row r="226" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" ht="15" customHeight="1">
       <c r="A226" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18766,7 +18759,7 @@
       <c r="T226" s="11"/>
       <c r="U226" s="11"/>
     </row>
-    <row r="227" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" ht="15" customHeight="1">
       <c r="A227" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18819,7 +18812,7 @@
       <c r="T227" s="11"/>
       <c r="U227" s="11"/>
     </row>
-    <row r="228" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" ht="15" customHeight="1">
       <c r="A228" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18872,7 +18865,7 @@
       <c r="T228" s="11"/>
       <c r="U228" s="11"/>
     </row>
-    <row r="229" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" ht="15" customHeight="1">
       <c r="A229" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18923,7 +18916,7 @@
       <c r="T229" s="11"/>
       <c r="U229" s="11"/>
     </row>
-    <row r="230" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" ht="15" customHeight="1">
       <c r="A230" s="11" t="s">
         <v>1398</v>
       </c>
@@ -18974,7 +18967,7 @@
       <c r="T230" s="11"/>
       <c r="U230" s="11"/>
     </row>
-    <row r="231" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" ht="15" customHeight="1">
       <c r="A231" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19025,7 +19018,7 @@
       <c r="T231" s="11"/>
       <c r="U231" s="11"/>
     </row>
-    <row r="232" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" ht="15" customHeight="1">
       <c r="A232" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19076,7 +19069,7 @@
       <c r="T232" s="11"/>
       <c r="U232" s="11"/>
     </row>
-    <row r="233" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" ht="15" customHeight="1">
       <c r="A233" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19129,7 +19122,7 @@
       <c r="T233" s="11"/>
       <c r="U233" s="11"/>
     </row>
-    <row r="234" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" ht="15" customHeight="1">
       <c r="A234" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19182,7 +19175,7 @@
       <c r="T234" s="11"/>
       <c r="U234" s="11"/>
     </row>
-    <row r="235" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" ht="15" customHeight="1">
       <c r="A235" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19235,7 +19228,7 @@
       <c r="T235" s="11"/>
       <c r="U235" s="11"/>
     </row>
-    <row r="236" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" ht="15" customHeight="1">
       <c r="A236" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19288,7 +19281,7 @@
       <c r="T236" s="11"/>
       <c r="U236" s="11"/>
     </row>
-    <row r="237" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" ht="15" customHeight="1">
       <c r="A237" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19339,7 +19332,7 @@
       <c r="T237" s="11"/>
       <c r="U237" s="11"/>
     </row>
-    <row r="238" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" ht="15" customHeight="1">
       <c r="A238" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19392,7 +19385,7 @@
       <c r="T238" s="11"/>
       <c r="U238" s="11"/>
     </row>
-    <row r="239" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" ht="15" customHeight="1">
       <c r="A239" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19445,7 +19438,7 @@
       <c r="T239" s="11"/>
       <c r="U239" s="11"/>
     </row>
-    <row r="240" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" ht="15" customHeight="1">
       <c r="A240" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19496,7 +19489,7 @@
       <c r="T240" s="11"/>
       <c r="U240" s="11"/>
     </row>
-    <row r="241" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" ht="15" customHeight="1">
       <c r="A241" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19547,7 +19540,7 @@
       <c r="T241" s="11"/>
       <c r="U241" s="11"/>
     </row>
-    <row r="242" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" ht="15" customHeight="1">
       <c r="A242" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19600,7 +19593,7 @@
       <c r="T242" s="11"/>
       <c r="U242" s="11"/>
     </row>
-    <row r="243" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" ht="15" customHeight="1">
       <c r="A243" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19651,7 +19644,7 @@
       <c r="T243" s="11"/>
       <c r="U243" s="11"/>
     </row>
-    <row r="244" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" ht="15" customHeight="1">
       <c r="A244" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19704,7 +19697,7 @@
       <c r="T244" s="11"/>
       <c r="U244" s="11"/>
     </row>
-    <row r="245" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" ht="15" customHeight="1">
       <c r="A245" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19755,7 +19748,7 @@
       <c r="T245" s="11"/>
       <c r="U245" s="11"/>
     </row>
-    <row r="246" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" ht="15" customHeight="1">
       <c r="A246" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19806,7 +19799,7 @@
       <c r="T246" s="11"/>
       <c r="U246" s="11"/>
     </row>
-    <row r="247" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" ht="15" customHeight="1">
       <c r="A247" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19857,7 +19850,7 @@
       <c r="T247" s="11"/>
       <c r="U247" s="11"/>
     </row>
-    <row r="248" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" ht="15" customHeight="1">
       <c r="A248" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19910,7 +19903,7 @@
       <c r="T248" s="11"/>
       <c r="U248" s="11"/>
     </row>
-    <row r="249" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" ht="15" customHeight="1">
       <c r="A249" s="11" t="s">
         <v>1398</v>
       </c>
@@ -19963,7 +19956,7 @@
       <c r="T249" s="11"/>
       <c r="U249" s="11"/>
     </row>
-    <row r="250" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" ht="15" customHeight="1">
       <c r="A250" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20016,7 +20009,7 @@
       <c r="T250" s="11"/>
       <c r="U250" s="11"/>
     </row>
-    <row r="251" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" ht="15" customHeight="1">
       <c r="A251" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20069,7 +20062,7 @@
       <c r="T251" s="11"/>
       <c r="U251" s="11"/>
     </row>
-    <row r="252" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" ht="15" customHeight="1">
       <c r="A252" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20122,7 +20115,7 @@
       <c r="T252" s="11"/>
       <c r="U252" s="11"/>
     </row>
-    <row r="253" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" ht="15" customHeight="1">
       <c r="A253" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20175,7 +20168,7 @@
       <c r="T253" s="11"/>
       <c r="U253" s="11"/>
     </row>
-    <row r="254" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" ht="15" customHeight="1">
       <c r="A254" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20228,7 +20221,7 @@
       <c r="T254" s="11"/>
       <c r="U254" s="11"/>
     </row>
-    <row r="255" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" ht="15" customHeight="1">
       <c r="A255" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20281,7 +20274,7 @@
       <c r="T255" s="11"/>
       <c r="U255" s="11"/>
     </row>
-    <row r="256" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" ht="15" customHeight="1">
       <c r="A256" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20334,7 +20327,7 @@
       <c r="T256" s="11"/>
       <c r="U256" s="11"/>
     </row>
-    <row r="257" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" ht="15" customHeight="1">
       <c r="A257" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20387,7 +20380,7 @@
       <c r="T257" s="11"/>
       <c r="U257" s="11"/>
     </row>
-    <row r="258" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" ht="15" customHeight="1">
       <c r="A258" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20440,7 +20433,7 @@
       <c r="T258" s="11"/>
       <c r="U258" s="11"/>
     </row>
-    <row r="259" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" ht="15" customHeight="1">
       <c r="A259" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20493,7 +20486,7 @@
       <c r="T259" s="11"/>
       <c r="U259" s="11"/>
     </row>
-    <row r="260" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" ht="15" customHeight="1">
       <c r="A260" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20546,7 +20539,7 @@
       <c r="T260" s="11"/>
       <c r="U260" s="11"/>
     </row>
-    <row r="261" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" ht="15" customHeight="1">
       <c r="A261" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20599,7 +20592,7 @@
       <c r="T261" s="11"/>
       <c r="U261" s="11"/>
     </row>
-    <row r="262" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" ht="15" customHeight="1">
       <c r="A262" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20652,7 +20645,7 @@
       <c r="T262" s="11"/>
       <c r="U262" s="11"/>
     </row>
-    <row r="263" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" ht="15" customHeight="1">
       <c r="A263" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20705,7 +20698,7 @@
       <c r="T263" s="11"/>
       <c r="U263" s="11"/>
     </row>
-    <row r="264" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" ht="15" customHeight="1">
       <c r="A264" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20758,7 +20751,7 @@
       <c r="T264" s="11"/>
       <c r="U264" s="11"/>
     </row>
-    <row r="265" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" ht="15" customHeight="1">
       <c r="A265" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20811,7 +20804,7 @@
       <c r="T265" s="11"/>
       <c r="U265" s="11"/>
     </row>
-    <row r="266" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" ht="15" customHeight="1">
       <c r="A266" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20864,7 +20857,7 @@
       <c r="T266" s="11"/>
       <c r="U266" s="11"/>
     </row>
-    <row r="267" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" ht="15" customHeight="1">
       <c r="A267" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20917,7 +20910,7 @@
       <c r="T267" s="11"/>
       <c r="U267" s="11"/>
     </row>
-    <row r="268" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" ht="15" customHeight="1">
       <c r="A268" s="11" t="s">
         <v>1398</v>
       </c>
@@ -20970,7 +20963,7 @@
       <c r="T268" s="11"/>
       <c r="U268" s="11"/>
     </row>
-    <row r="269" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" ht="15" customHeight="1">
       <c r="A269" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21023,7 +21016,7 @@
       <c r="T269" s="11"/>
       <c r="U269" s="11"/>
     </row>
-    <row r="270" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" ht="15" customHeight="1">
       <c r="A270" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21076,7 +21069,7 @@
       <c r="T270" s="11"/>
       <c r="U270" s="11"/>
     </row>
-    <row r="271" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" ht="15" customHeight="1">
       <c r="A271" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21129,7 +21122,7 @@
       <c r="T271" s="11"/>
       <c r="U271" s="11"/>
     </row>
-    <row r="272" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" ht="15" customHeight="1">
       <c r="A272" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21182,7 +21175,7 @@
       <c r="T272" s="11"/>
       <c r="U272" s="11"/>
     </row>
-    <row r="273" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" ht="15" customHeight="1">
       <c r="A273" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21235,7 +21228,7 @@
       <c r="T273" s="11"/>
       <c r="U273" s="11"/>
     </row>
-    <row r="274" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" ht="15" customHeight="1">
       <c r="A274" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21288,7 +21281,7 @@
       <c r="T274" s="11"/>
       <c r="U274" s="11"/>
     </row>
-    <row r="275" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" ht="15" customHeight="1">
       <c r="A275" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21341,7 +21334,7 @@
       <c r="T275" s="11"/>
       <c r="U275" s="11"/>
     </row>
-    <row r="276" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" ht="15" customHeight="1">
       <c r="A276" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21394,7 +21387,7 @@
       <c r="T276" s="11"/>
       <c r="U276" s="11"/>
     </row>
-    <row r="277" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" ht="15" customHeight="1">
       <c r="A277" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21447,7 +21440,7 @@
       <c r="T277" s="11"/>
       <c r="U277" s="11"/>
     </row>
-    <row r="278" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" ht="15" customHeight="1">
       <c r="A278" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21500,7 +21493,7 @@
       <c r="T278" s="11"/>
       <c r="U278" s="11"/>
     </row>
-    <row r="279" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" ht="15" customHeight="1">
       <c r="A279" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21553,7 +21546,7 @@
       <c r="T279" s="11"/>
       <c r="U279" s="11"/>
     </row>
-    <row r="280" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" ht="15" customHeight="1">
       <c r="A280" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21606,7 +21599,7 @@
       <c r="T280" s="11"/>
       <c r="U280" s="11"/>
     </row>
-    <row r="281" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" ht="15" customHeight="1">
       <c r="A281" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21659,7 +21652,7 @@
       <c r="T281" s="11"/>
       <c r="U281" s="11"/>
     </row>
-    <row r="282" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" ht="15" customHeight="1">
       <c r="A282" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21712,7 +21705,7 @@
       <c r="T282" s="11"/>
       <c r="U282" s="11"/>
     </row>
-    <row r="283" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" ht="15" customHeight="1">
       <c r="A283" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21765,7 +21758,7 @@
       <c r="T283" s="11"/>
       <c r="U283" s="11"/>
     </row>
-    <row r="284" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" ht="15" customHeight="1">
       <c r="A284" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21818,7 +21811,7 @@
       <c r="T284" s="11"/>
       <c r="U284" s="11"/>
     </row>
-    <row r="285" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" ht="15" customHeight="1">
       <c r="A285" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21871,7 +21864,7 @@
       <c r="T285" s="11"/>
       <c r="U285" s="11"/>
     </row>
-    <row r="286" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" ht="15" customHeight="1">
       <c r="A286" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21924,7 +21917,7 @@
       <c r="T286" s="11"/>
       <c r="U286" s="11"/>
     </row>
-    <row r="287" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" ht="15" customHeight="1">
       <c r="A287" s="11" t="s">
         <v>1398</v>
       </c>
@@ -21977,7 +21970,7 @@
       <c r="T287" s="11"/>
       <c r="U287" s="11"/>
     </row>
-    <row r="288" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" ht="15" customHeight="1">
       <c r="A288" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22030,7 +22023,7 @@
       <c r="T288" s="11"/>
       <c r="U288" s="11"/>
     </row>
-    <row r="289" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" ht="15" customHeight="1">
       <c r="A289" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22083,7 +22076,7 @@
       <c r="T289" s="11"/>
       <c r="U289" s="11"/>
     </row>
-    <row r="290" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" ht="15" customHeight="1">
       <c r="A290" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22136,7 +22129,7 @@
       <c r="T290" s="11"/>
       <c r="U290" s="11"/>
     </row>
-    <row r="291" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" ht="15" customHeight="1">
       <c r="A291" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22189,7 +22182,7 @@
       <c r="T291" s="11"/>
       <c r="U291" s="11"/>
     </row>
-    <row r="292" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" ht="15" customHeight="1">
       <c r="A292" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22242,7 +22235,7 @@
       <c r="T292" s="11"/>
       <c r="U292" s="11"/>
     </row>
-    <row r="293" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" ht="15" customHeight="1">
       <c r="A293" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22295,7 +22288,7 @@
       <c r="T293" s="11"/>
       <c r="U293" s="11"/>
     </row>
-    <row r="294" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" ht="15" customHeight="1">
       <c r="A294" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22348,7 +22341,7 @@
       <c r="T294" s="11"/>
       <c r="U294" s="11"/>
     </row>
-    <row r="295" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" ht="15" customHeight="1">
       <c r="A295" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22401,7 +22394,7 @@
       <c r="T295" s="11"/>
       <c r="U295" s="11"/>
     </row>
-    <row r="296" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" ht="15" customHeight="1">
       <c r="A296" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22454,7 +22447,7 @@
       <c r="T296" s="11"/>
       <c r="U296" s="11"/>
     </row>
-    <row r="297" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" ht="15" customHeight="1">
       <c r="A297" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22505,7 +22498,7 @@
       <c r="T297" s="11"/>
       <c r="U297" s="11"/>
     </row>
-    <row r="298" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" ht="15" customHeight="1">
       <c r="A298" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22558,7 +22551,7 @@
       <c r="T298" s="11"/>
       <c r="U298" s="11"/>
     </row>
-    <row r="299" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" ht="15" customHeight="1">
       <c r="A299" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22611,7 +22604,7 @@
       <c r="T299" s="11"/>
       <c r="U299" s="11"/>
     </row>
-    <row r="300" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" ht="15" customHeight="1">
       <c r="A300" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22664,7 +22657,7 @@
       <c r="T300" s="11"/>
       <c r="U300" s="11"/>
     </row>
-    <row r="301" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" ht="15" customHeight="1">
       <c r="A301" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22717,7 +22710,7 @@
       <c r="T301" s="11"/>
       <c r="U301" s="11"/>
     </row>
-    <row r="302" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" ht="15" customHeight="1">
       <c r="A302" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22770,7 +22763,7 @@
       <c r="T302" s="11"/>
       <c r="U302" s="11"/>
     </row>
-    <row r="303" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" ht="15" customHeight="1">
       <c r="A303" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22823,7 +22816,7 @@
       <c r="T303" s="11"/>
       <c r="U303" s="11"/>
     </row>
-    <row r="304" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" ht="15" customHeight="1">
       <c r="A304" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22876,7 +22869,7 @@
       <c r="T304" s="11"/>
       <c r="U304" s="11"/>
     </row>
-    <row r="305" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" ht="15" customHeight="1">
       <c r="A305" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22929,7 +22922,7 @@
       <c r="T305" s="11"/>
       <c r="U305" s="11"/>
     </row>
-    <row r="306" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" ht="15" customHeight="1">
       <c r="A306" s="11" t="s">
         <v>1398</v>
       </c>
@@ -22978,7 +22971,7 @@
       <c r="T306" s="11"/>
       <c r="U306" s="11"/>
     </row>
-    <row r="307" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" ht="15" customHeight="1">
       <c r="A307" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23031,7 +23024,7 @@
       <c r="T307" s="11"/>
       <c r="U307" s="11"/>
     </row>
-    <row r="308" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" ht="15" customHeight="1">
       <c r="A308" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23084,7 +23077,7 @@
       <c r="T308" s="11"/>
       <c r="U308" s="11"/>
     </row>
-    <row r="309" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" ht="15" customHeight="1">
       <c r="A309" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23137,7 +23130,7 @@
       <c r="T309" s="11"/>
       <c r="U309" s="11"/>
     </row>
-    <row r="310" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" ht="15" customHeight="1">
       <c r="A310" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23190,7 +23183,7 @@
       <c r="T310" s="11"/>
       <c r="U310" s="11"/>
     </row>
-    <row r="311" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" ht="15" customHeight="1">
       <c r="A311" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23243,7 +23236,7 @@
       <c r="T311" s="11"/>
       <c r="U311" s="11"/>
     </row>
-    <row r="312" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" ht="15" customHeight="1">
       <c r="A312" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23294,7 +23287,7 @@
       <c r="T312" s="11"/>
       <c r="U312" s="11"/>
     </row>
-    <row r="313" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" ht="15" customHeight="1">
       <c r="A313" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23345,7 +23338,7 @@
       <c r="T313" s="11"/>
       <c r="U313" s="11"/>
     </row>
-    <row r="314" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" ht="15" customHeight="1">
       <c r="A314" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23398,7 +23391,7 @@
       <c r="T314" s="11"/>
       <c r="U314" s="11"/>
     </row>
-    <row r="315" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" ht="15" customHeight="1">
       <c r="A315" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23451,7 +23444,7 @@
       <c r="T315" s="11"/>
       <c r="U315" s="11"/>
     </row>
-    <row r="316" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" ht="15" customHeight="1">
       <c r="A316" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23504,7 +23497,7 @@
       <c r="T316" s="11"/>
       <c r="U316" s="11"/>
     </row>
-    <row r="317" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" ht="15" customHeight="1">
       <c r="A317" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23557,7 +23550,7 @@
       <c r="T317" s="11"/>
       <c r="U317" s="11"/>
     </row>
-    <row r="318" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" ht="15" customHeight="1">
       <c r="A318" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23610,7 +23603,7 @@
       <c r="T318" s="11"/>
       <c r="U318" s="11"/>
     </row>
-    <row r="319" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" ht="15" customHeight="1">
       <c r="A319" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23663,7 +23656,7 @@
       <c r="T319" s="11"/>
       <c r="U319" s="11"/>
     </row>
-    <row r="320" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" ht="15" customHeight="1">
       <c r="A320" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23716,7 +23709,7 @@
       <c r="T320" s="11"/>
       <c r="U320" s="11"/>
     </row>
-    <row r="321" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" ht="15" customHeight="1">
       <c r="A321" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23769,7 +23762,7 @@
       <c r="T321" s="11"/>
       <c r="U321" s="11"/>
     </row>
-    <row r="322" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" ht="15" customHeight="1">
       <c r="A322" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23822,7 +23815,7 @@
       <c r="T322" s="11"/>
       <c r="U322" s="11"/>
     </row>
-    <row r="323" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" ht="15" customHeight="1">
       <c r="A323" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23875,7 +23868,7 @@
       <c r="T323" s="11"/>
       <c r="U323" s="11"/>
     </row>
-    <row r="324" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" ht="15" customHeight="1">
       <c r="A324" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23928,7 +23921,7 @@
       <c r="T324" s="11"/>
       <c r="U324" s="11"/>
     </row>
-    <row r="325" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" ht="15" customHeight="1">
       <c r="A325" s="11" t="s">
         <v>1398</v>
       </c>
@@ -23981,7 +23974,7 @@
       <c r="T325" s="11"/>
       <c r="U325" s="11"/>
     </row>
-    <row r="326" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" ht="15" customHeight="1">
       <c r="A326" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24034,7 +24027,7 @@
       <c r="T326" s="11"/>
       <c r="U326" s="11"/>
     </row>
-    <row r="327" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" ht="15" customHeight="1">
       <c r="A327" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24087,7 +24080,7 @@
       <c r="T327" s="11"/>
       <c r="U327" s="11"/>
     </row>
-    <row r="328" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" ht="15" customHeight="1">
       <c r="A328" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24140,7 +24133,7 @@
       <c r="T328" s="11"/>
       <c r="U328" s="11"/>
     </row>
-    <row r="329" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" ht="15" customHeight="1">
       <c r="A329" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24193,7 +24186,7 @@
       <c r="T329" s="11"/>
       <c r="U329" s="11"/>
     </row>
-    <row r="330" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" ht="15" customHeight="1">
       <c r="A330" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24246,7 +24239,7 @@
       <c r="T330" s="11"/>
       <c r="U330" s="11"/>
     </row>
-    <row r="331" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" ht="15" customHeight="1">
       <c r="A331" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24299,7 +24292,7 @@
       <c r="T331" s="11"/>
       <c r="U331" s="11"/>
     </row>
-    <row r="332" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" ht="15" customHeight="1">
       <c r="A332" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24352,7 +24345,7 @@
       <c r="T332" s="11"/>
       <c r="U332" s="11"/>
     </row>
-    <row r="333" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" ht="15" customHeight="1">
       <c r="A333" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24405,7 +24398,7 @@
       <c r="T333" s="11"/>
       <c r="U333" s="11"/>
     </row>
-    <row r="334" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" ht="15" customHeight="1">
       <c r="A334" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24458,7 +24451,7 @@
       <c r="T334" s="11"/>
       <c r="U334" s="11"/>
     </row>
-    <row r="335" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" ht="15" customHeight="1">
       <c r="A335" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24511,7 +24504,7 @@
       <c r="T335" s="11"/>
       <c r="U335" s="11"/>
     </row>
-    <row r="336" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" ht="15" customHeight="1">
       <c r="A336" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24564,7 +24557,7 @@
       <c r="T336" s="11"/>
       <c r="U336" s="11"/>
     </row>
-    <row r="337" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" ht="15" customHeight="1">
       <c r="A337" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24617,7 +24610,7 @@
       <c r="T337" s="11"/>
       <c r="U337" s="11"/>
     </row>
-    <row r="338" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" ht="15" customHeight="1">
       <c r="A338" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24670,7 +24663,7 @@
       <c r="T338" s="11"/>
       <c r="U338" s="11"/>
     </row>
-    <row r="339" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" ht="15" customHeight="1">
       <c r="A339" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24723,7 +24716,7 @@
       <c r="T339" s="11"/>
       <c r="U339" s="11"/>
     </row>
-    <row r="340" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" ht="15" customHeight="1">
       <c r="A340" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24776,7 +24769,7 @@
       <c r="T340" s="11"/>
       <c r="U340" s="11"/>
     </row>
-    <row r="341" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" ht="15" customHeight="1">
       <c r="A341" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24829,7 +24822,7 @@
       <c r="T341" s="11"/>
       <c r="U341" s="11"/>
     </row>
-    <row r="342" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" ht="15" customHeight="1">
       <c r="A342" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24882,7 +24875,7 @@
       <c r="T342" s="11"/>
       <c r="U342" s="11"/>
     </row>
-    <row r="343" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" ht="15" customHeight="1">
       <c r="A343" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24935,7 +24928,7 @@
       <c r="T343" s="11"/>
       <c r="U343" s="11"/>
     </row>
-    <row r="344" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" ht="15" customHeight="1">
       <c r="A344" s="11" t="s">
         <v>1398</v>
       </c>
@@ -24988,7 +24981,7 @@
       <c r="T344" s="11"/>
       <c r="U344" s="11"/>
     </row>
-    <row r="345" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" ht="15" customHeight="1">
       <c r="A345" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25041,7 +25034,7 @@
       <c r="T345" s="11"/>
       <c r="U345" s="11"/>
     </row>
-    <row r="346" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" ht="15" customHeight="1">
       <c r="A346" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25094,7 +25087,7 @@
       <c r="T346" s="11"/>
       <c r="U346" s="11"/>
     </row>
-    <row r="347" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" ht="15" customHeight="1">
       <c r="A347" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25147,7 +25140,7 @@
       <c r="T347" s="11"/>
       <c r="U347" s="11"/>
     </row>
-    <row r="348" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" ht="15" customHeight="1">
       <c r="A348" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25200,7 +25193,7 @@
       <c r="T348" s="11"/>
       <c r="U348" s="11"/>
     </row>
-    <row r="349" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" ht="15" customHeight="1">
       <c r="A349" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25253,7 +25246,7 @@
       <c r="T349" s="11"/>
       <c r="U349" s="11"/>
     </row>
-    <row r="350" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" ht="15" customHeight="1">
       <c r="A350" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25306,7 +25299,7 @@
       <c r="T350" s="11"/>
       <c r="U350" s="11"/>
     </row>
-    <row r="351" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" ht="15" customHeight="1">
       <c r="A351" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25359,7 +25352,7 @@
       <c r="T351" s="11"/>
       <c r="U351" s="11"/>
     </row>
-    <row r="352" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" ht="15" customHeight="1">
       <c r="A352" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25412,7 +25405,7 @@
       <c r="T352" s="11"/>
       <c r="U352" s="11"/>
     </row>
-    <row r="353" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" ht="15" customHeight="1">
       <c r="A353" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25465,7 +25458,7 @@
       <c r="T353" s="11"/>
       <c r="U353" s="11"/>
     </row>
-    <row r="354" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" ht="15" customHeight="1">
       <c r="A354" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25518,7 +25511,7 @@
       <c r="T354" s="11"/>
       <c r="U354" s="11"/>
     </row>
-    <row r="355" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" ht="15" customHeight="1">
       <c r="A355" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25571,7 +25564,7 @@
       <c r="T355" s="11"/>
       <c r="U355" s="11"/>
     </row>
-    <row r="356" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" ht="15" customHeight="1">
       <c r="A356" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25624,7 +25617,7 @@
       <c r="T356" s="11"/>
       <c r="U356" s="11"/>
     </row>
-    <row r="357" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" ht="15" customHeight="1">
       <c r="A357" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25677,7 +25670,7 @@
       <c r="T357" s="11"/>
       <c r="U357" s="11"/>
     </row>
-    <row r="358" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" ht="15" customHeight="1">
       <c r="A358" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25730,7 +25723,7 @@
       <c r="T358" s="11"/>
       <c r="U358" s="11"/>
     </row>
-    <row r="359" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" ht="15" customHeight="1">
       <c r="A359" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25781,7 +25774,7 @@
       <c r="T359" s="11"/>
       <c r="U359" s="11"/>
     </row>
-    <row r="360" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" ht="15" customHeight="1">
       <c r="A360" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25834,7 +25827,7 @@
       <c r="T360" s="11"/>
       <c r="U360" s="11"/>
     </row>
-    <row r="361" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" ht="15" customHeight="1">
       <c r="A361" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25887,7 +25880,7 @@
       <c r="T361" s="11"/>
       <c r="U361" s="11"/>
     </row>
-    <row r="362" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" ht="15" customHeight="1">
       <c r="A362" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25940,7 +25933,7 @@
       <c r="T362" s="11"/>
       <c r="U362" s="11"/>
     </row>
-    <row r="363" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" ht="15" customHeight="1">
       <c r="A363" s="11" t="s">
         <v>1398</v>
       </c>
@@ -25993,7 +25986,7 @@
       <c r="T363" s="11"/>
       <c r="U363" s="11"/>
     </row>
-    <row r="364" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" ht="15" customHeight="1">
       <c r="A364" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26046,7 +26039,7 @@
       <c r="T364" s="11"/>
       <c r="U364" s="11"/>
     </row>
-    <row r="365" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" ht="15" customHeight="1">
       <c r="A365" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26099,7 +26092,7 @@
       <c r="T365" s="11"/>
       <c r="U365" s="11"/>
     </row>
-    <row r="366" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" ht="15" customHeight="1">
       <c r="A366" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26152,7 +26145,7 @@
       <c r="T366" s="11"/>
       <c r="U366" s="11"/>
     </row>
-    <row r="367" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" ht="15" customHeight="1">
       <c r="A367" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26205,7 +26198,7 @@
       <c r="T367" s="11"/>
       <c r="U367" s="11"/>
     </row>
-    <row r="368" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" ht="15" customHeight="1">
       <c r="A368" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26258,7 +26251,7 @@
       <c r="T368" s="11"/>
       <c r="U368" s="11"/>
     </row>
-    <row r="369" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" ht="15" customHeight="1">
       <c r="A369" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26311,7 +26304,7 @@
       <c r="T369" s="11"/>
       <c r="U369" s="11"/>
     </row>
-    <row r="370" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" ht="15" customHeight="1">
       <c r="A370" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26364,7 +26357,7 @@
       <c r="T370" s="11"/>
       <c r="U370" s="11"/>
     </row>
-    <row r="371" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" ht="15" customHeight="1">
       <c r="A371" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26417,7 +26410,7 @@
       <c r="T371" s="11"/>
       <c r="U371" s="11"/>
     </row>
-    <row r="372" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" ht="15" customHeight="1">
       <c r="A372" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26470,7 +26463,7 @@
       <c r="T372" s="11"/>
       <c r="U372" s="11"/>
     </row>
-    <row r="373" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" ht="15" customHeight="1">
       <c r="A373" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26523,7 +26516,7 @@
       <c r="T373" s="11"/>
       <c r="U373" s="11"/>
     </row>
-    <row r="374" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" ht="15" customHeight="1">
       <c r="A374" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26576,7 +26569,7 @@
       <c r="T374" s="11"/>
       <c r="U374" s="11"/>
     </row>
-    <row r="375" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" ht="15" customHeight="1">
       <c r="A375" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26629,7 +26622,7 @@
       <c r="T375" s="11"/>
       <c r="U375" s="11"/>
     </row>
-    <row r="376" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" ht="15" customHeight="1">
       <c r="A376" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26682,7 +26675,7 @@
       <c r="T376" s="11"/>
       <c r="U376" s="11"/>
     </row>
-    <row r="377" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" ht="15" customHeight="1">
       <c r="A377" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26735,7 +26728,7 @@
       <c r="T377" s="11"/>
       <c r="U377" s="11"/>
     </row>
-    <row r="378" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" ht="15" customHeight="1">
       <c r="A378" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26788,7 +26781,7 @@
       <c r="T378" s="11"/>
       <c r="U378" s="11"/>
     </row>
-    <row r="379" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" ht="15" customHeight="1">
       <c r="A379" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26841,7 +26834,7 @@
       <c r="T379" s="11"/>
       <c r="U379" s="11"/>
     </row>
-    <row r="380" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" ht="15" customHeight="1">
       <c r="A380" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26894,7 +26887,7 @@
       <c r="T380" s="11"/>
       <c r="U380" s="11"/>
     </row>
-    <row r="381" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" ht="15" customHeight="1">
       <c r="A381" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26945,7 +26938,7 @@
       <c r="T381" s="11"/>
       <c r="U381" s="11"/>
     </row>
-    <row r="382" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" ht="15" customHeight="1">
       <c r="A382" s="11" t="s">
         <v>1398</v>
       </c>
@@ -26996,7 +26989,7 @@
       <c r="T382" s="11"/>
       <c r="U382" s="11"/>
     </row>
-    <row r="383" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" ht="15" customHeight="1">
       <c r="A383" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27049,7 +27042,7 @@
       <c r="T383" s="11"/>
       <c r="U383" s="11"/>
     </row>
-    <row r="384" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" ht="15" customHeight="1">
       <c r="A384" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27102,7 +27095,7 @@
       <c r="T384" s="11"/>
       <c r="U384" s="11"/>
     </row>
-    <row r="385" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" ht="15" customHeight="1">
       <c r="A385" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27155,7 +27148,7 @@
       <c r="T385" s="11"/>
       <c r="U385" s="11"/>
     </row>
-    <row r="386" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" ht="15" customHeight="1">
       <c r="A386" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27208,7 +27201,7 @@
       <c r="T386" s="11"/>
       <c r="U386" s="11"/>
     </row>
-    <row r="387" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" ht="15" customHeight="1">
       <c r="A387" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27261,7 +27254,7 @@
       <c r="T387" s="11"/>
       <c r="U387" s="11"/>
     </row>
-    <row r="388" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" ht="15" customHeight="1">
       <c r="A388" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27314,7 +27307,7 @@
       <c r="T388" s="11"/>
       <c r="U388" s="11"/>
     </row>
-    <row r="389" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" ht="15" customHeight="1">
       <c r="A389" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27367,7 +27360,7 @@
       <c r="T389" s="11"/>
       <c r="U389" s="11"/>
     </row>
-    <row r="390" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" ht="15" customHeight="1">
       <c r="A390" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27420,7 +27413,7 @@
       <c r="T390" s="11"/>
       <c r="U390" s="11"/>
     </row>
-    <row r="391" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" ht="15" customHeight="1">
       <c r="A391" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27473,7 +27466,7 @@
       <c r="T391" s="11"/>
       <c r="U391" s="11"/>
     </row>
-    <row r="392" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" ht="15" customHeight="1">
       <c r="A392" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27526,7 +27519,7 @@
       <c r="T392" s="11"/>
       <c r="U392" s="11"/>
     </row>
-    <row r="393" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" ht="15" customHeight="1">
       <c r="A393" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27579,7 +27572,7 @@
       <c r="T393" s="11"/>
       <c r="U393" s="11"/>
     </row>
-    <row r="394" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" ht="15" customHeight="1">
       <c r="A394" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27632,7 +27625,7 @@
       <c r="T394" s="11"/>
       <c r="U394" s="11"/>
     </row>
-    <row r="395" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" ht="15" customHeight="1">
       <c r="A395" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27685,7 +27678,7 @@
       <c r="T395" s="11"/>
       <c r="U395" s="11"/>
     </row>
-    <row r="396" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" ht="15" customHeight="1">
       <c r="A396" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27738,7 +27731,7 @@
       <c r="T396" s="11"/>
       <c r="U396" s="11"/>
     </row>
-    <row r="397" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" ht="15" customHeight="1">
       <c r="A397" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27791,7 +27784,7 @@
       <c r="T397" s="11"/>
       <c r="U397" s="11"/>
     </row>
-    <row r="398" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" ht="15" customHeight="1">
       <c r="A398" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27844,7 +27837,7 @@
       <c r="T398" s="11"/>
       <c r="U398" s="11"/>
     </row>
-    <row r="399" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" ht="15" customHeight="1">
       <c r="A399" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27897,7 +27890,7 @@
       <c r="T399" s="11"/>
       <c r="U399" s="11"/>
     </row>
-    <row r="400" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" ht="15" customHeight="1">
       <c r="A400" s="11" t="s">
         <v>1398</v>
       </c>
@@ -27950,7 +27943,7 @@
       <c r="T400" s="11"/>
       <c r="U400" s="11"/>
     </row>
-    <row r="401" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" ht="15" customHeight="1">
       <c r="A401" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28003,7 +27996,7 @@
       <c r="T401" s="11"/>
       <c r="U401" s="11"/>
     </row>
-    <row r="402" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" ht="15" customHeight="1">
       <c r="A402" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28056,7 +28049,7 @@
       <c r="T402" s="11"/>
       <c r="U402" s="11"/>
     </row>
-    <row r="403" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" ht="15" customHeight="1">
       <c r="A403" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28107,7 +28100,7 @@
       <c r="T403" s="11"/>
       <c r="U403" s="11"/>
     </row>
-    <row r="404" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" ht="15" customHeight="1">
       <c r="A404" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28158,7 +28151,7 @@
       <c r="T404" s="11"/>
       <c r="U404" s="11"/>
     </row>
-    <row r="405" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" ht="15" customHeight="1">
       <c r="A405" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28209,7 +28202,7 @@
       <c r="T405" s="11"/>
       <c r="U405" s="11"/>
     </row>
-    <row r="406" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" ht="15" customHeight="1">
       <c r="A406" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28260,7 +28253,7 @@
       <c r="T406" s="11"/>
       <c r="U406" s="11"/>
     </row>
-    <row r="407" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" ht="15" customHeight="1">
       <c r="A407" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28311,7 +28304,7 @@
       <c r="T407" s="11"/>
       <c r="U407" s="11"/>
     </row>
-    <row r="408" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" ht="15" customHeight="1">
       <c r="A408" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28362,7 +28355,7 @@
       <c r="T408" s="11"/>
       <c r="U408" s="11"/>
     </row>
-    <row r="409" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" ht="15" customHeight="1">
       <c r="A409" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28415,7 +28408,7 @@
       <c r="T409" s="11"/>
       <c r="U409" s="11"/>
     </row>
-    <row r="410" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" ht="15" customHeight="1">
       <c r="A410" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28468,7 +28461,7 @@
       <c r="T410" s="11"/>
       <c r="U410" s="11"/>
     </row>
-    <row r="411" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" ht="15" customHeight="1">
       <c r="A411" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28521,7 +28514,7 @@
       <c r="T411" s="11"/>
       <c r="U411" s="11"/>
     </row>
-    <row r="412" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" ht="15" customHeight="1">
       <c r="A412" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28574,7 +28567,7 @@
       <c r="T412" s="11"/>
       <c r="U412" s="11"/>
     </row>
-    <row r="413" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" ht="15" customHeight="1">
       <c r="A413" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28627,7 +28620,7 @@
       <c r="T413" s="11"/>
       <c r="U413" s="11"/>
     </row>
-    <row r="414" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" ht="15" customHeight="1">
       <c r="A414" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28680,7 +28673,7 @@
       <c r="T414" s="11"/>
       <c r="U414" s="11"/>
     </row>
-    <row r="415" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" ht="15" customHeight="1">
       <c r="A415" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28733,7 +28726,7 @@
       <c r="T415" s="11"/>
       <c r="U415" s="11"/>
     </row>
-    <row r="416" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" ht="15" customHeight="1">
       <c r="A416" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28786,7 +28779,7 @@
       <c r="T416" s="11"/>
       <c r="U416" s="11"/>
     </row>
-    <row r="417" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" ht="15" customHeight="1">
       <c r="A417" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28839,7 +28832,7 @@
       <c r="T417" s="11"/>
       <c r="U417" s="11"/>
     </row>
-    <row r="418" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" ht="15" customHeight="1">
       <c r="A418" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28892,7 +28885,7 @@
       <c r="T418" s="11"/>
       <c r="U418" s="11"/>
     </row>
-    <row r="419" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" ht="15" customHeight="1">
       <c r="A419" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28945,7 +28938,7 @@
       <c r="T419" s="11"/>
       <c r="U419" s="11"/>
     </row>
-    <row r="420" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" ht="15" customHeight="1">
       <c r="A420" s="11" t="s">
         <v>1398</v>
       </c>
@@ -28998,7 +28991,7 @@
       <c r="T420" s="11"/>
       <c r="U420" s="11"/>
     </row>
-    <row r="421" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" ht="15" hidden="1" customHeight="1">
       <c r="A421" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29053,7 +29046,7 @@
       <c r="T421" s="11"/>
       <c r="U421" s="11"/>
     </row>
-    <row r="422" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" ht="15" hidden="1" customHeight="1">
       <c r="A422" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29108,7 +29101,7 @@
       <c r="T422" s="11"/>
       <c r="U422" s="11"/>
     </row>
-    <row r="423" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" ht="15" customHeight="1">
       <c r="A423" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29161,7 +29154,7 @@
       <c r="T423" s="11"/>
       <c r="U423" s="11"/>
     </row>
-    <row r="424" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" ht="15" customHeight="1">
       <c r="A424" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29214,7 +29207,7 @@
       <c r="T424" s="11"/>
       <c r="U424" s="11"/>
     </row>
-    <row r="425" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" ht="15" customHeight="1">
       <c r="A425" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29267,7 +29260,7 @@
       <c r="T425" s="11"/>
       <c r="U425" s="11"/>
     </row>
-    <row r="426" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" ht="15" customHeight="1">
       <c r="A426" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29320,7 +29313,7 @@
       <c r="T426" s="11"/>
       <c r="U426" s="11"/>
     </row>
-    <row r="427" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" ht="15" customHeight="1">
       <c r="A427" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29373,7 +29366,7 @@
       <c r="T427" s="11"/>
       <c r="U427" s="11"/>
     </row>
-    <row r="428" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" ht="15" customHeight="1">
       <c r="A428" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29426,7 +29419,7 @@
       <c r="T428" s="11"/>
       <c r="U428" s="11"/>
     </row>
-    <row r="429" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" ht="15" customHeight="1">
       <c r="A429" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29479,7 +29472,7 @@
       <c r="T429" s="11"/>
       <c r="U429" s="11"/>
     </row>
-    <row r="430" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" ht="15" customHeight="1">
       <c r="A430" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29532,7 +29525,7 @@
       <c r="T430" s="11"/>
       <c r="U430" s="11"/>
     </row>
-    <row r="431" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" ht="15" customHeight="1">
       <c r="A431" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29585,7 +29578,7 @@
       <c r="T431" s="11"/>
       <c r="U431" s="11"/>
     </row>
-    <row r="432" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" ht="15" customHeight="1">
       <c r="A432" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29638,7 +29631,7 @@
       <c r="T432" s="11"/>
       <c r="U432" s="11"/>
     </row>
-    <row r="433" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" ht="15" customHeight="1">
       <c r="A433" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29691,7 +29684,7 @@
       <c r="T433" s="11"/>
       <c r="U433" s="11"/>
     </row>
-    <row r="434" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" ht="15" customHeight="1">
       <c r="A434" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29744,7 +29737,7 @@
       <c r="T434" s="11"/>
       <c r="U434" s="11"/>
     </row>
-    <row r="435" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" ht="15" customHeight="1">
       <c r="A435" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29797,7 +29790,7 @@
       <c r="T435" s="11"/>
       <c r="U435" s="11"/>
     </row>
-    <row r="436" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" ht="15" customHeight="1">
       <c r="A436" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29850,7 +29843,7 @@
       <c r="T436" s="11"/>
       <c r="U436" s="11"/>
     </row>
-    <row r="437" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" ht="15" customHeight="1">
       <c r="A437" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29903,7 +29896,7 @@
       <c r="T437" s="11"/>
       <c r="U437" s="11"/>
     </row>
-    <row r="438" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" ht="15" customHeight="1">
       <c r="A438" s="11" t="s">
         <v>1398</v>
       </c>
@@ -29956,7 +29949,7 @@
       <c r="T438" s="11"/>
       <c r="U438" s="11"/>
     </row>
-    <row r="439" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" ht="15" customHeight="1">
       <c r="A439" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30009,7 +30002,7 @@
       <c r="T439" s="11"/>
       <c r="U439" s="11"/>
     </row>
-    <row r="440" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" ht="15" customHeight="1">
       <c r="A440" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30062,7 +30055,7 @@
       <c r="T440" s="11"/>
       <c r="U440" s="11"/>
     </row>
-    <row r="441" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" ht="15" customHeight="1">
       <c r="A441" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30115,7 +30108,7 @@
       <c r="T441" s="11"/>
       <c r="U441" s="11"/>
     </row>
-    <row r="442" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" ht="15" customHeight="1">
       <c r="A442" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30168,7 +30161,7 @@
       <c r="T442" s="11"/>
       <c r="U442" s="11"/>
     </row>
-    <row r="443" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" ht="15" customHeight="1">
       <c r="A443" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30221,7 +30214,7 @@
       <c r="T443" s="11"/>
       <c r="U443" s="11"/>
     </row>
-    <row r="444" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" ht="15" customHeight="1">
       <c r="A444" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30274,7 +30267,7 @@
       <c r="T444" s="11"/>
       <c r="U444" s="11"/>
     </row>
-    <row r="445" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" ht="15" customHeight="1">
       <c r="A445" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30327,7 +30320,7 @@
       <c r="T445" s="11"/>
       <c r="U445" s="11"/>
     </row>
-    <row r="446" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" ht="15" customHeight="1">
       <c r="A446" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30380,7 +30373,7 @@
       <c r="T446" s="11"/>
       <c r="U446" s="11"/>
     </row>
-    <row r="447" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" ht="15" customHeight="1">
       <c r="A447" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30433,7 +30426,7 @@
       <c r="T447" s="11"/>
       <c r="U447" s="11"/>
     </row>
-    <row r="448" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" ht="15" customHeight="1">
       <c r="A448" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30486,7 +30479,7 @@
       <c r="T448" s="11"/>
       <c r="U448" s="11"/>
     </row>
-    <row r="449" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" ht="15" customHeight="1">
       <c r="A449" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30539,7 +30532,7 @@
       <c r="T449" s="11"/>
       <c r="U449" s="11"/>
     </row>
-    <row r="450" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" ht="15" customHeight="1">
       <c r="A450" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30592,7 +30585,7 @@
       <c r="T450" s="11"/>
       <c r="U450" s="11"/>
     </row>
-    <row r="451" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" ht="15" customHeight="1">
       <c r="A451" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30645,7 +30638,7 @@
       <c r="T451" s="11"/>
       <c r="U451" s="11"/>
     </row>
-    <row r="452" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" ht="15" customHeight="1">
       <c r="A452" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30698,7 +30691,7 @@
       <c r="T452" s="11"/>
       <c r="U452" s="11"/>
     </row>
-    <row r="453" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" ht="15" customHeight="1">
       <c r="A453" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30751,7 +30744,7 @@
       <c r="T453" s="11"/>
       <c r="U453" s="11"/>
     </row>
-    <row r="454" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" ht="15" customHeight="1">
       <c r="A454" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30804,7 +30797,7 @@
       <c r="T454" s="11"/>
       <c r="U454" s="11"/>
     </row>
-    <row r="455" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" ht="15" customHeight="1">
       <c r="A455" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30857,7 +30850,7 @@
       <c r="T455" s="11"/>
       <c r="U455" s="11"/>
     </row>
-    <row r="456" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" ht="15" customHeight="1">
       <c r="A456" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30910,7 +30903,7 @@
       <c r="T456" s="11"/>
       <c r="U456" s="11"/>
     </row>
-    <row r="457" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" ht="15" customHeight="1">
       <c r="A457" s="11" t="s">
         <v>1398</v>
       </c>
@@ -30963,7 +30956,7 @@
       <c r="T457" s="11"/>
       <c r="U457" s="11"/>
     </row>
-    <row r="458" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" ht="15" customHeight="1">
       <c r="A458" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31016,7 +31009,7 @@
       <c r="T458" s="11"/>
       <c r="U458" s="11"/>
     </row>
-    <row r="459" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" ht="15" customHeight="1">
       <c r="A459" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31069,7 +31062,7 @@
       <c r="T459" s="11"/>
       <c r="U459" s="11"/>
     </row>
-    <row r="460" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" ht="15" customHeight="1">
       <c r="A460" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31122,7 +31115,7 @@
       <c r="T460" s="11"/>
       <c r="U460" s="11"/>
     </row>
-    <row r="461" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" ht="15" customHeight="1">
       <c r="A461" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31175,7 +31168,7 @@
       <c r="T461" s="11"/>
       <c r="U461" s="11"/>
     </row>
-    <row r="462" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" ht="15" customHeight="1">
       <c r="A462" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31228,7 +31221,7 @@
       <c r="T462" s="11"/>
       <c r="U462" s="11"/>
     </row>
-    <row r="463" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" ht="15" customHeight="1">
       <c r="A463" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31281,7 +31274,7 @@
       <c r="T463" s="11"/>
       <c r="U463" s="11"/>
     </row>
-    <row r="464" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" ht="15" customHeight="1">
       <c r="A464" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31334,7 +31327,7 @@
       <c r="T464" s="11"/>
       <c r="U464" s="11"/>
     </row>
-    <row r="465" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" ht="15" customHeight="1">
       <c r="A465" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31387,7 +31380,7 @@
       <c r="T465" s="11"/>
       <c r="U465" s="11"/>
     </row>
-    <row r="466" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" ht="15" customHeight="1">
       <c r="A466" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31440,7 +31433,7 @@
       <c r="T466" s="11"/>
       <c r="U466" s="11"/>
     </row>
-    <row r="467" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" ht="15" customHeight="1">
       <c r="A467" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31493,7 +31486,7 @@
       <c r="T467" s="11"/>
       <c r="U467" s="11"/>
     </row>
-    <row r="468" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" ht="15" customHeight="1">
       <c r="A468" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31546,7 +31539,7 @@
       <c r="T468" s="11"/>
       <c r="U468" s="11"/>
     </row>
-    <row r="469" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" ht="15" customHeight="1">
       <c r="A469" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31599,7 +31592,7 @@
       <c r="T469" s="11"/>
       <c r="U469" s="11"/>
     </row>
-    <row r="470" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" ht="15" customHeight="1">
       <c r="A470" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31652,7 +31645,7 @@
       <c r="T470" s="11"/>
       <c r="U470" s="11"/>
     </row>
-    <row r="471" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" ht="15" customHeight="1">
       <c r="A471" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31705,7 +31698,7 @@
       <c r="T471" s="11"/>
       <c r="U471" s="11"/>
     </row>
-    <row r="472" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" ht="15" customHeight="1">
       <c r="A472" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31758,7 +31751,7 @@
       <c r="T472" s="11"/>
       <c r="U472" s="11"/>
     </row>
-    <row r="473" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" ht="15" customHeight="1">
       <c r="A473" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31811,7 +31804,7 @@
       <c r="T473" s="11"/>
       <c r="U473" s="11"/>
     </row>
-    <row r="474" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" ht="15" customHeight="1">
       <c r="A474" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31864,7 +31857,7 @@
       <c r="T474" s="11"/>
       <c r="U474" s="11"/>
     </row>
-    <row r="475" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" ht="15" customHeight="1">
       <c r="A475" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31917,7 +31910,7 @@
       <c r="T475" s="11"/>
       <c r="U475" s="11"/>
     </row>
-    <row r="476" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" ht="15" customHeight="1">
       <c r="A476" s="11" t="s">
         <v>1398</v>
       </c>
@@ -31970,7 +31963,7 @@
       <c r="T476" s="11"/>
       <c r="U476" s="11"/>
     </row>
-    <row r="477" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21" ht="15" customHeight="1">
       <c r="A477" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32023,7 +32016,7 @@
       <c r="T477" s="11"/>
       <c r="U477" s="11"/>
     </row>
-    <row r="478" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" ht="15" customHeight="1">
       <c r="A478" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32074,7 +32067,7 @@
       <c r="T478" s="11"/>
       <c r="U478" s="11"/>
     </row>
-    <row r="479" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" ht="15" customHeight="1">
       <c r="A479" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32125,7 +32118,7 @@
       <c r="T479" s="11"/>
       <c r="U479" s="11"/>
     </row>
-    <row r="480" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" ht="15" customHeight="1">
       <c r="A480" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32176,7 +32169,7 @@
       <c r="T480" s="11"/>
       <c r="U480" s="11"/>
     </row>
-    <row r="481" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" ht="15" customHeight="1">
       <c r="A481" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32227,7 +32220,7 @@
       <c r="T481" s="11"/>
       <c r="U481" s="11"/>
     </row>
-    <row r="482" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" ht="15" customHeight="1">
       <c r="A482" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32278,7 +32271,7 @@
       <c r="T482" s="11"/>
       <c r="U482" s="11"/>
     </row>
-    <row r="483" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" ht="15" customHeight="1">
       <c r="A483" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32329,7 +32322,7 @@
       <c r="T483" s="11"/>
       <c r="U483" s="11"/>
     </row>
-    <row r="484" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" ht="15" customHeight="1">
       <c r="A484" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32380,7 +32373,7 @@
       <c r="T484" s="11"/>
       <c r="U484" s="11"/>
     </row>
-    <row r="485" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" ht="15" customHeight="1">
       <c r="A485" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32431,7 +32424,7 @@
       <c r="T485" s="11"/>
       <c r="U485" s="11"/>
     </row>
-    <row r="486" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" ht="15" customHeight="1">
       <c r="A486" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32482,7 +32475,7 @@
       <c r="T486" s="11"/>
       <c r="U486" s="11"/>
     </row>
-    <row r="487" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" ht="15" customHeight="1">
       <c r="A487" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32533,7 +32526,7 @@
       <c r="T487" s="11"/>
       <c r="U487" s="11"/>
     </row>
-    <row r="488" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21" ht="15" customHeight="1">
       <c r="A488" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32584,7 +32577,7 @@
       <c r="T488" s="11"/>
       <c r="U488" s="11"/>
     </row>
-    <row r="489" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" ht="15" customHeight="1">
       <c r="A489" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32635,7 +32628,7 @@
       <c r="T489" s="11"/>
       <c r="U489" s="11"/>
     </row>
-    <row r="490" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21" ht="15" customHeight="1">
       <c r="A490" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32686,7 +32679,7 @@
       <c r="T490" s="11"/>
       <c r="U490" s="11"/>
     </row>
-    <row r="491" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" ht="15" customHeight="1">
       <c r="A491" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32737,7 +32730,7 @@
       <c r="T491" s="11"/>
       <c r="U491" s="11"/>
     </row>
-    <row r="492" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" ht="15" customHeight="1">
       <c r="A492" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32788,7 +32781,7 @@
       <c r="T492" s="11"/>
       <c r="U492" s="11"/>
     </row>
-    <row r="493" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" ht="15" customHeight="1">
       <c r="A493" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32839,7 +32832,7 @@
       <c r="T493" s="11"/>
       <c r="U493" s="11"/>
     </row>
-    <row r="494" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" ht="15" customHeight="1">
       <c r="A494" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32890,7 +32883,7 @@
       <c r="T494" s="11"/>
       <c r="U494" s="11"/>
     </row>
-    <row r="495" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" ht="15" customHeight="1">
       <c r="A495" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32943,7 +32936,7 @@
       <c r="T495" s="11"/>
       <c r="U495" s="11"/>
     </row>
-    <row r="496" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" ht="15" customHeight="1">
       <c r="A496" s="11" t="s">
         <v>1398</v>
       </c>
@@ -32996,7 +32989,7 @@
       <c r="T496" s="11"/>
       <c r="U496" s="11"/>
     </row>
-    <row r="497" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" ht="15" customHeight="1">
       <c r="A497" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33049,7 +33042,7 @@
       <c r="T497" s="11"/>
       <c r="U497" s="11"/>
     </row>
-    <row r="498" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" ht="15" customHeight="1">
       <c r="A498" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33102,7 +33095,7 @@
       <c r="T498" s="11"/>
       <c r="U498" s="11"/>
     </row>
-    <row r="499" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" ht="15" customHeight="1">
       <c r="A499" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33155,7 +33148,7 @@
       <c r="T499" s="11"/>
       <c r="U499" s="11"/>
     </row>
-    <row r="500" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" ht="15" customHeight="1">
       <c r="A500" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33208,7 +33201,7 @@
       <c r="T500" s="11"/>
       <c r="U500" s="11"/>
     </row>
-    <row r="501" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" ht="15" customHeight="1">
       <c r="A501" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33261,7 +33254,7 @@
       <c r="T501" s="11"/>
       <c r="U501" s="11"/>
     </row>
-    <row r="502" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" ht="15" customHeight="1">
       <c r="A502" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33314,7 +33307,7 @@
       <c r="T502" s="11"/>
       <c r="U502" s="11"/>
     </row>
-    <row r="503" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" ht="15" customHeight="1">
       <c r="A503" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33367,7 +33360,7 @@
       <c r="T503" s="11"/>
       <c r="U503" s="11"/>
     </row>
-    <row r="504" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" ht="15" customHeight="1">
       <c r="A504" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33420,7 +33413,7 @@
       <c r="T504" s="11"/>
       <c r="U504" s="11"/>
     </row>
-    <row r="505" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" ht="15" customHeight="1">
       <c r="A505" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33473,7 +33466,7 @@
       <c r="T505" s="11"/>
       <c r="U505" s="11"/>
     </row>
-    <row r="506" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" ht="15" customHeight="1">
       <c r="A506" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33526,7 +33519,7 @@
       <c r="T506" s="11"/>
       <c r="U506" s="11"/>
     </row>
-    <row r="507" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" ht="15" customHeight="1">
       <c r="A507" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33579,7 +33572,7 @@
       <c r="T507" s="11"/>
       <c r="U507" s="11"/>
     </row>
-    <row r="508" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" ht="15" customHeight="1">
       <c r="A508" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33632,7 +33625,7 @@
       <c r="T508" s="11"/>
       <c r="U508" s="11"/>
     </row>
-    <row r="509" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" ht="15" customHeight="1">
       <c r="A509" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33685,7 +33678,7 @@
       <c r="T509" s="11"/>
       <c r="U509" s="11"/>
     </row>
-    <row r="510" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" ht="15" customHeight="1">
       <c r="A510" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33738,7 +33731,7 @@
       <c r="T510" s="11"/>
       <c r="U510" s="11"/>
     </row>
-    <row r="511" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" ht="15" customHeight="1">
       <c r="A511" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33791,7 +33784,7 @@
       <c r="T511" s="11"/>
       <c r="U511" s="11"/>
     </row>
-    <row r="512" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" ht="15" customHeight="1">
       <c r="A512" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33844,7 +33837,7 @@
       <c r="T512" s="11"/>
       <c r="U512" s="11"/>
     </row>
-    <row r="513" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" ht="15" customHeight="1">
       <c r="A513" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33897,7 +33890,7 @@
       <c r="T513" s="11"/>
       <c r="U513" s="11"/>
     </row>
-    <row r="514" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" ht="15" customHeight="1">
       <c r="A514" s="11" t="s">
         <v>1398</v>
       </c>
@@ -33950,7 +33943,7 @@
       <c r="T514" s="11"/>
       <c r="U514" s="11"/>
     </row>
-    <row r="515" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" ht="15" customHeight="1">
       <c r="A515" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34003,7 +33996,7 @@
       <c r="T515" s="11"/>
       <c r="U515" s="11"/>
     </row>
-    <row r="516" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" ht="15" customHeight="1">
       <c r="A516" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34056,7 +34049,7 @@
       <c r="T516" s="11"/>
       <c r="U516" s="11"/>
     </row>
-    <row r="517" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" ht="15" customHeight="1">
       <c r="A517" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34109,7 +34102,7 @@
       <c r="T517" s="11"/>
       <c r="U517" s="11"/>
     </row>
-    <row r="518" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" ht="15" customHeight="1">
       <c r="A518" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34162,7 +34155,7 @@
       <c r="T518" s="11"/>
       <c r="U518" s="11"/>
     </row>
-    <row r="519" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" ht="15" customHeight="1">
       <c r="A519" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34213,7 +34206,7 @@
       <c r="T519" s="11"/>
       <c r="U519" s="11"/>
     </row>
-    <row r="520" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" ht="15" customHeight="1">
       <c r="A520" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34264,7 +34257,7 @@
       <c r="T520" s="11"/>
       <c r="U520" s="11"/>
     </row>
-    <row r="521" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" ht="15" customHeight="1">
       <c r="A521" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34317,7 +34310,7 @@
       <c r="T521" s="11"/>
       <c r="U521" s="11"/>
     </row>
-    <row r="522" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" ht="15" customHeight="1">
       <c r="A522" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34370,7 +34363,7 @@
       <c r="T522" s="11"/>
       <c r="U522" s="11"/>
     </row>
-    <row r="523" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" ht="15" customHeight="1">
       <c r="A523" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34423,7 +34416,7 @@
       <c r="T523" s="11"/>
       <c r="U523" s="11"/>
     </row>
-    <row r="524" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" ht="15" customHeight="1">
       <c r="A524" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34476,7 +34469,7 @@
       <c r="T524" s="11"/>
       <c r="U524" s="11"/>
     </row>
-    <row r="525" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" ht="15" customHeight="1">
       <c r="A525" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34529,7 +34522,7 @@
       <c r="T525" s="11"/>
       <c r="U525" s="11"/>
     </row>
-    <row r="526" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" ht="15" customHeight="1">
       <c r="A526" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34582,7 +34575,7 @@
       <c r="T526" s="11"/>
       <c r="U526" s="11"/>
     </row>
-    <row r="527" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" ht="15" customHeight="1">
       <c r="A527" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34633,7 +34626,7 @@
       <c r="T527" s="11"/>
       <c r="U527" s="11"/>
     </row>
-    <row r="528" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" ht="15" customHeight="1">
       <c r="A528" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34686,7 +34679,7 @@
       <c r="T528" s="11"/>
       <c r="U528" s="11"/>
     </row>
-    <row r="529" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" ht="15" customHeight="1">
       <c r="A529" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34739,7 +34732,7 @@
       <c r="T529" s="11"/>
       <c r="U529" s="11"/>
     </row>
-    <row r="530" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" ht="15" customHeight="1">
       <c r="A530" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34792,7 +34785,7 @@
       <c r="T530" s="11"/>
       <c r="U530" s="11"/>
     </row>
-    <row r="531" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" ht="15" customHeight="1">
       <c r="A531" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34845,7 +34838,7 @@
       <c r="T531" s="11"/>
       <c r="U531" s="11"/>
     </row>
-    <row r="532" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" ht="15" customHeight="1">
       <c r="A532" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34896,7 +34889,7 @@
       <c r="T532" s="11"/>
       <c r="U532" s="11"/>
     </row>
-    <row r="533" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" ht="15" customHeight="1">
       <c r="A533" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34947,7 +34940,7 @@
       <c r="T533" s="11"/>
       <c r="U533" s="11"/>
     </row>
-    <row r="534" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21" ht="15" customHeight="1">
       <c r="A534" s="11" t="s">
         <v>1398</v>
       </c>
@@ -34998,7 +34991,7 @@
       <c r="T534" s="11"/>
       <c r="U534" s="11"/>
     </row>
-    <row r="535" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" ht="15" customHeight="1">
       <c r="A535" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35051,7 +35044,7 @@
       <c r="T535" s="11"/>
       <c r="U535" s="11"/>
     </row>
-    <row r="536" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21" ht="15" customHeight="1">
       <c r="A536" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35104,7 +35097,7 @@
       <c r="T536" s="11"/>
       <c r="U536" s="11"/>
     </row>
-    <row r="537" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" ht="15" customHeight="1">
       <c r="A537" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35157,7 +35150,7 @@
       <c r="T537" s="11"/>
       <c r="U537" s="11"/>
     </row>
-    <row r="538" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" ht="15" customHeight="1">
       <c r="A538" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35210,7 +35203,7 @@
       <c r="T538" s="11"/>
       <c r="U538" s="11"/>
     </row>
-    <row r="539" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" ht="15" customHeight="1">
       <c r="A539" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35263,7 +35256,7 @@
       <c r="T539" s="11"/>
       <c r="U539" s="11"/>
     </row>
-    <row r="540" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" ht="15" customHeight="1">
       <c r="A540" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35316,7 +35309,7 @@
       <c r="T540" s="11"/>
       <c r="U540" s="11"/>
     </row>
-    <row r="541" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" ht="15" customHeight="1">
       <c r="A541" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35369,7 +35362,7 @@
       <c r="T541" s="11"/>
       <c r="U541" s="11"/>
     </row>
-    <row r="542" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" ht="15" customHeight="1">
       <c r="A542" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35422,7 +35415,7 @@
       <c r="T542" s="11"/>
       <c r="U542" s="11"/>
     </row>
-    <row r="543" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" ht="15" customHeight="1">
       <c r="A543" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35475,7 +35468,7 @@
       <c r="T543" s="11"/>
       <c r="U543" s="11"/>
     </row>
-    <row r="544" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" ht="15" customHeight="1">
       <c r="A544" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35528,7 +35521,7 @@
       <c r="T544" s="11"/>
       <c r="U544" s="11"/>
     </row>
-    <row r="545" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" ht="15" customHeight="1">
       <c r="A545" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35581,7 +35574,7 @@
       <c r="T545" s="11"/>
       <c r="U545" s="11"/>
     </row>
-    <row r="546" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" ht="15" customHeight="1">
       <c r="A546" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35634,7 +35627,7 @@
       <c r="T546" s="11"/>
       <c r="U546" s="11"/>
     </row>
-    <row r="547" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" ht="15" customHeight="1">
       <c r="A547" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35687,7 +35680,7 @@
       <c r="T547" s="11"/>
       <c r="U547" s="11"/>
     </row>
-    <row r="548" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21" ht="15" customHeight="1">
       <c r="A548" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35740,7 +35733,7 @@
       <c r="T548" s="11"/>
       <c r="U548" s="11"/>
     </row>
-    <row r="549" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" ht="15" customHeight="1">
       <c r="A549" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35793,7 +35786,7 @@
       <c r="T549" s="11"/>
       <c r="U549" s="11"/>
     </row>
-    <row r="550" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" ht="15" customHeight="1">
       <c r="A550" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35846,7 +35839,7 @@
       <c r="T550" s="11"/>
       <c r="U550" s="11"/>
     </row>
-    <row r="551" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" ht="15" customHeight="1">
       <c r="A551" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35899,7 +35892,7 @@
       <c r="T551" s="11"/>
       <c r="U551" s="11"/>
     </row>
-    <row r="552" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21" ht="15" customHeight="1">
       <c r="A552" s="11" t="s">
         <v>1398</v>
       </c>
@@ -35952,7 +35945,7 @@
       <c r="T552" s="11"/>
       <c r="U552" s="11"/>
     </row>
-    <row r="553" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" ht="15" customHeight="1">
       <c r="A553" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36005,7 +35998,7 @@
       <c r="T553" s="11"/>
       <c r="U553" s="11"/>
     </row>
-    <row r="554" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" ht="15" customHeight="1">
       <c r="A554" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36058,7 +36051,7 @@
       <c r="T554" s="11"/>
       <c r="U554" s="11"/>
     </row>
-    <row r="555" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" ht="15" customHeight="1">
       <c r="A555" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36111,7 +36104,7 @@
       <c r="T555" s="11"/>
       <c r="U555" s="11"/>
     </row>
-    <row r="556" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21" ht="15" customHeight="1">
       <c r="A556" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36164,7 +36157,7 @@
       <c r="T556" s="11"/>
       <c r="U556" s="11"/>
     </row>
-    <row r="557" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" ht="15" customHeight="1">
       <c r="A557" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36217,7 +36210,7 @@
       <c r="T557" s="11"/>
       <c r="U557" s="11"/>
     </row>
-    <row r="558" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" ht="15" customHeight="1">
       <c r="A558" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36268,7 +36261,7 @@
       <c r="T558" s="11"/>
       <c r="U558" s="11"/>
     </row>
-    <row r="559" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" ht="15" customHeight="1">
       <c r="A559" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36319,7 +36312,7 @@
       <c r="T559" s="11"/>
       <c r="U559" s="11"/>
     </row>
-    <row r="560" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" ht="15" customHeight="1">
       <c r="A560" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36370,7 +36363,7 @@
       <c r="T560" s="11"/>
       <c r="U560" s="11"/>
     </row>
-    <row r="561" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:21" ht="15" customHeight="1">
       <c r="A561" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36421,7 +36414,7 @@
       <c r="T561" s="11"/>
       <c r="U561" s="11"/>
     </row>
-    <row r="562" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21" ht="15" customHeight="1">
       <c r="A562" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36472,7 +36465,7 @@
       <c r="T562" s="11"/>
       <c r="U562" s="11"/>
     </row>
-    <row r="563" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:21" ht="15" customHeight="1">
       <c r="A563" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36523,7 +36516,7 @@
       <c r="T563" s="11"/>
       <c r="U563" s="11"/>
     </row>
-    <row r="564" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:21" ht="15" customHeight="1">
       <c r="A564" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36574,7 +36567,7 @@
       <c r="T564" s="11"/>
       <c r="U564" s="11"/>
     </row>
-    <row r="565" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:21" ht="15" customHeight="1">
       <c r="A565" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36625,7 +36618,7 @@
       <c r="T565" s="11"/>
       <c r="U565" s="11"/>
     </row>
-    <row r="566" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:21" ht="15" customHeight="1">
       <c r="A566" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36676,7 +36669,7 @@
       <c r="T566" s="11"/>
       <c r="U566" s="11"/>
     </row>
-    <row r="567" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:21" ht="15" customHeight="1">
       <c r="A567" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36727,7 +36720,7 @@
       <c r="T567" s="11"/>
       <c r="U567" s="11"/>
     </row>
-    <row r="568" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:21" ht="15" customHeight="1">
       <c r="A568" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36778,7 +36771,7 @@
       <c r="T568" s="11"/>
       <c r="U568" s="11"/>
     </row>
-    <row r="569" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:21" ht="15" customHeight="1">
       <c r="A569" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36831,7 +36824,7 @@
       <c r="T569" s="11"/>
       <c r="U569" s="11"/>
     </row>
-    <row r="570" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:21" ht="15" customHeight="1">
       <c r="A570" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36884,7 +36877,7 @@
       <c r="T570" s="11"/>
       <c r="U570" s="11"/>
     </row>
-    <row r="571" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:21" ht="15" customHeight="1">
       <c r="A571" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36937,7 +36930,7 @@
       <c r="T571" s="11"/>
       <c r="U571" s="11"/>
     </row>
-    <row r="572" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21" ht="15" customHeight="1">
       <c r="A572" s="11" t="s">
         <v>1398</v>
       </c>
@@ -36990,7 +36983,7 @@
       <c r="T572" s="11"/>
       <c r="U572" s="11"/>
     </row>
-    <row r="573" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:21" ht="15" customHeight="1">
       <c r="A573" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37043,7 +37036,7 @@
       <c r="T573" s="11"/>
       <c r="U573" s="11"/>
     </row>
-    <row r="574" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:21" ht="15" customHeight="1">
       <c r="A574" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37096,7 +37089,7 @@
       <c r="T574" s="11"/>
       <c r="U574" s="11"/>
     </row>
-    <row r="575" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:21" ht="15" customHeight="1">
       <c r="A575" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37149,7 +37142,7 @@
       <c r="T575" s="11"/>
       <c r="U575" s="11"/>
     </row>
-    <row r="576" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:21" ht="15" customHeight="1">
       <c r="A576" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37202,7 +37195,7 @@
       <c r="T576" s="11"/>
       <c r="U576" s="11"/>
     </row>
-    <row r="577" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:21" ht="15" customHeight="1">
       <c r="A577" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37255,7 +37248,7 @@
       <c r="T577" s="11"/>
       <c r="U577" s="11"/>
     </row>
-    <row r="578" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:21" ht="15" customHeight="1">
       <c r="A578" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37306,7 +37299,7 @@
       <c r="T578" s="11"/>
       <c r="U578" s="11"/>
     </row>
-    <row r="579" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:21" ht="15" customHeight="1">
       <c r="A579" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37359,7 +37352,7 @@
       <c r="T579" s="11"/>
       <c r="U579" s="11"/>
     </row>
-    <row r="580" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:21" ht="15" customHeight="1">
       <c r="A580" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37412,7 +37405,7 @@
       <c r="T580" s="11"/>
       <c r="U580" s="11"/>
     </row>
-    <row r="581" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:21" ht="15" customHeight="1">
       <c r="A581" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37465,7 +37458,7 @@
       <c r="T581" s="11"/>
       <c r="U581" s="11"/>
     </row>
-    <row r="582" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:21" ht="15" customHeight="1">
       <c r="A582" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37518,7 +37511,7 @@
       <c r="T582" s="11"/>
       <c r="U582" s="11"/>
     </row>
-    <row r="583" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:21" ht="15" customHeight="1">
       <c r="A583" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37571,7 +37564,7 @@
       <c r="T583" s="11"/>
       <c r="U583" s="11"/>
     </row>
-    <row r="584" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:21" ht="15" customHeight="1">
       <c r="A584" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37624,7 +37617,7 @@
       <c r="T584" s="11"/>
       <c r="U584" s="11"/>
     </row>
-    <row r="585" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:21" ht="15" customHeight="1">
       <c r="A585" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37677,7 +37670,7 @@
       <c r="T585" s="11"/>
       <c r="U585" s="11"/>
     </row>
-    <row r="586" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:21" ht="15" customHeight="1">
       <c r="A586" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37730,7 +37723,7 @@
       <c r="T586" s="11"/>
       <c r="U586" s="11"/>
     </row>
-    <row r="587" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:21" ht="15" customHeight="1">
       <c r="A587" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37783,7 +37776,7 @@
       <c r="T587" s="11"/>
       <c r="U587" s="11"/>
     </row>
-    <row r="588" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:21" ht="15" customHeight="1">
       <c r="A588" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37836,7 +37829,7 @@
       <c r="T588" s="11"/>
       <c r="U588" s="11"/>
     </row>
-    <row r="589" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:21" ht="15" customHeight="1">
       <c r="A589" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37887,7 +37880,7 @@
       <c r="T589" s="11"/>
       <c r="U589" s="11"/>
     </row>
-    <row r="590" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:21" ht="15" customHeight="1">
       <c r="A590" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37938,7 +37931,7 @@
       <c r="T590" s="11"/>
       <c r="U590" s="11"/>
     </row>
-    <row r="591" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:21" ht="15" customHeight="1">
       <c r="A591" s="11" t="s">
         <v>1398</v>
       </c>
@@ -37991,7 +37984,7 @@
       <c r="T591" s="11"/>
       <c r="U591" s="11"/>
     </row>
-    <row r="592" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:21" ht="15" customHeight="1">
       <c r="A592" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38044,7 +38037,7 @@
       <c r="T592" s="11"/>
       <c r="U592" s="11"/>
     </row>
-    <row r="593" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:21" ht="15" customHeight="1">
       <c r="A593" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38097,7 +38090,7 @@
       <c r="T593" s="11"/>
       <c r="U593" s="11"/>
     </row>
-    <row r="594" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:21" ht="15" customHeight="1">
       <c r="A594" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38150,7 +38143,7 @@
       <c r="T594" s="11"/>
       <c r="U594" s="11"/>
     </row>
-    <row r="595" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:21" ht="15" customHeight="1">
       <c r="A595" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38203,7 +38196,7 @@
       <c r="T595" s="11"/>
       <c r="U595" s="11"/>
     </row>
-    <row r="596" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:21" ht="15" customHeight="1">
       <c r="A596" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38256,7 +38249,7 @@
       <c r="T596" s="11"/>
       <c r="U596" s="11"/>
     </row>
-    <row r="597" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:21" ht="15" customHeight="1">
       <c r="A597" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38309,7 +38302,7 @@
       <c r="T597" s="11"/>
       <c r="U597" s="11"/>
     </row>
-    <row r="598" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:21" ht="15" customHeight="1">
       <c r="A598" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38362,7 +38355,7 @@
       <c r="T598" s="11"/>
       <c r="U598" s="11"/>
     </row>
-    <row r="599" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:21" ht="15" customHeight="1">
       <c r="A599" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38415,7 +38408,7 @@
       <c r="T599" s="11"/>
       <c r="U599" s="11"/>
     </row>
-    <row r="600" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:21" ht="15" customHeight="1">
       <c r="A600" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38468,7 +38461,7 @@
       <c r="T600" s="11"/>
       <c r="U600" s="11"/>
     </row>
-    <row r="601" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:21" ht="15" customHeight="1">
       <c r="A601" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38521,7 +38514,7 @@
       <c r="T601" s="11"/>
       <c r="U601" s="11"/>
     </row>
-    <row r="602" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:21" ht="15" customHeight="1">
       <c r="A602" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38574,7 +38567,7 @@
       <c r="T602" s="11"/>
       <c r="U602" s="11"/>
     </row>
-    <row r="603" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:21" ht="15" customHeight="1">
       <c r="A603" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38627,7 +38620,7 @@
       <c r="T603" s="11"/>
       <c r="U603" s="11"/>
     </row>
-    <row r="604" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:21" ht="15" customHeight="1">
       <c r="A604" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38680,7 +38673,7 @@
       <c r="T604" s="11"/>
       <c r="U604" s="11"/>
     </row>
-    <row r="605" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:21" ht="15" customHeight="1">
       <c r="A605" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38733,7 +38726,7 @@
       <c r="T605" s="11"/>
       <c r="U605" s="11"/>
     </row>
-    <row r="606" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:21" ht="15" customHeight="1">
       <c r="A606" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38786,7 +38779,7 @@
       <c r="T606" s="11"/>
       <c r="U606" s="11"/>
     </row>
-    <row r="607" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:21" ht="15" customHeight="1">
       <c r="A607" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38837,7 +38830,7 @@
       <c r="T607" s="11"/>
       <c r="U607" s="11"/>
     </row>
-    <row r="608" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:21" ht="15" customHeight="1">
       <c r="A608" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38888,7 +38881,7 @@
       <c r="T608" s="11"/>
       <c r="U608" s="11"/>
     </row>
-    <row r="609" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:21" ht="15" customHeight="1">
       <c r="A609" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38939,7 +38932,7 @@
       <c r="T609" s="11"/>
       <c r="U609" s="11"/>
     </row>
-    <row r="610" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:21" ht="15" customHeight="1">
       <c r="A610" s="11" t="s">
         <v>1398</v>
       </c>
@@ -38992,7 +38985,7 @@
       <c r="T610" s="11"/>
       <c r="U610" s="11"/>
     </row>
-    <row r="611" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:21" ht="15" customHeight="1">
       <c r="A611" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39045,7 +39038,7 @@
       <c r="T611" s="11"/>
       <c r="U611" s="11"/>
     </row>
-    <row r="612" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:21" ht="15" customHeight="1">
       <c r="A612" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39098,7 +39091,7 @@
       <c r="T612" s="11"/>
       <c r="U612" s="11"/>
     </row>
-    <row r="613" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:21" ht="15" customHeight="1">
       <c r="A613" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39151,7 +39144,7 @@
       <c r="T613" s="11"/>
       <c r="U613" s="11"/>
     </row>
-    <row r="614" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:21" ht="15" customHeight="1">
       <c r="A614" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39204,7 +39197,7 @@
       <c r="T614" s="11"/>
       <c r="U614" s="11"/>
     </row>
-    <row r="615" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:21" ht="15" customHeight="1">
       <c r="A615" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39257,7 +39250,7 @@
       <c r="T615" s="11"/>
       <c r="U615" s="11"/>
     </row>
-    <row r="616" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:21" ht="15" customHeight="1">
       <c r="A616" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39308,7 +39301,7 @@
       <c r="T616" s="11"/>
       <c r="U616" s="11"/>
     </row>
-    <row r="617" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:21" ht="15" customHeight="1">
       <c r="A617" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39361,7 +39354,7 @@
       <c r="T617" s="11"/>
       <c r="U617" s="11"/>
     </row>
-    <row r="618" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:21" ht="15" customHeight="1">
       <c r="A618" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39414,7 +39407,7 @@
       <c r="T618" s="11"/>
       <c r="U618" s="11"/>
     </row>
-    <row r="619" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:21" ht="15" customHeight="1">
       <c r="A619" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39467,7 +39460,7 @@
       <c r="T619" s="11"/>
       <c r="U619" s="11"/>
     </row>
-    <row r="620" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:21" ht="15" customHeight="1">
       <c r="A620" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39520,7 +39513,7 @@
       <c r="T620" s="11"/>
       <c r="U620" s="11"/>
     </row>
-    <row r="621" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:21" ht="15" customHeight="1">
       <c r="A621" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39573,7 +39566,7 @@
       <c r="T621" s="11"/>
       <c r="U621" s="11"/>
     </row>
-    <row r="622" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:21" ht="15" customHeight="1">
       <c r="A622" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39626,7 +39619,7 @@
       <c r="T622" s="11"/>
       <c r="U622" s="11"/>
     </row>
-    <row r="623" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:21" ht="15" customHeight="1">
       <c r="A623" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39679,7 +39672,7 @@
       <c r="T623" s="11"/>
       <c r="U623" s="11"/>
     </row>
-    <row r="624" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:21" ht="15" customHeight="1">
       <c r="A624" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39732,7 +39725,7 @@
       <c r="T624" s="11"/>
       <c r="U624" s="11"/>
     </row>
-    <row r="625" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:21" ht="15" customHeight="1">
       <c r="A625" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39785,7 +39778,7 @@
       <c r="T625" s="11"/>
       <c r="U625" s="11"/>
     </row>
-    <row r="626" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:21" ht="15" customHeight="1">
       <c r="A626" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39838,7 +39831,7 @@
       <c r="T626" s="11"/>
       <c r="U626" s="11"/>
     </row>
-    <row r="627" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:21" ht="15" customHeight="1">
       <c r="A627" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39891,7 +39884,7 @@
       <c r="T627" s="11"/>
       <c r="U627" s="11"/>
     </row>
-    <row r="628" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:21" ht="15" customHeight="1">
       <c r="A628" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39944,7 +39937,7 @@
       <c r="T628" s="11"/>
       <c r="U628" s="11"/>
     </row>
-    <row r="629" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:21" ht="15" customHeight="1">
       <c r="A629" s="11" t="s">
         <v>1398</v>
       </c>
@@ -39997,7 +39990,7 @@
       <c r="T629" s="11"/>
       <c r="U629" s="11"/>
     </row>
-    <row r="630" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:21" ht="15" customHeight="1">
       <c r="A630" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40050,7 +40043,7 @@
       <c r="T630" s="11"/>
       <c r="U630" s="11"/>
     </row>
-    <row r="631" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:21" ht="15" customHeight="1">
       <c r="A631" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40103,7 +40096,7 @@
       <c r="T631" s="11"/>
       <c r="U631" s="11"/>
     </row>
-    <row r="632" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:21" ht="15" customHeight="1">
       <c r="A632" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40156,7 +40149,7 @@
       <c r="T632" s="11"/>
       <c r="U632" s="11"/>
     </row>
-    <row r="633" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:21" ht="15" customHeight="1">
       <c r="A633" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40209,7 +40202,7 @@
       <c r="T633" s="11"/>
       <c r="U633" s="11"/>
     </row>
-    <row r="634" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:21" ht="15" customHeight="1">
       <c r="A634" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40262,7 +40255,7 @@
       <c r="T634" s="11"/>
       <c r="U634" s="11"/>
     </row>
-    <row r="635" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:21" ht="15" customHeight="1">
       <c r="A635" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40315,7 +40308,7 @@
       <c r="T635" s="11"/>
       <c r="U635" s="11"/>
     </row>
-    <row r="636" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:21" ht="15" customHeight="1">
       <c r="A636" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40368,7 +40361,7 @@
       <c r="T636" s="11"/>
       <c r="U636" s="11"/>
     </row>
-    <row r="637" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:21" ht="15" customHeight="1">
       <c r="A637" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40421,7 +40414,7 @@
       <c r="T637" s="11"/>
       <c r="U637" s="11"/>
     </row>
-    <row r="638" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:21" ht="15" customHeight="1">
       <c r="A638" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40474,7 +40467,7 @@
       <c r="T638" s="11"/>
       <c r="U638" s="11"/>
     </row>
-    <row r="639" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:21" ht="15" customHeight="1">
       <c r="A639" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40527,7 +40520,7 @@
       <c r="T639" s="11"/>
       <c r="U639" s="11"/>
     </row>
-    <row r="640" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:21" ht="15" customHeight="1">
       <c r="A640" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40580,7 +40573,7 @@
       <c r="T640" s="11"/>
       <c r="U640" s="11"/>
     </row>
-    <row r="641" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:21" ht="15" customHeight="1">
       <c r="A641" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40633,7 +40626,7 @@
       <c r="T641" s="11"/>
       <c r="U641" s="11"/>
     </row>
-    <row r="642" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:21" ht="15" customHeight="1">
       <c r="A642" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40684,7 +40677,7 @@
       <c r="T642" s="11"/>
       <c r="U642" s="11"/>
     </row>
-    <row r="643" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:21" ht="15" customHeight="1">
       <c r="A643" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40737,7 +40730,7 @@
       <c r="T643" s="11"/>
       <c r="U643" s="11"/>
     </row>
-    <row r="644" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:21" ht="15" customHeight="1">
       <c r="A644" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40790,7 +40783,7 @@
       <c r="T644" s="11"/>
       <c r="U644" s="11"/>
     </row>
-    <row r="645" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:21" ht="15" customHeight="1">
       <c r="A645" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40843,7 +40836,7 @@
       <c r="T645" s="11"/>
       <c r="U645" s="11"/>
     </row>
-    <row r="646" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:21" ht="15" customHeight="1">
       <c r="A646" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40896,7 +40889,7 @@
       <c r="T646" s="11"/>
       <c r="U646" s="11"/>
     </row>
-    <row r="647" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:21" ht="15" customHeight="1">
       <c r="A647" s="11" t="s">
         <v>1398</v>
       </c>
@@ -40947,7 +40940,7 @@
       <c r="T647" s="11"/>
       <c r="U647" s="11"/>
     </row>
-    <row r="648" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:21" ht="15" customHeight="1">
       <c r="A648" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41000,7 +40993,7 @@
       <c r="T648" s="11"/>
       <c r="U648" s="11"/>
     </row>
-    <row r="649" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:21" ht="15" customHeight="1">
       <c r="A649" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41051,7 +41044,7 @@
       <c r="T649" s="11"/>
       <c r="U649" s="11"/>
     </row>
-    <row r="650" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:21" ht="15" customHeight="1">
       <c r="A650" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41102,7 +41095,7 @@
       <c r="T650" s="11"/>
       <c r="U650" s="11"/>
     </row>
-    <row r="651" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:21" ht="15" customHeight="1">
       <c r="A651" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41153,7 +41146,7 @@
       <c r="T651" s="11"/>
       <c r="U651" s="11"/>
     </row>
-    <row r="652" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:21" ht="15" customHeight="1">
       <c r="A652" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41206,7 +41199,7 @@
       <c r="T652" s="11"/>
       <c r="U652" s="11"/>
     </row>
-    <row r="653" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:21" ht="15" customHeight="1">
       <c r="A653" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41259,7 +41252,7 @@
       <c r="T653" s="11"/>
       <c r="U653" s="11"/>
     </row>
-    <row r="654" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:21" ht="15" customHeight="1">
       <c r="A654" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41312,7 +41305,7 @@
       <c r="T654" s="11"/>
       <c r="U654" s="11"/>
     </row>
-    <row r="655" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:21" ht="15" customHeight="1">
       <c r="A655" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41365,7 +41358,7 @@
       <c r="T655" s="11"/>
       <c r="U655" s="11"/>
     </row>
-    <row r="656" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:21" ht="15" customHeight="1">
       <c r="A656" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41418,7 +41411,7 @@
       <c r="T656" s="11"/>
       <c r="U656" s="11"/>
     </row>
-    <row r="657" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:21" ht="15" customHeight="1">
       <c r="A657" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41471,7 +41464,7 @@
       <c r="T657" s="11"/>
       <c r="U657" s="11"/>
     </row>
-    <row r="658" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:21" ht="15" customHeight="1">
       <c r="A658" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41522,7 +41515,7 @@
       <c r="T658" s="11"/>
       <c r="U658" s="11"/>
     </row>
-    <row r="659" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:21" ht="15" customHeight="1">
       <c r="A659" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41575,7 +41568,7 @@
       <c r="T659" s="11"/>
       <c r="U659" s="11"/>
     </row>
-    <row r="660" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:21" ht="15" customHeight="1">
       <c r="A660" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41628,7 +41621,7 @@
       <c r="T660" s="11"/>
       <c r="U660" s="11"/>
     </row>
-    <row r="661" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:21" ht="15" customHeight="1">
       <c r="A661" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41681,7 +41674,7 @@
       <c r="T661" s="11"/>
       <c r="U661" s="11"/>
     </row>
-    <row r="662" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:21" ht="15" customHeight="1">
       <c r="A662" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41734,7 +41727,7 @@
       <c r="T662" s="11"/>
       <c r="U662" s="11"/>
     </row>
-    <row r="663" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:21" ht="15" customHeight="1">
       <c r="A663" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41787,7 +41780,7 @@
       <c r="T663" s="11"/>
       <c r="U663" s="11"/>
     </row>
-    <row r="664" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:21" ht="15" customHeight="1">
       <c r="A664" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41838,7 +41831,7 @@
       <c r="T664" s="11"/>
       <c r="U664" s="11"/>
     </row>
-    <row r="665" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:21" ht="15" customHeight="1">
       <c r="A665" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41891,7 +41884,7 @@
       <c r="T665" s="11"/>
       <c r="U665" s="11"/>
     </row>
-    <row r="666" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:21" ht="15" customHeight="1">
       <c r="A666" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41944,7 +41937,7 @@
       <c r="T666" s="11"/>
       <c r="U666" s="11"/>
     </row>
-    <row r="667" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:21" ht="15" customHeight="1">
       <c r="A667" s="11" t="s">
         <v>1398</v>
       </c>
@@ -41997,7 +41990,7 @@
       <c r="T667" s="11"/>
       <c r="U667" s="11"/>
     </row>
-    <row r="668" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:21" ht="15" customHeight="1">
       <c r="A668" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42048,7 +42041,7 @@
       <c r="T668" s="11"/>
       <c r="U668" s="11"/>
     </row>
-    <row r="669" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:21" ht="15" customHeight="1">
       <c r="A669" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42101,7 +42094,7 @@
       <c r="T669" s="11"/>
       <c r="U669" s="11"/>
     </row>
-    <row r="670" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:21" ht="15" customHeight="1">
       <c r="A670" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42154,7 +42147,7 @@
       <c r="T670" s="11"/>
       <c r="U670" s="11"/>
     </row>
-    <row r="671" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:21" ht="15" customHeight="1">
       <c r="A671" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42207,7 +42200,7 @@
       <c r="T671" s="11"/>
       <c r="U671" s="11"/>
     </row>
-    <row r="672" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:21" ht="15" customHeight="1">
       <c r="A672" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42260,7 +42253,7 @@
       <c r="T672" s="11"/>
       <c r="U672" s="11"/>
     </row>
-    <row r="673" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:21" ht="15" customHeight="1">
       <c r="A673" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42313,7 +42306,7 @@
       <c r="T673" s="11"/>
       <c r="U673" s="11"/>
     </row>
-    <row r="674" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:21" ht="15" customHeight="1">
       <c r="A674" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42366,7 +42359,7 @@
       <c r="T674" s="11"/>
       <c r="U674" s="11"/>
     </row>
-    <row r="675" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:21" ht="15" customHeight="1">
       <c r="A675" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42419,7 +42412,7 @@
       <c r="T675" s="11"/>
       <c r="U675" s="11"/>
     </row>
-    <row r="676" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:21" ht="15" customHeight="1">
       <c r="A676" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42472,7 +42465,7 @@
       <c r="T676" s="11"/>
       <c r="U676" s="11"/>
     </row>
-    <row r="677" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:21" ht="15" customHeight="1">
       <c r="A677" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42525,7 +42518,7 @@
       <c r="T677" s="11"/>
       <c r="U677" s="11"/>
     </row>
-    <row r="678" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:21" ht="15" customHeight="1">
       <c r="A678" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42578,7 +42571,7 @@
       <c r="T678" s="11"/>
       <c r="U678" s="11"/>
     </row>
-    <row r="679" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:21" ht="15" customHeight="1">
       <c r="A679" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42631,7 +42624,7 @@
       <c r="T679" s="11"/>
       <c r="U679" s="11"/>
     </row>
-    <row r="680" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:21" ht="15" customHeight="1">
       <c r="A680" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42682,7 +42675,7 @@
       <c r="T680" s="11"/>
       <c r="U680" s="11"/>
     </row>
-    <row r="681" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:21" ht="15" customHeight="1">
       <c r="A681" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42735,7 +42728,7 @@
       <c r="T681" s="11"/>
       <c r="U681" s="11"/>
     </row>
-    <row r="682" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:21" ht="15" customHeight="1">
       <c r="A682" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42788,7 +42781,7 @@
       <c r="T682" s="11"/>
       <c r="U682" s="11"/>
     </row>
-    <row r="683" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:21" ht="15" customHeight="1">
       <c r="A683" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42841,7 +42834,7 @@
       <c r="T683" s="11"/>
       <c r="U683" s="11"/>
     </row>
-    <row r="684" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:21" ht="15" customHeight="1">
       <c r="A684" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42894,7 +42887,7 @@
       <c r="T684" s="11"/>
       <c r="U684" s="11"/>
     </row>
-    <row r="685" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:21" ht="15" customHeight="1">
       <c r="A685" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42945,7 +42938,7 @@
       <c r="T685" s="11"/>
       <c r="U685" s="11"/>
     </row>
-    <row r="686" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:21" ht="15" customHeight="1">
       <c r="A686" s="11" t="s">
         <v>1398</v>
       </c>
@@ -42996,7 +42989,7 @@
       <c r="T686" s="11"/>
       <c r="U686" s="11"/>
     </row>
-    <row r="687" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:21" ht="15" customHeight="1">
       <c r="A687" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43047,7 +43040,7 @@
       <c r="T687" s="11"/>
       <c r="U687" s="11"/>
     </row>
-    <row r="688" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:21" ht="15" customHeight="1">
       <c r="A688" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43098,7 +43091,7 @@
       <c r="T688" s="11"/>
       <c r="U688" s="11"/>
     </row>
-    <row r="689" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:21" ht="15" customHeight="1">
       <c r="A689" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43149,7 +43142,7 @@
       <c r="T689" s="11"/>
       <c r="U689" s="11"/>
     </row>
-    <row r="690" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:21" ht="15" customHeight="1">
       <c r="A690" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43200,7 +43193,7 @@
       <c r="T690" s="11"/>
       <c r="U690" s="11"/>
     </row>
-    <row r="691" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:21" ht="15" customHeight="1">
       <c r="A691" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43253,7 +43246,7 @@
       <c r="T691" s="11"/>
       <c r="U691" s="11"/>
     </row>
-    <row r="692" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:21" ht="15" customHeight="1">
       <c r="A692" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43304,7 +43297,7 @@
       <c r="T692" s="11"/>
       <c r="U692" s="11"/>
     </row>
-    <row r="693" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:21" ht="15" customHeight="1">
       <c r="A693" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43355,7 +43348,7 @@
       <c r="T693" s="11"/>
       <c r="U693" s="11"/>
     </row>
-    <row r="694" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:21" ht="15" customHeight="1">
       <c r="A694" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43406,7 +43399,7 @@
       <c r="T694" s="11"/>
       <c r="U694" s="11"/>
     </row>
-    <row r="695" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:21" ht="15" customHeight="1">
       <c r="A695" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43457,7 +43450,7 @@
       <c r="T695" s="11"/>
       <c r="U695" s="11"/>
     </row>
-    <row r="696" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:21" ht="15" customHeight="1">
       <c r="A696" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43510,7 +43503,7 @@
       <c r="T696" s="11"/>
       <c r="U696" s="11"/>
     </row>
-    <row r="697" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:21" ht="15" customHeight="1">
       <c r="A697" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43563,7 +43556,7 @@
       <c r="T697" s="11"/>
       <c r="U697" s="11"/>
     </row>
-    <row r="698" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:21" ht="15" customHeight="1">
       <c r="A698" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43616,7 +43609,7 @@
       <c r="T698" s="11"/>
       <c r="U698" s="11"/>
     </row>
-    <row r="699" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:21" ht="15" customHeight="1">
       <c r="A699" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43669,7 +43662,7 @@
       <c r="T699" s="11"/>
       <c r="U699" s="11"/>
     </row>
-    <row r="700" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:21" ht="15" customHeight="1">
       <c r="A700" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43722,7 +43715,7 @@
       <c r="T700" s="11"/>
       <c r="U700" s="11"/>
     </row>
-    <row r="701" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:21" ht="15" customHeight="1">
       <c r="A701" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43775,7 +43768,7 @@
       <c r="T701" s="11"/>
       <c r="U701" s="11"/>
     </row>
-    <row r="702" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:21" ht="15" customHeight="1">
       <c r="A702" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43828,7 +43821,7 @@
       <c r="T702" s="11"/>
       <c r="U702" s="11"/>
     </row>
-    <row r="703" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:21" ht="15" customHeight="1">
       <c r="A703" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43881,7 +43874,7 @@
       <c r="T703" s="11"/>
       <c r="U703" s="11"/>
     </row>
-    <row r="704" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:21" ht="15" customHeight="1">
       <c r="A704" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43932,7 +43925,7 @@
       <c r="T704" s="11"/>
       <c r="U704" s="11"/>
     </row>
-    <row r="705" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:21" ht="15" customHeight="1">
       <c r="A705" s="11" t="s">
         <v>1398</v>
       </c>
@@ -43985,7 +43978,7 @@
       <c r="T705" s="11"/>
       <c r="U705" s="11"/>
     </row>
-    <row r="706" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:21" ht="15" customHeight="1">
       <c r="A706" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44038,7 +44031,7 @@
       <c r="T706" s="11"/>
       <c r="U706" s="11"/>
     </row>
-    <row r="707" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:21" ht="15" customHeight="1">
       <c r="A707" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44089,7 +44082,7 @@
       <c r="T707" s="11"/>
       <c r="U707" s="11"/>
     </row>
-    <row r="708" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:21" ht="15" customHeight="1">
       <c r="A708" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44142,7 +44135,7 @@
       <c r="T708" s="11"/>
       <c r="U708" s="11"/>
     </row>
-    <row r="709" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:21" ht="15" customHeight="1">
       <c r="A709" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44193,7 +44186,7 @@
       <c r="T709" s="11"/>
       <c r="U709" s="11"/>
     </row>
-    <row r="710" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:21" ht="15" customHeight="1">
       <c r="A710" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44244,7 +44237,7 @@
       <c r="T710" s="11"/>
       <c r="U710" s="11"/>
     </row>
-    <row r="711" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:21" ht="15" customHeight="1">
       <c r="A711" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44295,7 +44288,7 @@
       <c r="T711" s="11"/>
       <c r="U711" s="11"/>
     </row>
-    <row r="712" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:21" ht="15" customHeight="1">
       <c r="A712" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44346,7 +44339,7 @@
       <c r="T712" s="11"/>
       <c r="U712" s="11"/>
     </row>
-    <row r="713" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:21" ht="15" customHeight="1">
       <c r="A713" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44397,7 +44390,7 @@
       <c r="T713" s="11"/>
       <c r="U713" s="11"/>
     </row>
-    <row r="714" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:21" ht="15" customHeight="1">
       <c r="A714" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44448,7 +44441,7 @@
       <c r="T714" s="11"/>
       <c r="U714" s="11"/>
     </row>
-    <row r="715" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:21" ht="15" customHeight="1">
       <c r="A715" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44499,7 +44492,7 @@
       <c r="T715" s="11"/>
       <c r="U715" s="11"/>
     </row>
-    <row r="716" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:21" ht="15" customHeight="1">
       <c r="A716" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44550,7 +44543,7 @@
       <c r="T716" s="11"/>
       <c r="U716" s="11"/>
     </row>
-    <row r="717" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:21" ht="15" customHeight="1">
       <c r="A717" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44601,7 +44594,7 @@
       <c r="T717" s="11"/>
       <c r="U717" s="11"/>
     </row>
-    <row r="718" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:21" ht="15" customHeight="1">
       <c r="A718" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44652,7 +44645,7 @@
       <c r="T718" s="11"/>
       <c r="U718" s="11"/>
     </row>
-    <row r="719" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:21" ht="15" customHeight="1">
       <c r="A719" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44703,7 +44696,7 @@
       <c r="T719" s="11"/>
       <c r="U719" s="11"/>
     </row>
-    <row r="720" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:21" ht="15" customHeight="1">
       <c r="A720" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44756,7 +44749,7 @@
       <c r="T720" s="11"/>
       <c r="U720" s="11"/>
     </row>
-    <row r="721" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:21" ht="15" customHeight="1">
       <c r="A721" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44809,7 +44802,7 @@
       <c r="T721" s="11"/>
       <c r="U721" s="11"/>
     </row>
-    <row r="722" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:21" ht="15" customHeight="1">
       <c r="A722" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44860,7 +44853,7 @@
       <c r="T722" s="11"/>
       <c r="U722" s="11"/>
     </row>
-    <row r="723" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:21" ht="15" customHeight="1">
       <c r="A723" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44911,7 +44904,7 @@
       <c r="T723" s="11"/>
       <c r="U723" s="11"/>
     </row>
-    <row r="724" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:21" ht="15" customHeight="1">
       <c r="A724" s="11" t="s">
         <v>1398</v>
       </c>
@@ -44962,7 +44955,7 @@
       <c r="T724" s="11"/>
       <c r="U724" s="11"/>
     </row>
-    <row r="725" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:21" ht="15" customHeight="1">
       <c r="A725" s="11" t="s">
         <v>1398</v>
       </c>
@@ -45013,7 +45006,7 @@
       <c r="T725" s="11"/>
       <c r="U725" s="11"/>
     </row>
-    <row r="726" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:21" ht="15" customHeight="1">
       <c r="A726" s="11"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -45036,7 +45029,7 @@
       <c r="T726" s="11"/>
       <c r="U726" s="11"/>
     </row>
-    <row r="727" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:21" ht="15" customHeight="1">
       <c r="D727" s="19"/>
       <c r="E727" s="19"/>
       <c r="F727" s="10"/>
@@ -45047,7 +45040,7 @@
       <c r="R727" s="21"/>
       <c r="S727" s="10"/>
     </row>
-    <row r="728" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:21" ht="15" customHeight="1">
       <c r="D728" s="19"/>
       <c r="E728" s="19"/>
       <c r="F728" s="10"/>
@@ -45058,7 +45051,7 @@
       <c r="R728" s="21"/>
       <c r="S728" s="10"/>
     </row>
-    <row r="729" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:21" ht="15" customHeight="1">
       <c r="D729" s="19"/>
       <c r="E729" s="19"/>
       <c r="F729" s="10"/>
@@ -45069,7 +45062,7 @@
       <c r="R729" s="21"/>
       <c r="S729" s="10"/>
     </row>
-    <row r="730" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:21" ht="15" customHeight="1">
       <c r="D730" s="19"/>
       <c r="E730" s="19"/>
       <c r="F730" s="10"/>
@@ -45080,7 +45073,7 @@
       <c r="R730" s="21"/>
       <c r="S730" s="10"/>
     </row>
-    <row r="731" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:21" ht="15" customHeight="1">
       <c r="D731" s="19"/>
       <c r="E731" s="19"/>
       <c r="F731" s="10"/>
@@ -45091,7 +45084,7 @@
       <c r="R731" s="21"/>
       <c r="S731" s="10"/>
     </row>
-    <row r="732" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:21" ht="15" customHeight="1">
       <c r="D732" s="19"/>
       <c r="E732" s="19"/>
       <c r="F732" s="10"/>
@@ -45102,7 +45095,7 @@
       <c r="R732" s="21"/>
       <c r="S732" s="10"/>
     </row>
-    <row r="733" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:21" ht="15" customHeight="1">
       <c r="D733" s="19"/>
       <c r="E733" s="19"/>
       <c r="F733" s="10"/>
@@ -45113,7 +45106,7 @@
       <c r="R733" s="21"/>
       <c r="S733" s="10"/>
     </row>
-    <row r="734" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:21" ht="15" customHeight="1">
       <c r="D734" s="19"/>
       <c r="E734" s="19"/>
       <c r="F734" s="10"/>
@@ -45124,7 +45117,7 @@
       <c r="R734" s="21"/>
       <c r="S734" s="10"/>
     </row>
-    <row r="735" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:21" ht="15" customHeight="1">
       <c r="D735" s="19"/>
       <c r="E735" s="19"/>
       <c r="F735" s="10"/>
@@ -45135,11 +45128,8 @@
       <c r="R735" s="21"/>
       <c r="S735" s="10"/>
     </row>
-    <row r="736" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M736" s="10" t="e">
-        <f t="array" aca="1" ref="M736" ca="1">INDEX(showData("https://betaapi.xbrl.us/api/v1/concept/search?concept.local-name="&amp;K736&amp;"&amp;concept.namespace=http://xbrl.ifrs.org/taxonomy/2018-03-16/ifrs-full&amp;dts.id=301366&amp;label.role-short=documentation&amp;fields=label.text","name","label",FALSE),1,3)</f>
-        <v>#NAME?</v>
-      </c>
+    <row r="736" spans="1:21" ht="15" customHeight="1">
+      <c r="M736" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S725">
